--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AA23B8-2563-4E8E-810F-51031F3D28BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323EB38C-AE56-49F0-BE83-02B5834B323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="207">
   <si>
     <t>##var</t>
   </si>
@@ -140,15 +129,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>res_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string#ref=ResEffectCfgCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -385,18 +366,6 @@
     <t>CreateEffect_3</t>
   </si>
   <si>
-    <t>maxKeyNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定key后限制最大数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ResEffect_BulletSolo1</t>
   </si>
   <si>
@@ -426,9 +395,6 @@
   <si>
     <t>机枪开火命中</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_FlashSolo1</t>
   </si>
   <si>
     <t>ResEffect_HitSolo1</t>
@@ -487,6 +453,125 @@
     <t>ResEffect_Drag1</t>
   </si>
   <si>
+    <t>持续时间(s),-1表示永久</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resEffectId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效资源id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效资源id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ActionCfg_PlayAudioCategory?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_1</t>
+  </si>
+  <si>
+    <t>playAudioActionId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_dead</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_FlashSolo1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_solo</t>
+  </si>
+  <si>
+    <t>PlayAudio_aoe</t>
+  </si>
+  <si>
+    <t>PlayAudio_line</t>
+  </si>
+  <si>
+    <t>PlayAudio_circle</t>
+  </si>
+  <si>
+    <t>弩箭命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭命中2</t>
+  </si>
+  <si>
+    <t>弩箭命中3</t>
+  </si>
+  <si>
+    <t>加农炮命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮命中2</t>
+  </si>
+  <si>
+    <t>加农炮命中3</t>
+  </si>
+  <si>
+    <t>Arrow_Hit_1</t>
+  </si>
+  <si>
+    <t>Arrow_Hit_2</t>
+  </si>
+  <si>
+    <t>Arrow_Hit_3</t>
+  </si>
+  <si>
+    <t>Cannon_Hit_1</t>
+  </si>
+  <si>
+    <t>Cannon_Hit_2</t>
+  </si>
+  <si>
+    <t>Cannon_Hit_3</t>
+  </si>
+  <si>
+    <t>ResEffect_Arrow_Hit_1</t>
+  </si>
+  <si>
+    <t>ResEffect_Arrow_Hit_2</t>
+  </si>
+  <si>
+    <t>ResEffect_Arrow_Hit_3</t>
+  </si>
+  <si>
+    <t>ResEffect_Cannon_Hit_1</t>
+  </si>
+  <si>
+    <t>ResEffect_Cannon_Hit_2</t>
+  </si>
+  <si>
+    <t>ResEffect_Cannon_Hit_3</t>
+  </si>
+  <si>
+    <t>PlayerLine2</t>
+  </si>
+  <si>
+    <t>PlayerLine3</t>
+  </si>
+  <si>
+    <t>PlayerCircle2</t>
+  </si>
+  <si>
+    <t>PlayerCircle3</t>
+  </si>
+  <si>
     <r>
       <t>0</t>
     </r>
@@ -499,16 +584,284 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,0.8,1.1</t>
+      <t>,1.02,0</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>持续时间(s),-1表示永久</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectCreate</t>
+    <t>0,1.32,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.375,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭开火1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭开火2</t>
+  </si>
+  <si>
+    <t>弩箭开火3</t>
+  </si>
+  <si>
+    <t>加农炮开火1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮开火2</t>
+  </si>
+  <si>
+    <t>加农炮开火3</t>
+  </si>
+  <si>
+    <t>Arrow_Fire_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow_Fire_2</t>
+  </si>
+  <si>
+    <t>Arrow_Fire_3</t>
+  </si>
+  <si>
+    <t>Cannon_Fire_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon_Fire_2</t>
+  </si>
+  <si>
+    <t>Cannon_Fire_3</t>
+  </si>
+  <si>
+    <t>ResEffect_Arrow_Fire_1</t>
+  </si>
+  <si>
+    <t>ResEffect_Arrow_Fire_2</t>
+  </si>
+  <si>
+    <t>ResEffect_Arrow_Fire_3</t>
+  </si>
+  <si>
+    <t>ResEffect_Cannon_Fire_1</t>
+  </si>
+  <si>
+    <t>ResEffect_Cannon_Fire_2</t>
+  </si>
+  <si>
+    <t>ResEffect_Cannon_Fire_3</t>
+  </si>
+  <si>
+    <t>0,1.74,0.88</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.1,0.9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.5,0.9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.77,0.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.9,0.9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.46,0.9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮命中2</t>
+  </si>
+  <si>
+    <t>龙击炮命中3</t>
+  </si>
+  <si>
+    <t>雷电塔命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔命中2</t>
+  </si>
+  <si>
+    <t>雷电塔命中3</t>
+  </si>
+  <si>
+    <t>雷电塔施法1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔施法2</t>
+  </si>
+  <si>
+    <t>雷电塔施法3</t>
+  </si>
+  <si>
+    <t>冰魔塔命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔命中2</t>
+  </si>
+  <si>
+    <t>冰魔塔命中3</t>
+  </si>
+  <si>
+    <t>加速塔命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速塔命中2</t>
+  </si>
+  <si>
+    <t>加速塔命中3</t>
+  </si>
+  <si>
+    <t>TowerDragon_Hit1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDragon_Hit2</t>
+  </si>
+  <si>
+    <t>TowerDragon_Hit3</t>
+  </si>
+  <si>
+    <t>TowerElec_Hit1</t>
+  </si>
+  <si>
+    <t>TowerElec_Hit2</t>
+  </si>
+  <si>
+    <t>TowerElec_Hit3</t>
+  </si>
+  <si>
+    <t>TowerElec_Skill1</t>
+  </si>
+  <si>
+    <t>TowerElec_Skill2</t>
+  </si>
+  <si>
+    <t>TowerElec_Skill3</t>
+  </si>
+  <si>
+    <t>TowerIce_Hit1</t>
+  </si>
+  <si>
+    <t>TowerIce_Hit2</t>
+  </si>
+  <si>
+    <t>TowerIce_Hit3</t>
+  </si>
+  <si>
+    <t>TowerTime_Hit1</t>
+  </si>
+  <si>
+    <t>TowerTime_Hit2</t>
+  </si>
+  <si>
+    <t>TowerTime_Hit3</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerDragon_Hit1</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerDragon_Hit2</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerDragon_Hit3</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerElec_Hit1</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerElec_Hit2</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerElec_Hit3</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerElec_Skill1</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerElec_Skill2</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerElec_Skill3</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerIce_Hit1</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerIce_Hit2</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerIce_Hit3</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerTime_Hit1</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerTime_Hit2</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerTime_Hit3</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0,0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.7025,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.01,2.361,0.031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3.013,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerIce_Hit1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxKeyNum#default=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定key后限制最大数量(-1表示不限制)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +869,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +909,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -671,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -694,6 +1056,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,31 +1356,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1029,26 +1397,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1"/>
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -1059,8 +1429,9 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,16 +1445,16 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -1094,8 +1465,9 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1111,26 +1483,28 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="J3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
-      <c r="O3"/>
+      <c r="M3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1141,8 +1515,9 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1536,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4"/>
+      <c r="O4" s="4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -1172,8 +1547,9 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1189,30 +1565,32 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1223,10 +1601,11 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1240,27 +1619,28 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
+        <v>15</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
         <v>5</v>
       </c>
-      <c r="K6" s="9" t="b">
+      <c r="L6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1270,31 +1650,32 @@
         <v>EffectCreate_2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
         <v>5</v>
       </c>
-      <c r="K7" s="9" t="b">
+      <c r="L7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1304,28 +1685,31 @@
         <v>EffectCreate_3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
         <v>5</v>
       </c>
-      <c r="K8" s="9" t="b">
+      <c r="L8" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1335,494 +1719,1465 @@
         <v>EffectCreate_4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="9">
+      <c r="J9" s="8"/>
+      <c r="K9" s="9">
         <v>3</v>
       </c>
-      <c r="K9" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L9" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ref="D10:D13" si="3">B10&amp;"_"&amp;C10</f>
         <v>EffectCreate_MachineGunLvl1Effect_1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="9">
+      <c r="J10" s="8"/>
+      <c r="K10" s="9">
         <v>5</v>
       </c>
-      <c r="K10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11:D12" si="4">B11&amp;"_"&amp;C11</f>
         <v>EffectCreate_EneryPylon_PFX1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="9">
+      <c r="J11" s="8"/>
+      <c r="K11" s="9">
         <v>5</v>
       </c>
-      <c r="K11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="4"/>
         <v>EffectCreate_LaserFireEffect1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="9">
+      <c r="J12" s="8"/>
+      <c r="K12" s="9">
         <v>5</v>
       </c>
-      <c r="K12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="3"/>
         <v>EffectCreate_HoverTankFireShow1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="9">
+      <c r="J13" s="8"/>
+      <c r="K13" s="9">
         <v>5</v>
       </c>
-      <c r="K13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="L13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D55" si="5">B14&amp;"_"&amp;C14</f>
+        <v>EffectCreate_BeHit1</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ref="D14:D24" si="5">B14&amp;"_"&amp;C14</f>
-        <v>EffectCreate_BeHit1</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9">
+        <v>3</v>
+      </c>
+      <c r="L14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:D39" si="6">B15&amp;"_"&amp;C15</f>
+        <v>EffectCreate_Death_1</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9">
-        <v>3</v>
-      </c>
-      <c r="K14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15:D23" si="6">B15&amp;"_"&amp;C15</f>
-        <v>EffectCreate_Death_1</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="9">
+      <c r="J15" s="8"/>
+      <c r="K15" s="9">
         <v>3</v>
       </c>
-      <c r="K15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="5"/>
         <v>EffectCreate_PlayerSolo1_Fire</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9" t="b">
+        <v>70</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="5"/>
         <v>EffectCreate_PlayerSolo1_Flash</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9" t="b">
+        <v>56</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="5"/>
         <v>EffectCreate_PlayerSolo1_Hit</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="10" t="str">
         <f t="shared" si="6"/>
         <v>EffectCreate_PlayerAoe1_Fire</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="12">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12" t="b">
+        <v>84</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D20" s="10" t="str">
         <f t="shared" si="6"/>
         <v>EffectCreate_PlayerAoe1_Flash</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="12">
-        <v>1</v>
-      </c>
-      <c r="K20" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="str">
         <f t="shared" si="6"/>
         <v>EffectCreate_PlayerAoe1_Hit</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="12">
-        <v>1</v>
-      </c>
-      <c r="K21" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="K21" s="12">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="5"/>
         <v>EffectCreate_EnemySolo1_Fire</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="6"/>
         <v>EffectCreate_PlayerLine1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="J23" s="9">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
         <v>-1</v>
       </c>
-      <c r="K23" s="9" t="b">
+      <c r="L23" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="D24" t="str">
+        <f t="shared" si="6"/>
+        <v>EffectCreate_PlayerLine2</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="9">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25" si="7">B25&amp;"_"&amp;C25</f>
+        <v>EffectCreate_PlayerLine3</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="str">
         <f t="shared" si="5"/>
         <v>EffectCreate_PlayerCircle1</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="E26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9">
         <v>-1</v>
       </c>
-      <c r="K24" s="9" t="b">
+      <c r="L26" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="8"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27" si="8">B27&amp;"_"&amp;C27</f>
+        <v>EffectCreate_PlayerCircle2</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:D31" si="9">B28&amp;"_"&amp;C28</f>
+        <v>EffectCreate_PlayerCircle3</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L28" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>EffectCreate_Arrow_Fire_1</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="15">
+        <v>3</v>
+      </c>
+      <c r="L29" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>EffectCreate_Arrow_Fire_2</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="15">
+        <v>3</v>
+      </c>
+      <c r="L30" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>EffectCreate_Arrow_Fire_3</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="15">
+        <v>3</v>
+      </c>
+      <c r="L31" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="6"/>
+        <v>EffectCreate_Arrow_Hit_1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="9">
+        <v>3</v>
+      </c>
+      <c r="L32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_Arrow_Hit_2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="9">
+        <v>3</v>
+      </c>
+      <c r="L33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>EffectCreate_Arrow_Hit_3</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="9">
+        <v>3</v>
+      </c>
+      <c r="L34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>EffectCreate_Cannon_Fire_1</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="15">
+        <v>3</v>
+      </c>
+      <c r="L35" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="14" t="str">
+        <f t="shared" ref="D36:D37" si="10">B36&amp;"_"&amp;C36</f>
+        <v>EffectCreate_Cannon_Fire_2</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36" s="15">
+        <v>3</v>
+      </c>
+      <c r="L36" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v>EffectCreate_Cannon_Fire_3</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="15">
+        <v>3</v>
+      </c>
+      <c r="L37" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_Cannon_Hit_1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="9">
+        <v>3</v>
+      </c>
+      <c r="L38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="6"/>
+        <v>EffectCreate_Cannon_Hit_2</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K39" s="9">
+        <v>3</v>
+      </c>
+      <c r="L39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_Cannon_Hit_3</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40" s="9">
+        <v>3</v>
+      </c>
+      <c r="L40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerDragon_Hit1</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" t="s">
+        <v>184</v>
+      </c>
+      <c r="K41" s="9">
+        <v>3</v>
+      </c>
+      <c r="L41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerDragon_Hit2</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="K42" s="9">
+        <v>3</v>
+      </c>
+      <c r="L42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerDragon_Hit3</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+      <c r="K43" s="9">
+        <v>3</v>
+      </c>
+      <c r="L43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerElec_Hit1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="9">
+        <v>3</v>
+      </c>
+      <c r="L44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerElec_Hit2</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" t="s">
+        <v>188</v>
+      </c>
+      <c r="K45" s="9">
+        <v>3</v>
+      </c>
+      <c r="L45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerElec_Hit3</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K46" s="9">
+        <v>3</v>
+      </c>
+      <c r="L46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerElec_Skill1</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" t="s">
+        <v>175</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="9">
+        <v>3</v>
+      </c>
+      <c r="L47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerElec_Skill2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" t="s">
+        <v>191</v>
+      </c>
+      <c r="I48" t="s">
+        <v>176</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="9">
+        <v>3</v>
+      </c>
+      <c r="L48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerElec_Skill3</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" t="s">
+        <v>192</v>
+      </c>
+      <c r="I49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9">
+        <v>3</v>
+      </c>
+      <c r="L49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerIce_Hit1</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" t="s">
+        <v>193</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J50">
+        <v>-1</v>
+      </c>
+      <c r="K50" s="9">
+        <v>3</v>
+      </c>
+      <c r="L50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerIce_Hit2</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51">
+        <v>-1</v>
+      </c>
+      <c r="K51" s="9">
+        <v>3</v>
+      </c>
+      <c r="L51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerIce_Hit3</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G52" t="s">
+        <v>195</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52">
+        <v>-1</v>
+      </c>
+      <c r="K52" s="9">
+        <v>3</v>
+      </c>
+      <c r="L52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerTime_Hit1</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K53" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerTime_Hit2</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" t="s">
+        <v>197</v>
+      </c>
+      <c r="I54" t="s">
+        <v>182</v>
+      </c>
+      <c r="K54" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="5"/>
+        <v>EffectCreate_TowerTime_Hit3</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" t="s">
+        <v>198</v>
+      </c>
+      <c r="I55" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L55" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323EB38C-AE56-49F0-BE83-02B5834B323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A7AF7F-C644-4665-A6E3-173B5A948927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="215">
   <si>
     <t>##var</t>
   </si>
@@ -862,6 +862,63 @@
   </si>
   <si>
     <t>指定key后限制最大数量(-1表示不限制)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeedHeal1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子治疗1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_SeedHeal1</t>
+  </si>
+  <si>
+    <t>ResEffect_Fire1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect_Fire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Fire3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect_Drag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Drag3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1356,11 +1413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2174,8 +2231,8 @@
       <c r="F23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>89</v>
+      <c r="G23" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="H23" t="s">
         <v>103</v>
@@ -2252,14 +2309,14 @@
       <c r="F25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>89</v>
+      <c r="G25" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="H25" t="s">
         <v>103</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="J25" s="9">
         <v>1</v>
@@ -2363,14 +2420,14 @@
       <c r="F28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>90</v>
+      <c r="G28" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="H28" t="s">
         <v>104</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="J28" s="9">
         <v>1</v>
@@ -3171,6 +3228,39 @@
         <v>0</v>
       </c>
       <c r="N55" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" ref="D56" si="11">B56&amp;"_"&amp;C56</f>
+        <v>EffectCreate_SeedHeal1</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" t="s">
+        <v>209</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56">
+        <v>-1</v>
+      </c>
+      <c r="K56" s="9">
+        <v>2</v>
+      </c>
+      <c r="L56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>199</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B12A60F-088D-4DDF-8880-9731D7D30DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254846FD-7822-4EAB-94AC-4BED6E847D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="770">
   <si>
     <t>##var</t>
   </si>
@@ -733,103 +733,6 @@
     <t>种子治疗3</t>
   </si>
   <si>
-    <t>FireTowerAoShu1</t>
-  </si>
-  <si>
-    <t>奥术精灵1开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerAoShu1</t>
-  </si>
-  <si>
-    <t>FireTowerAoShu2</t>
-  </si>
-  <si>
-    <t>奥术精灵2开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerAoShu2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0.6</t>
-    </r>
-  </si>
-  <si>
-    <t>FireTowerAoShu3</t>
-  </si>
-  <si>
-    <t>奥术精灵3开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerAoShu3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0.6</t>
-    </r>
-  </si>
-  <si>
     <t>FireTowerCurse1</t>
   </si>
   <si>
@@ -972,33 +875,6 @@
   </si>
   <si>
     <t>0,3,0.37</t>
-  </si>
-  <si>
-    <t>FireTowerGoblin1</t>
-  </si>
-  <si>
-    <t>窃贼哥布林1开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerGoblin1</t>
-  </si>
-  <si>
-    <t>FireTowerGoblin2</t>
-  </si>
-  <si>
-    <t>窃贼哥布林2开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerGoblin2</t>
-  </si>
-  <si>
-    <t>FireTowerGoblin3</t>
-  </si>
-  <si>
-    <t>窃贼哥布林3开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerGoblin3</t>
   </si>
   <si>
     <t>FireTowerIceArrow1</t>
@@ -1649,15 +1525,15 @@
   </si>
   <si>
     <t>升级/塔放置特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_LevelUp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_Placed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Infinite_9_2_ZhongZi</t>
@@ -1718,7 +1594,7 @@
   </si>
   <si>
     <t>是否仅自己可见</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1735,11 +1611,11 @@
       </rPr>
       <t>_Stun</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_Buff_Stun</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>无限模式怪物技能特效_弱化</t>
@@ -1773,7 +1649,7 @@
       </rPr>
       <t>_1_Dan</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Challenge3_1_1</t>
@@ -2013,15 +1889,6 @@
     <t>EffectCreate_SeedHeal3</t>
   </si>
   <si>
-    <t>EffectCreate_FireTowerAoShu1</t>
-  </si>
-  <si>
-    <t>EffectCreate_FireTowerAoShu2</t>
-  </si>
-  <si>
-    <t>EffectCreate_FireTowerAoShu3</t>
-  </si>
-  <si>
     <t>EffectCreate_FireTowerCurse1</t>
   </si>
   <si>
@@ -2058,15 +1925,6 @@
     <t>EffectCreate_FireTowerFireBall3</t>
   </si>
   <si>
-    <t>EffectCreate_FireTowerGoblin1</t>
-  </si>
-  <si>
-    <t>EffectCreate_FireTowerGoblin2</t>
-  </si>
-  <si>
-    <t>EffectCreate_FireTowerGoblin3</t>
-  </si>
-  <si>
     <t>EffectCreate_FireTowerIceArrow1</t>
   </si>
   <si>
@@ -2395,7 +2253,7 @@
   </si>
   <si>
     <t>ResEffect_Infinite_20_2_Gui</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_Monster_Challenge3_1_1</t>
@@ -2489,7 +2347,7 @@
   </si>
   <si>
     <t>ResEffect_Monster_Challenge5_5_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_Monster_Challenge5_1_1</t>
@@ -2511,11 +2369,11 @@
   </si>
   <si>
     <t>被弱化特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Challenge_Niao1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Challenge_Niao2</t>
@@ -2525,7 +2383,7 @@
   </si>
   <si>
     <t>挑战关卡怪物技能特效_加速1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>挑战关卡怪物技能特效_加速2</t>
@@ -2544,75 +2402,75 @@
   </si>
   <si>
     <t>怪物出场特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_MonsterShow</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_MonsterShow</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Buff_Line3_Fire</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>火焰塔3灼烧buff特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_Buff_Line3_Fire</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Line3_Fire</t>
   </si>
   <si>
     <t>EffectCreate_PlayerLine1_Hit</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_PathLineRenderer_1</t>
   </si>
   <si>
     <t>EffectCreate_Arrow_CritHit_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>弩箭暴击命中3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_Arrow_CritHit_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_SimpleLightningBoltPrefab1</t>
   </si>
   <si>
     <t>EffectCreate_SimpleLightningBoltPrefab1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_SimpleLightningBoltAnimatedPrefab1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雷电特效2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ResEffect_SimpleLightningBoltAnimatedPrefab1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectShowType</t>
@@ -2628,23 +2486,23 @@
   </si>
   <si>
     <t>EffectCreate_SimpleLightningBoltPrefab2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雷电特效11</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雷电特效12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雷电特效21</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_SimpleLightningBoltAnimatedPrefab2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Send2Receives</t>
@@ -2654,30 +2512,354 @@
   </si>
   <si>
     <t>ResEffect_LightningTrailPrefab1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_LightningTrailPrefab1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雷电子弹拖尾特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PointLightningTrail</t>
+  </si>
+  <si>
+    <t>EffectCreate_FireTowerBomb1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_FireTowerBomb2</t>
+  </si>
+  <si>
+    <t>EffectCreate_FireTowerBomb3</t>
+  </si>
+  <si>
+    <t>炸弹开火</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect_FireTower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect_FireTower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect_FireTower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>FireTowerBomb1</t>
+  </si>
+  <si>
+    <t>FireTowerBomb2</t>
+  </si>
+  <si>
+    <t>FireTowerBomb3</t>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitTowerBomb1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitTowerBomb2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitTowerBomb3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>炸弹1命中</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹2命中</t>
+  </si>
+  <si>
+    <t>炸弹3命中</t>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitTowerBomb1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitTowerBomb2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitTowerBomb3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>HitTowerBomb1</t>
+  </si>
+  <si>
+    <t>HitTowerBomb2</t>
+  </si>
+  <si>
+    <t>HitTowerBomb3</t>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_BuffTower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹3眩晕</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BuffTowerBomb3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTowerBomb3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2833,60 +3015,60 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3317,33 +3499,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA211"/>
+  <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L219" sqref="L219"/>
+      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111:XFD113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="11" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3375,7 +3557,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>10</v>
@@ -3400,7 +3582,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3437,7 +3619,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -3469,7 +3651,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>18</v>
@@ -3494,7 +3676,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -3527,7 +3709,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -3541,7 +3723,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>30</v>
@@ -3559,7 +3741,7 @@
         <v>34</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>35</v>
@@ -3588,24 +3770,24 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D6" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="J6" s="8">
         <v>3</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L6" s="8" t="b">
         <v>1</v>
@@ -3617,24 +3799,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="J7" s="8">
         <v>3</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L7" s="8" t="b">
         <v>1</v>
@@ -3646,24 +3828,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="D8" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="J8" s="8">
         <v>3</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L8" s="8" t="b">
         <v>1</v>
@@ -3675,24 +3857,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="J9" s="8">
         <v>3</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L9" s="8" t="b">
         <v>1</v>
@@ -3704,24 +3886,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="J10" s="8">
         <v>3</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L10" s="8" t="b">
         <v>1</v>
@@ -3733,24 +3915,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="J11" s="8">
         <v>-1</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L11" s="8" t="b">
         <v>1</v>
@@ -3762,24 +3944,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="D12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>475</v>
       </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>495</v>
-      </c>
       <c r="J12" s="8">
         <v>-1</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L12" s="8" t="b">
         <v>1</v>
@@ -3791,24 +3973,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D13" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="J13" s="8">
         <v>-1</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L13" s="8" t="b">
         <v>1</v>
@@ -3820,24 +4002,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="D14" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="J14" s="8">
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L14" s="8" t="b">
         <v>1</v>
@@ -3849,24 +4031,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="D15" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="J15" s="8">
         <v>-1</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L15" s="8" t="b">
         <v>1</v>
@@ -3878,24 +4060,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="D16" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>479</v>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>499</v>
-      </c>
       <c r="J16" s="8">
         <v>3</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L16" s="8" t="b">
         <v>1</v>
@@ -3907,24 +4089,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="D17" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="J17" s="8">
         <v>3</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L17" s="8" t="b">
         <v>1</v>
@@ -3936,24 +4118,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>481</v>
       </c>
-      <c r="D18" t="s">
-        <v>479</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>501</v>
-      </c>
       <c r="J18" s="8">
         <v>3</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L18" s="8" t="b">
         <v>1</v>
@@ -3965,24 +4147,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="J19" s="8">
         <v>3</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L19" s="8" t="b">
         <v>1</v>
@@ -3994,24 +4176,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="J20" s="8">
         <v>3</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L20" s="8" t="b">
         <v>1</v>
@@ -4023,24 +4205,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="J21" s="8">
         <v>-1</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L21" s="8" t="b">
         <v>1</v>
@@ -4052,24 +4234,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="J22" s="8">
         <v>3</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L22" s="8" t="b">
         <v>1</v>
@@ -4081,24 +4263,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="D23" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="J23" s="8">
         <v>3</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L23" s="8" t="b">
         <v>1</v>
@@ -4110,24 +4292,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="J24" s="8">
         <v>-1</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L24" s="8" t="b">
         <v>0</v>
@@ -4139,24 +4321,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="D26" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="J26" s="8">
         <v>3</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L26" s="8" t="b">
         <v>1</v>
@@ -4168,24 +4350,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="16" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="D27" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="J27" s="8">
         <v>3</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L27" s="8" t="b">
         <v>1</v>
@@ -4197,24 +4379,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="D28" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="J28" s="8">
         <v>3</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L28" s="8" t="b">
         <v>1</v>
@@ -4226,24 +4408,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="D29" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="J29" s="8">
         <v>3</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L29" s="8" t="b">
         <v>1</v>
@@ -4255,24 +4437,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="D30" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="J30" s="8">
         <v>3</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L30" s="8" t="b">
         <v>1</v>
@@ -4284,24 +4466,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="D31" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="J31" s="8">
         <v>3</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L31" s="8" t="b">
         <v>1</v>
@@ -4313,24 +4495,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="D32" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="J32" s="8">
         <v>3</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L32" s="8" t="b">
         <v>1</v>
@@ -4342,24 +4524,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="D33" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="J33" s="8">
         <v>-1</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L33" s="8" t="b">
         <v>1</v>
@@ -4371,24 +4553,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="D34" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="J34" s="8">
         <v>-1</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L34" s="8" t="b">
         <v>1</v>
@@ -4400,24 +4582,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="D35" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="J35" s="8">
         <v>-1</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L35" s="8" t="b">
         <v>1</v>
@@ -4429,24 +4611,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="D36" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="J36" s="8">
         <v>-1</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L36" s="8" t="b">
         <v>1</v>
@@ -4458,24 +4640,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="D37" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="J37" s="8">
         <v>-1</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L37" s="8" t="b">
         <v>1</v>
@@ -4487,24 +4669,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="D38" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="J38" s="8">
         <v>-1</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L38" s="8" t="b">
         <v>1</v>
@@ -4516,24 +4698,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="D39" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="J39" s="8">
         <v>-1</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L39" s="8" t="b">
         <v>1</v>
@@ -4545,24 +4727,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="D40" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="J40" s="8">
         <v>-1</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L40" s="8" t="b">
         <v>1</v>
@@ -4574,24 +4756,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="D41" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="J41" s="8">
         <v>3</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L41" s="8" t="b">
         <v>1</v>
@@ -4603,24 +4785,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="16" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="D42" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="J42" s="8">
         <v>3</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L42" s="8" t="b">
         <v>1</v>
@@ -4632,24 +4814,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="16" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="D43" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="J43" s="8">
         <v>3</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L43" s="8" t="b">
         <v>1</v>
@@ -4661,24 +4843,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="16" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="D44" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="J44" s="8">
         <v>3</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L44" s="8" t="b">
         <v>1</v>
@@ -4690,24 +4872,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="D45" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="J45" s="8">
         <v>3</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L45" s="8" t="b">
         <v>1</v>
@@ -4719,24 +4901,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="D46" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="J46" s="8">
         <v>3</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L46" s="8" t="b">
         <v>1</v>
@@ -4748,24 +4930,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="D47" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="J47" s="8">
         <v>3</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L47" s="8" t="b">
         <v>1</v>
@@ -4777,24 +4959,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="D48" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="J48" s="8">
         <v>3</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L48" s="8" t="b">
         <v>1</v>
@@ -4806,24 +4988,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="D49" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="J49" s="8">
         <v>3</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L49" s="8" t="b">
         <v>1</v>
@@ -4835,27 +5017,27 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="16"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="D51" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="J51" s="8">
         <v>2</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L51" s="8" t="b">
         <v>0</v>
@@ -4867,24 +5049,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="D52" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="J52" s="8">
         <v>2</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L52" s="8" t="b">
         <v>1</v>
@@ -4896,21 +5078,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="14" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="D53" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="H53" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="I53">
         <v>-1</v>
@@ -4919,7 +5101,7 @@
         <v>-1</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L53" s="8" t="b">
         <v>1</v>
@@ -4931,7 +5113,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="16"/>
       <c r="F54" s="16"/>
       <c r="J54" s="8"/>
@@ -4939,24 +5121,24 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="C55" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="J55" s="8">
         <v>2</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L55" s="8" t="b">
         <v>0</v>
@@ -4965,9 +5147,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="16" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="C56" t="s">
         <v>40</v>
@@ -4988,7 +5170,7 @@
         <v>5</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L56" s="8" t="b">
         <v>0</v>
@@ -4997,9 +5179,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="16" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -5020,7 +5202,7 @@
         <v>5</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L57" s="8" t="b">
         <v>0</v>
@@ -5029,9 +5211,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="16" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="C58" t="s">
         <v>46</v>
@@ -5055,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L58" s="8" t="b">
         <v>0</v>
@@ -5064,9 +5246,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -5081,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L59" s="8" t="b">
         <v>1</v>
@@ -5090,9 +5272,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C60" t="s">
         <v>51</v>
@@ -5110,7 +5292,7 @@
         <v>5</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L60" s="8" t="b">
         <v>1</v>
@@ -5122,9 +5304,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="C61" t="s">
         <v>51</v>
@@ -5142,7 +5324,7 @@
         <v>5</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L61" s="8" t="b">
         <v>1</v>
@@ -5154,9 +5336,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
@@ -5174,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L62" s="8" t="b">
         <v>1</v>
@@ -5186,9 +5368,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="16" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="C63" t="s">
         <v>56</v>
@@ -5206,7 +5388,7 @@
         <v>5</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L63" s="8" t="b">
         <v>1</v>
@@ -5218,9 +5400,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="16" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C64" t="s">
         <v>59</v>
@@ -5238,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L64" s="8" t="b">
         <v>1</v>
@@ -5250,9 +5432,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="16" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="C65" t="s">
         <v>62</v>
@@ -5270,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L65" s="8" t="b">
         <v>1</v>
@@ -5279,9 +5461,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>65</v>
@@ -5300,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L66" s="8" t="b">
         <v>0</v>
@@ -5312,9 +5494,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>69</v>
@@ -5335,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L67" s="8" t="b">
         <v>0</v>
@@ -5347,9 +5529,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>72</v>
@@ -5368,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L68" s="8" t="b">
         <v>1</v>
@@ -5380,9 +5562,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>75</v>
@@ -5401,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L69" s="9" t="b">
         <v>0</v>
@@ -5413,9 +5595,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>79</v>
@@ -5436,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L70" s="9" t="b">
         <v>0</v>
@@ -5448,9 +5630,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>82</v>
@@ -5469,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L71" s="9" t="b">
         <v>1</v>
@@ -5481,9 +5663,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>84</v>
@@ -5510,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L72" s="8" t="b">
         <v>1</v>
@@ -5519,9 +5701,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>87</v>
@@ -5548,7 +5730,7 @@
         <v>-1</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L73" s="8" t="b">
         <v>1</v>
@@ -5560,9 +5742,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>87</v>
@@ -5589,7 +5771,7 @@
         <v>-1</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L74" s="8" t="b">
         <v>1</v>
@@ -5601,9 +5783,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>87</v>
@@ -5630,7 +5812,7 @@
         <v>-1</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L75" s="8" t="b">
         <v>1</v>
@@ -5642,21 +5824,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="14" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="G76" t="s">
         <v>89</v>
@@ -5669,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L76" s="8" t="b">
         <v>0</v>
@@ -5681,9 +5863,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>95</v>
@@ -5710,7 +5892,7 @@
         <v>-1</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L77" s="8" t="b">
         <v>1</v>
@@ -5719,9 +5901,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>95</v>
@@ -5748,7 +5930,7 @@
         <v>-1</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L78" s="8" t="b">
         <v>1</v>
@@ -5757,9 +5939,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>95</v>
@@ -5786,7 +5968,7 @@
         <v>-1</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L79" s="8" t="b">
         <v>1</v>
@@ -5795,9 +5977,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>100</v>
@@ -5815,7 +5997,7 @@
         <v>3</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L80" s="8" t="b">
         <v>1</v>
@@ -5827,9 +6009,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>103</v>
@@ -5847,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L81" s="8" t="b">
         <v>1</v>
@@ -5859,9 +6041,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>106</v>
@@ -5879,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L82" s="8" t="b">
         <v>1</v>
@@ -5891,9 +6073,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="C83" t="s">
         <v>109</v>
@@ -5908,7 +6090,7 @@
         <v>3</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L83" s="8" t="b">
         <v>1</v>
@@ -5920,9 +6102,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="C84" t="s">
         <v>111</v>
@@ -5937,7 +6119,7 @@
         <v>3</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L84" s="8" t="b">
         <v>1</v>
@@ -5949,9 +6131,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="C85" t="s">
         <v>113</v>
@@ -5966,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L85" s="8" t="b">
         <v>1</v>
@@ -5978,24 +6160,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="C86" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="J86" s="8">
         <v>3</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L86" s="8" t="b">
         <v>1</v>
@@ -6007,9 +6189,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>115</v>
@@ -6027,7 +6209,7 @@
         <v>3</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L87" s="8" t="b">
         <v>1</v>
@@ -6039,9 +6221,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>118</v>
@@ -6059,7 +6241,7 @@
         <v>3</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L88" s="8" t="b">
         <v>1</v>
@@ -6071,9 +6253,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>121</v>
@@ -6091,7 +6273,7 @@
         <v>3</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L89" s="8" t="b">
         <v>1</v>
@@ -6103,9 +6285,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C90" t="s">
         <v>124</v>
@@ -6120,7 +6302,7 @@
         <v>3</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L90" s="8" t="b">
         <v>1</v>
@@ -6132,9 +6314,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="C91" t="s">
         <v>126</v>
@@ -6149,7 +6331,7 @@
         <v>3</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L91" s="8" t="b">
         <v>1</v>
@@ -6161,9 +6343,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="C92" t="s">
         <v>128</v>
@@ -6178,7 +6360,7 @@
         <v>3</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L92" s="8" t="b">
         <v>1</v>
@@ -6190,9 +6372,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C93" t="s">
         <v>130</v>
@@ -6207,7 +6389,7 @@
         <v>3</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L93" s="8" t="b">
         <v>1</v>
@@ -6219,9 +6401,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="C94" t="s">
         <v>132</v>
@@ -6236,7 +6418,7 @@
         <v>3</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L94" s="8" t="b">
         <v>1</v>
@@ -6248,9 +6430,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C95" t="s">
         <v>134</v>
@@ -6265,7 +6447,7 @@
         <v>3</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L95" s="8" t="b">
         <v>1</v>
@@ -6277,9 +6459,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="C96" t="s">
         <v>136</v>
@@ -6294,7 +6476,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L96" s="8" t="b">
         <v>1</v>
@@ -6306,9 +6488,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="C97" t="s">
         <v>138</v>
@@ -6323,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L97" s="8" t="b">
         <v>1</v>
@@ -6335,9 +6517,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="C98" t="s">
         <v>140</v>
@@ -6352,7 +6534,7 @@
         <v>3</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L98" s="8" t="b">
         <v>1</v>
@@ -6364,9 +6546,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="C99" t="s">
         <v>143</v>
@@ -6387,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L99" s="8" t="b">
         <v>1</v>
@@ -6399,9 +6581,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="C100" t="s">
         <v>147</v>
@@ -6422,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L100" s="8" t="b">
         <v>1</v>
@@ -6434,9 +6616,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="C101" t="s">
         <v>151</v>
@@ -6457,7 +6639,7 @@
         <v>3</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L101" s="8" t="b">
         <v>1</v>
@@ -6469,9 +6651,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="C102" t="s">
         <v>155</v>
@@ -6492,7 +6674,7 @@
         <v>3</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L102" s="8" t="b">
         <v>1</v>
@@ -6504,9 +6686,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="C103" t="s">
         <v>158</v>
@@ -6527,7 +6709,7 @@
         <v>3</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L103" s="8" t="b">
         <v>1</v>
@@ -6539,9 +6721,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="C104" t="s">
         <v>161</v>
@@ -6562,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L104" s="8" t="b">
         <v>1</v>
@@ -6574,9 +6756,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="C105" t="s">
         <v>164</v>
@@ -6594,7 +6776,7 @@
         <v>-1</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L105" s="8" t="b">
         <v>1</v>
@@ -6606,9 +6788,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="C106" t="s">
         <v>168</v>
@@ -6626,7 +6808,7 @@
         <v>-1</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L106" s="8" t="b">
         <v>1</v>
@@ -6638,9 +6820,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="C107" t="s">
         <v>171</v>
@@ -6658,7 +6840,7 @@
         <v>-1</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L107" s="8" t="b">
         <v>1</v>
@@ -6670,9 +6852,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="5" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>174</v>
@@ -6693,7 +6875,7 @@
         <v>2</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L108" s="8" t="b">
         <v>1</v>
@@ -6705,9 +6887,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="5" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>178</v>
@@ -6728,7 +6910,7 @@
         <v>2</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L109" s="8" t="b">
         <v>1</v>
@@ -6740,9 +6922,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="5" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>180</v>
@@ -6763,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L110" s="8" t="b">
         <v>1</v>
@@ -6775,9 +6957,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="C111" t="s">
         <v>182</v>
@@ -6798,7 +6980,7 @@
         <v>3</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L111" s="8" t="b">
         <v>1</v>
@@ -6806,1041 +6988,1012 @@
       <c r="M111" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O111" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O111" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
+        <v>542</v>
+      </c>
+      <c r="C112" t="s">
+        <v>186</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>187</v>
+      </c>
+      <c r="H112" t="s">
+        <v>185</v>
+      </c>
+      <c r="I112">
+        <v>-1</v>
+      </c>
+      <c r="J112" s="8">
+        <v>3</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L112" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>543</v>
+      </c>
+      <c r="C113" t="s">
+        <v>190</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>191</v>
+      </c>
+      <c r="H113" t="s">
+        <v>189</v>
+      </c>
+      <c r="I113">
+        <v>-1</v>
+      </c>
+      <c r="J113" s="8">
+        <v>3</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L113" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M113" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>544</v>
+      </c>
+      <c r="C114" t="s">
+        <v>194</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>195</v>
+      </c>
+      <c r="H114" t="s">
+        <v>193</v>
+      </c>
+      <c r="I114">
+        <v>-1</v>
+      </c>
+      <c r="J114" s="8">
+        <v>3</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L114" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>545</v>
+      </c>
+      <c r="C115" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>199</v>
+      </c>
+      <c r="H115" t="s">
+        <v>197</v>
+      </c>
+      <c r="I115">
+        <v>-1</v>
+      </c>
+      <c r="J115" s="8">
+        <v>3</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L115" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>546</v>
+      </c>
+      <c r="C116" t="s">
+        <v>202</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>203</v>
+      </c>
+      <c r="H116" t="s">
+        <v>201</v>
+      </c>
+      <c r="I116">
+        <v>-1</v>
+      </c>
+      <c r="J116" s="8">
+        <v>3</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L116" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>547</v>
+      </c>
+      <c r="C117" t="s">
+        <v>206</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>207</v>
+      </c>
+      <c r="H117" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117">
+        <v>-1</v>
+      </c>
+      <c r="J117" s="8">
+        <v>3</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L117" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>548</v>
+      </c>
+      <c r="C118" t="s">
+        <v>210</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>211</v>
+      </c>
+      <c r="H118" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118">
+        <v>-1</v>
+      </c>
+      <c r="J118" s="8">
+        <v>3</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L118" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>549</v>
+      </c>
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>215</v>
+      </c>
+      <c r="H119" t="s">
+        <v>213</v>
+      </c>
+      <c r="I119">
+        <v>-1</v>
+      </c>
+      <c r="J119" s="8">
+        <v>3</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L119" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>550</v>
+      </c>
+      <c r="C120" t="s">
+        <v>218</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>219</v>
+      </c>
+      <c r="H120" t="s">
+        <v>217</v>
+      </c>
+      <c r="I120">
+        <v>-1</v>
+      </c>
+      <c r="J120" s="8">
+        <v>3</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L120" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M120" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>551</v>
+      </c>
+      <c r="C121" t="s">
+        <v>222</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>223</v>
+      </c>
+      <c r="H121" t="s">
+        <v>221</v>
+      </c>
+      <c r="I121">
+        <v>-1</v>
+      </c>
+      <c r="J121" s="8">
+        <v>3</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L121" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M121" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>552</v>
+      </c>
+      <c r="C122" t="s">
+        <v>226</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>227</v>
+      </c>
+      <c r="H122" t="s">
+        <v>225</v>
+      </c>
+      <c r="I122">
+        <v>-1</v>
+      </c>
+      <c r="J122" s="8">
+        <v>3</v>
+      </c>
+      <c r="K122" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L122" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M122" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>553</v>
+      </c>
+      <c r="C123" t="s">
+        <v>230</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>231</v>
+      </c>
+      <c r="H123" t="s">
+        <v>229</v>
+      </c>
+      <c r="I123">
+        <v>-1</v>
+      </c>
+      <c r="J123" s="8">
+        <v>3</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L123" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M123" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>554</v>
+      </c>
+      <c r="C124" t="s">
+        <v>234</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>235</v>
+      </c>
+      <c r="H124" t="s">
+        <v>233</v>
+      </c>
+      <c r="I124">
+        <v>-1</v>
+      </c>
+      <c r="J124" s="8">
+        <v>3</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L124" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M124" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>555</v>
+      </c>
+      <c r="C125" t="s">
+        <v>238</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>239</v>
+      </c>
+      <c r="H125" t="s">
+        <v>237</v>
+      </c>
+      <c r="I125">
+        <v>-1</v>
+      </c>
+      <c r="J125" s="8">
+        <v>3</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L125" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>556</v>
+      </c>
+      <c r="C126" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>243</v>
+      </c>
+      <c r="H126" t="s">
+        <v>241</v>
+      </c>
+      <c r="I126">
+        <v>-1</v>
+      </c>
+      <c r="J126" s="8">
+        <v>3</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L126" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M126" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>557</v>
+      </c>
+      <c r="C127" t="s">
+        <v>246</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>247</v>
+      </c>
+      <c r="H127" t="s">
+        <v>245</v>
+      </c>
+      <c r="I127">
+        <v>-1</v>
+      </c>
+      <c r="J127" s="8">
+        <v>3</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L127" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M127" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>558</v>
+      </c>
+      <c r="C128" t="s">
+        <v>250</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>251</v>
+      </c>
+      <c r="H128" t="s">
+        <v>249</v>
+      </c>
+      <c r="I128">
+        <v>-1</v>
+      </c>
+      <c r="J128" s="8">
+        <v>3</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L128" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M128" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>559</v>
+      </c>
+      <c r="C129" t="s">
+        <v>254</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>255</v>
+      </c>
+      <c r="H129" t="s">
+        <v>253</v>
+      </c>
+      <c r="I129">
+        <v>-1</v>
+      </c>
+      <c r="J129" s="8">
+        <v>3</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L129" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M129" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>560</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>259</v>
+      </c>
+      <c r="H130" t="s">
+        <v>257</v>
+      </c>
+      <c r="I130">
+        <v>-1</v>
+      </c>
+      <c r="J130" s="8">
+        <v>3</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L130" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M130" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>561</v>
+      </c>
+      <c r="C131" t="s">
+        <v>262</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>263</v>
+      </c>
+      <c r="H131" t="s">
+        <v>261</v>
+      </c>
+      <c r="I131">
+        <v>-1</v>
+      </c>
+      <c r="J131" s="8">
+        <v>3</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L131" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M131" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
         <v>562</v>
       </c>
-      <c r="C112" t="s">
-        <v>185</v>
-      </c>
-      <c r="E112" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" t="s">
-        <v>186</v>
-      </c>
-      <c r="H112" t="s">
-        <v>184</v>
-      </c>
-      <c r="I112">
-        <v>-1</v>
-      </c>
-      <c r="J112" s="8">
-        <v>3</v>
-      </c>
-      <c r="K112" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L112" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M112" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O112" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="C132" t="s">
+        <v>266</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>267</v>
+      </c>
+      <c r="H132" t="s">
+        <v>265</v>
+      </c>
+      <c r="I132">
+        <v>-1</v>
+      </c>
+      <c r="J132" s="8">
+        <v>3</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L132" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M132" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
         <v>563</v>
       </c>
-      <c r="C113" t="s">
-        <v>189</v>
-      </c>
-      <c r="E113" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113" t="s">
-        <v>190</v>
-      </c>
-      <c r="H113" t="s">
-        <v>188</v>
-      </c>
-      <c r="I113">
-        <v>-1</v>
-      </c>
-      <c r="J113" s="8">
-        <v>3</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L113" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M113" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O113" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+      <c r="C133" t="s">
+        <v>270</v>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>271</v>
+      </c>
+      <c r="H133" t="s">
+        <v>269</v>
+      </c>
+      <c r="I133">
+        <v>-1</v>
+      </c>
+      <c r="J133" s="8">
+        <v>3</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L133" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M133" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>564</v>
       </c>
-      <c r="C114" t="s">
-        <v>193</v>
-      </c>
-      <c r="E114" t="b">
-        <v>0</v>
-      </c>
-      <c r="F114" t="s">
-        <v>194</v>
-      </c>
-      <c r="H114" t="s">
-        <v>192</v>
-      </c>
-      <c r="I114">
-        <v>-1</v>
-      </c>
-      <c r="J114" s="8">
-        <v>3</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L114" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M114" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O114" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="C134" t="s">
+        <v>274</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>275</v>
+      </c>
+      <c r="H134" t="s">
+        <v>273</v>
+      </c>
+      <c r="I134">
+        <v>-1</v>
+      </c>
+      <c r="J134" s="8">
+        <v>3</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L134" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M134" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B135" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="H135" t="s">
+        <v>751</v>
+      </c>
+      <c r="I135">
+        <v>-1</v>
+      </c>
+      <c r="J135" s="8">
+        <v>3</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L135" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M135" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B136" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="H136" t="s">
+        <v>752</v>
+      </c>
+      <c r="I136">
+        <v>-1</v>
+      </c>
+      <c r="J136" s="8">
+        <v>3</v>
+      </c>
+      <c r="K136" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L136" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M136" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B137" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="H137" t="s">
+        <v>753</v>
+      </c>
+      <c r="I137">
+        <v>-1</v>
+      </c>
+      <c r="J137" s="8">
+        <v>3</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L137" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M137" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
         <v>565</v>
       </c>
-      <c r="C115" t="s">
-        <v>197</v>
-      </c>
-      <c r="E115" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" t="s">
-        <v>198</v>
-      </c>
-      <c r="H115" t="s">
-        <v>196</v>
-      </c>
-      <c r="I115">
-        <v>-1</v>
-      </c>
-      <c r="J115" s="8">
-        <v>3</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L115" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M115" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+      <c r="C139" t="s">
+        <v>278</v>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>279</v>
+      </c>
+      <c r="H139" t="s">
+        <v>277</v>
+      </c>
+      <c r="I139">
+        <v>-1</v>
+      </c>
+      <c r="J139" s="8">
+        <v>3</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L139" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M139" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
         <v>566</v>
       </c>
-      <c r="C116" t="s">
-        <v>201</v>
-      </c>
-      <c r="E116" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" t="s">
-        <v>202</v>
-      </c>
-      <c r="H116" t="s">
-        <v>200</v>
-      </c>
-      <c r="I116">
-        <v>-1</v>
-      </c>
-      <c r="J116" s="8">
-        <v>3</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L116" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M116" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O116" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+      <c r="C140" t="s">
+        <v>281</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>282</v>
+      </c>
+      <c r="H140" t="s">
+        <v>280</v>
+      </c>
+      <c r="I140">
+        <v>-1</v>
+      </c>
+      <c r="J140" s="8">
+        <v>3</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L140" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M140" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
         <v>567</v>
       </c>
-      <c r="C117" t="s">
-        <v>205</v>
-      </c>
-      <c r="E117" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" t="s">
-        <v>206</v>
-      </c>
-      <c r="H117" t="s">
-        <v>204</v>
-      </c>
-      <c r="I117">
-        <v>-1</v>
-      </c>
-      <c r="J117" s="8">
-        <v>3</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L117" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M117" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O117" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>568</v>
-      </c>
-      <c r="C118" t="s">
-        <v>209</v>
-      </c>
-      <c r="E118" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" t="s">
-        <v>210</v>
-      </c>
-      <c r="H118" t="s">
-        <v>208</v>
-      </c>
-      <c r="I118">
-        <v>-1</v>
-      </c>
-      <c r="J118" s="8">
-        <v>3</v>
-      </c>
-      <c r="K118" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L118" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M118" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O118" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>569</v>
-      </c>
-      <c r="C119" t="s">
-        <v>213</v>
-      </c>
-      <c r="E119" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" t="s">
-        <v>214</v>
-      </c>
-      <c r="H119" t="s">
-        <v>212</v>
-      </c>
-      <c r="I119">
-        <v>-1</v>
-      </c>
-      <c r="J119" s="8">
-        <v>3</v>
-      </c>
-      <c r="K119" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L119" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M119" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O119" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>570</v>
-      </c>
-      <c r="C120" t="s">
-        <v>217</v>
-      </c>
-      <c r="E120" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120" t="s">
-        <v>218</v>
-      </c>
-      <c r="H120" t="s">
-        <v>216</v>
-      </c>
-      <c r="I120">
-        <v>-1</v>
-      </c>
-      <c r="J120" s="8">
-        <v>3</v>
-      </c>
-      <c r="K120" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L120" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M120" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O120" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>571</v>
-      </c>
-      <c r="C121" t="s">
-        <v>221</v>
-      </c>
-      <c r="E121" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" t="s">
-        <v>222</v>
-      </c>
-      <c r="H121" t="s">
-        <v>220</v>
-      </c>
-      <c r="I121">
-        <v>-1</v>
-      </c>
-      <c r="J121" s="8">
-        <v>3</v>
-      </c>
-      <c r="K121" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L121" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M121" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O121" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>572</v>
-      </c>
-      <c r="C122" t="s">
-        <v>225</v>
-      </c>
-      <c r="E122" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122" t="s">
-        <v>226</v>
-      </c>
-      <c r="H122" t="s">
-        <v>224</v>
-      </c>
-      <c r="I122">
-        <v>-1</v>
-      </c>
-      <c r="J122" s="8">
-        <v>3</v>
-      </c>
-      <c r="K122" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L122" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M122" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O122" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>573</v>
-      </c>
-      <c r="C123" t="s">
-        <v>229</v>
-      </c>
-      <c r="E123" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" t="s">
-        <v>230</v>
-      </c>
-      <c r="H123" t="s">
-        <v>228</v>
-      </c>
-      <c r="I123">
-        <v>-1</v>
-      </c>
-      <c r="J123" s="8">
-        <v>3</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L123" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M123" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O123" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>574</v>
-      </c>
-      <c r="C124" t="s">
-        <v>233</v>
-      </c>
-      <c r="E124" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124" t="s">
-        <v>234</v>
-      </c>
-      <c r="H124" t="s">
-        <v>232</v>
-      </c>
-      <c r="I124">
-        <v>-1</v>
-      </c>
-      <c r="J124" s="8">
-        <v>3</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L124" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M124" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O124" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>575</v>
-      </c>
-      <c r="C125" t="s">
-        <v>237</v>
-      </c>
-      <c r="E125" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
-      </c>
-      <c r="H125" t="s">
-        <v>236</v>
-      </c>
-      <c r="I125">
-        <v>-1</v>
-      </c>
-      <c r="J125" s="8">
-        <v>3</v>
-      </c>
-      <c r="K125" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L125" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M125" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O125" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>576</v>
-      </c>
-      <c r="C126" t="s">
-        <v>241</v>
-      </c>
-      <c r="E126" t="b">
-        <v>0</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
-      </c>
-      <c r="H126" t="s">
-        <v>240</v>
-      </c>
-      <c r="I126">
-        <v>-1</v>
-      </c>
-      <c r="J126" s="8">
-        <v>3</v>
-      </c>
-      <c r="K126" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L126" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M126" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O126" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>577</v>
-      </c>
-      <c r="C127" t="s">
-        <v>244</v>
-      </c>
-      <c r="E127" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" t="s">
-        <v>245</v>
-      </c>
-      <c r="H127" t="s">
-        <v>243</v>
-      </c>
-      <c r="I127">
-        <v>-1</v>
-      </c>
-      <c r="J127" s="8">
-        <v>3</v>
-      </c>
-      <c r="K127" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L127" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M127" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O127" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>578</v>
-      </c>
-      <c r="C128" t="s">
-        <v>247</v>
-      </c>
-      <c r="E128" t="b">
-        <v>0</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
-      </c>
-      <c r="H128" t="s">
-        <v>246</v>
-      </c>
-      <c r="I128">
-        <v>-1</v>
-      </c>
-      <c r="J128" s="8">
-        <v>3</v>
-      </c>
-      <c r="K128" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L128" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M128" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O128" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>579</v>
-      </c>
-      <c r="C129" t="s">
-        <v>250</v>
-      </c>
-      <c r="E129" t="b">
-        <v>0</v>
-      </c>
-      <c r="F129" t="s">
-        <v>251</v>
-      </c>
-      <c r="H129" t="s">
-        <v>249</v>
-      </c>
-      <c r="I129">
-        <v>-1</v>
-      </c>
-      <c r="J129" s="8">
-        <v>3</v>
-      </c>
-      <c r="K129" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L129" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M129" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O129" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>580</v>
-      </c>
-      <c r="C130" t="s">
-        <v>254</v>
-      </c>
-      <c r="E130" t="b">
-        <v>0</v>
-      </c>
-      <c r="F130" t="s">
-        <v>255</v>
-      </c>
-      <c r="H130" t="s">
-        <v>253</v>
-      </c>
-      <c r="I130">
-        <v>-1</v>
-      </c>
-      <c r="J130" s="8">
-        <v>3</v>
-      </c>
-      <c r="K130" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L130" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M130" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O130" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>581</v>
-      </c>
-      <c r="C131" t="s">
-        <v>258</v>
-      </c>
-      <c r="E131" t="b">
-        <v>0</v>
-      </c>
-      <c r="F131" t="s">
-        <v>259</v>
-      </c>
-      <c r="H131" t="s">
-        <v>257</v>
-      </c>
-      <c r="I131">
-        <v>-1</v>
-      </c>
-      <c r="J131" s="8">
-        <v>3</v>
-      </c>
-      <c r="K131" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L131" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M131" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O131" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>582</v>
-      </c>
-      <c r="C132" t="s">
-        <v>262</v>
-      </c>
-      <c r="E132" t="b">
-        <v>0</v>
-      </c>
-      <c r="F132" t="s">
-        <v>263</v>
-      </c>
-      <c r="H132" t="s">
-        <v>261</v>
-      </c>
-      <c r="I132">
-        <v>-1</v>
-      </c>
-      <c r="J132" s="8">
-        <v>3</v>
-      </c>
-      <c r="K132" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L132" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M132" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O132" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>583</v>
-      </c>
-      <c r="C133" t="s">
-        <v>266</v>
-      </c>
-      <c r="E133" t="b">
-        <v>0</v>
-      </c>
-      <c r="F133" t="s">
-        <v>267</v>
-      </c>
-      <c r="H133" t="s">
-        <v>265</v>
-      </c>
-      <c r="I133">
-        <v>-1</v>
-      </c>
-      <c r="J133" s="8">
-        <v>3</v>
-      </c>
-      <c r="K133" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L133" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M133" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O133" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>584</v>
-      </c>
-      <c r="C134" t="s">
-        <v>270</v>
-      </c>
-      <c r="E134" t="b">
-        <v>0</v>
-      </c>
-      <c r="F134" t="s">
-        <v>271</v>
-      </c>
-      <c r="H134" t="s">
-        <v>269</v>
-      </c>
-      <c r="I134">
-        <v>-1</v>
-      </c>
-      <c r="J134" s="8">
-        <v>3</v>
-      </c>
-      <c r="K134" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L134" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M134" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O134" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>585</v>
-      </c>
-      <c r="C135" t="s">
-        <v>274</v>
-      </c>
-      <c r="E135" t="b">
-        <v>0</v>
-      </c>
-      <c r="F135" t="s">
-        <v>275</v>
-      </c>
-      <c r="H135" t="s">
-        <v>273</v>
-      </c>
-      <c r="I135">
-        <v>-1</v>
-      </c>
-      <c r="J135" s="8">
-        <v>3</v>
-      </c>
-      <c r="K135" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L135" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M135" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O135" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>586</v>
-      </c>
-      <c r="C136" t="s">
-        <v>278</v>
-      </c>
-      <c r="E136" t="b">
-        <v>0</v>
-      </c>
-      <c r="F136" t="s">
-        <v>279</v>
-      </c>
-      <c r="H136" t="s">
-        <v>277</v>
-      </c>
-      <c r="I136">
-        <v>-1</v>
-      </c>
-      <c r="J136" s="8">
-        <v>3</v>
-      </c>
-      <c r="K136" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L136" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M136" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O136" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>587</v>
-      </c>
-      <c r="C137" t="s">
-        <v>282</v>
-      </c>
-      <c r="E137" t="b">
-        <v>0</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="C141" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>285</v>
+      </c>
+      <c r="H141" t="s">
         <v>283</v>
       </c>
-      <c r="H137" t="s">
-        <v>281</v>
-      </c>
-      <c r="I137">
-        <v>-1</v>
-      </c>
-      <c r="J137" s="8">
-        <v>3</v>
-      </c>
-      <c r="K137" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L137" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M137" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O137" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>588</v>
-      </c>
-      <c r="C138" t="s">
-        <v>286</v>
-      </c>
-      <c r="E138" t="b">
-        <v>0</v>
-      </c>
-      <c r="F138" t="s">
-        <v>287</v>
-      </c>
-      <c r="H138" t="s">
-        <v>285</v>
-      </c>
-      <c r="I138">
-        <v>-1</v>
-      </c>
-      <c r="J138" s="8">
-        <v>3</v>
-      </c>
-      <c r="K138" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L138" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M138" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O138" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>589</v>
-      </c>
-      <c r="C139" t="s">
-        <v>290</v>
-      </c>
-      <c r="E139" t="b">
-        <v>0</v>
-      </c>
-      <c r="F139" t="s">
-        <v>291</v>
-      </c>
-      <c r="H139" t="s">
-        <v>289</v>
-      </c>
-      <c r="I139">
-        <v>-1</v>
-      </c>
-      <c r="J139" s="8">
-        <v>3</v>
-      </c>
-      <c r="K139" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L139" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M139" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O139" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>590</v>
-      </c>
-      <c r="C140" t="s">
-        <v>294</v>
-      </c>
-      <c r="E140" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140" t="s">
-        <v>295</v>
-      </c>
-      <c r="H140" t="s">
-        <v>293</v>
-      </c>
-      <c r="I140">
-        <v>-1</v>
-      </c>
-      <c r="J140" s="8">
-        <v>3</v>
-      </c>
-      <c r="K140" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L140" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M140" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O140" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>591</v>
-      </c>
-      <c r="C141" t="s">
-        <v>298</v>
-      </c>
-      <c r="E141" t="b">
-        <v>0</v>
-      </c>
-      <c r="F141" t="s">
-        <v>299</v>
-      </c>
-      <c r="H141" t="s">
-        <v>297</v>
-      </c>
       <c r="I141">
         <v>-1</v>
       </c>
@@ -7848,7 +8001,7 @@
         <v>3</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L141" s="8" t="b">
         <v>1</v>
@@ -7860,21 +8013,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="C142" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="H142" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="I142">
         <v>-1</v>
@@ -7883,7 +8036,7 @@
         <v>3</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L142" s="8" t="b">
         <v>1</v>
@@ -7895,21 +8048,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C143" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="H143" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="I143">
         <v>-1</v>
@@ -7918,7 +8071,7 @@
         <v>3</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L143" s="8" t="b">
         <v>1</v>
@@ -7930,21 +8083,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="C144" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="H144" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="I144">
         <v>-1</v>
@@ -7953,7 +8106,7 @@
         <v>3</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L144" s="8" t="b">
         <v>1</v>
@@ -7965,21 +8118,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C145" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H145" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="I145">
         <v>-1</v>
@@ -7988,7 +8141,7 @@
         <v>3</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L145" s="8" t="b">
         <v>1</v>
@@ -8000,21 +8153,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="C146" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="H146" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="I146">
         <v>-1</v>
@@ -8023,7 +8176,7 @@
         <v>3</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L146" s="8" t="b">
         <v>1</v>
@@ -8035,21 +8188,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="C147" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="H147" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="I147">
         <v>-1</v>
@@ -8058,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L147" s="8" t="b">
         <v>1</v>
@@ -8070,21 +8223,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="C148" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H148" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="I148">
         <v>-1</v>
@@ -8093,7 +8246,7 @@
         <v>3</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L148" s="8" t="b">
         <v>1</v>
@@ -8105,21 +8258,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="C149" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H149" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I149">
         <v>-1</v>
@@ -8128,7 +8281,7 @@
         <v>3</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L149" s="8" t="b">
         <v>1</v>
@@ -8140,21 +8293,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="C150" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H150" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I150">
         <v>-1</v>
@@ -8163,7 +8316,7 @@
         <v>3</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L150" s="8" t="b">
         <v>1</v>
@@ -8175,21 +8328,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="H151" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="I151">
         <v>-1</v>
@@ -8198,7 +8351,7 @@
         <v>3</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L151" s="8" t="b">
         <v>1</v>
@@ -8210,21 +8363,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C152" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="H152" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="I152">
         <v>-1</v>
@@ -8233,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L152" s="8" t="b">
         <v>1</v>
@@ -8245,21 +8398,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="C153" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="H153" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="I153">
         <v>-1</v>
@@ -8268,7 +8421,7 @@
         <v>3</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L153" s="8" t="b">
         <v>1</v>
@@ -8280,21 +8433,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="C154" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="H154" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="I154">
         <v>-1</v>
@@ -8303,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L154" s="8" t="b">
         <v>1</v>
@@ -8315,21 +8468,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="C155" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H155" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="I155">
         <v>-1</v>
@@ -8338,7 +8491,7 @@
         <v>3</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L155" s="8" t="b">
         <v>1</v>
@@ -8350,21 +8503,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="C156" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="H156" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="I156">
         <v>-1</v>
@@ -8373,7 +8526,7 @@
         <v>3</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L156" s="8" t="b">
         <v>1</v>
@@ -8385,21 +8538,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="C157" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H157" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="I157">
         <v>-1</v>
@@ -8408,7 +8561,7 @@
         <v>3</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L157" s="8" t="b">
         <v>1</v>
@@ -8420,21 +8573,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="C158" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H158" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="I158">
         <v>-1</v>
@@ -8443,7 +8596,7 @@
         <v>3</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L158" s="8" t="b">
         <v>1</v>
@@ -8455,21 +8608,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="C159" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H159" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="I159">
         <v>-1</v>
@@ -8478,7 +8631,7 @@
         <v>3</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L159" s="8" t="b">
         <v>1</v>
@@ -8490,21 +8643,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C160" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="H160" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="I160">
         <v>-1</v>
@@ -8513,7 +8666,7 @@
         <v>3</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L160" s="8" t="b">
         <v>1</v>
@@ -8525,21 +8678,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="C161" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H161" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="I161">
         <v>-1</v>
@@ -8548,7 +8701,7 @@
         <v>3</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L161" s="8" t="b">
         <v>1</v>
@@ -8560,21 +8713,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="C162" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="H162" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="I162">
         <v>-1</v>
@@ -8583,7 +8736,7 @@
         <v>3</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L162" s="8" t="b">
         <v>1</v>
@@ -8595,21 +8748,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C163" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="H163" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="I163">
         <v>-1</v>
@@ -8618,7 +8771,7 @@
         <v>3</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L163" s="8" t="b">
         <v>1</v>
@@ -8630,21 +8783,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="C164" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="H164" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I164">
         <v>-1</v>
@@ -8653,7 +8806,7 @@
         <v>3</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L164" s="8" t="b">
         <v>1</v>
@@ -8665,21 +8818,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="C165" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H165" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="I165">
         <v>-1</v>
@@ -8688,7 +8841,7 @@
         <v>3</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L165" s="8" t="b">
         <v>1</v>
@@ -8700,21 +8853,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="C166" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="H166" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="I166">
         <v>-1</v>
@@ -8723,7 +8876,7 @@
         <v>3</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L166" s="8" t="b">
         <v>1</v>
@@ -8735,21 +8888,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="C167" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="H167" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="I167">
         <v>-1</v>
@@ -8758,7 +8911,7 @@
         <v>3</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L167" s="8" t="b">
         <v>1</v>
@@ -8770,21 +8923,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="C168" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="H168" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="I168">
         <v>-1</v>
@@ -8793,7 +8946,7 @@
         <v>3</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L168" s="8" t="b">
         <v>1</v>
@@ -8805,21 +8958,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="C169" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>383</v>
+        <v>596</v>
       </c>
       <c r="H169" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="I169">
         <v>-1</v>
@@ -8828,7 +8981,7 @@
         <v>3</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L169" s="8" t="b">
         <v>1</v>
@@ -8837,24 +8990,24 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="C170" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>386</v>
+        <v>598</v>
       </c>
       <c r="H170" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="I170">
         <v>-1</v>
@@ -8863,7 +9016,7 @@
         <v>3</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L170" s="8" t="b">
         <v>1</v>
@@ -8872,33 +9025,33 @@
         <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="C171" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="H171" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="I171">
         <v>-1</v>
       </c>
       <c r="J171" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L171" s="8" t="b">
         <v>1</v>
@@ -8910,30 +9063,30 @@
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>623</v>
-      </c>
-      <c r="C172" t="s">
-        <v>390</v>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B172" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>757</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
-      <c r="F172" t="s">
-        <v>624</v>
+      <c r="F172" s="14" t="s">
+        <v>760</v>
       </c>
       <c r="H172" t="s">
-        <v>389</v>
+        <v>763</v>
       </c>
       <c r="I172">
         <v>-1</v>
       </c>
       <c r="J172" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K172" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L172" s="8" t="b">
         <v>1</v>
@@ -8945,30 +9098,30 @@
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>625</v>
-      </c>
-      <c r="C173" t="s">
-        <v>392</v>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B173" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>758</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
-      <c r="F173" t="s">
-        <v>626</v>
+      <c r="F173" s="14" t="s">
+        <v>761</v>
       </c>
       <c r="H173" t="s">
-        <v>391</v>
+        <v>764</v>
       </c>
       <c r="I173">
         <v>-1</v>
       </c>
       <c r="J173" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K173" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L173" s="8" t="b">
         <v>1</v>
@@ -8980,91 +9133,62 @@
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>627</v>
-      </c>
-      <c r="C174" t="s">
-        <v>394</v>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B174" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>759</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
-      <c r="F174" t="s">
-        <v>628</v>
+      <c r="F174" s="14" t="s">
+        <v>762</v>
       </c>
       <c r="H174" t="s">
-        <v>393</v>
+        <v>765</v>
       </c>
       <c r="I174">
         <v>-1</v>
       </c>
       <c r="J174" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K174" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L174" s="8" t="b">
         <v>1</v>
       </c>
       <c r="M174" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O174" s="14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>629</v>
-      </c>
-      <c r="C175" t="s">
-        <v>397</v>
-      </c>
-      <c r="E175" t="b">
-        <v>0</v>
-      </c>
-      <c r="F175" t="s">
-        <v>630</v>
-      </c>
-      <c r="H175" t="s">
-        <v>396</v>
-      </c>
-      <c r="I175">
-        <v>-1</v>
-      </c>
-      <c r="J175" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K175" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="L175" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M175" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O175" s="14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O174" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="8"/>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="C176" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="H176" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="I176">
         <v>-1</v>
@@ -9073,7 +9197,7 @@
         <v>-1</v>
       </c>
       <c r="K176" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L176" s="8" t="b">
         <v>1</v>
@@ -9082,24 +9206,24 @@
         <v>1</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="C177" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="H177" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="I177">
         <v>-1</v>
@@ -9108,7 +9232,7 @@
         <v>-1</v>
       </c>
       <c r="K177" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L177" s="8" t="b">
         <v>1</v>
@@ -9116,25 +9240,25 @@
       <c r="M177" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O177" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="C178" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="H178" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="I178">
         <v>-1</v>
@@ -9143,7 +9267,7 @@
         <v>-1</v>
       </c>
       <c r="K178" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L178" s="8" t="b">
         <v>1</v>
@@ -9151,25 +9275,25 @@
       <c r="M178" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O178" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O178" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="C179" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="H179" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="I179">
         <v>-1</v>
@@ -9178,7 +9302,7 @@
         <v>-1</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L179" s="8" t="b">
         <v>1</v>
@@ -9190,21 +9314,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="C180" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="H180" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I180">
         <v>-1</v>
@@ -9213,7 +9337,7 @@
         <v>-1</v>
       </c>
       <c r="K180" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L180" s="8" t="b">
         <v>1</v>
@@ -9222,24 +9346,24 @@
         <v>1</v>
       </c>
       <c r="O180" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="C181" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="H181" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="I181">
         <v>-1</v>
@@ -9248,7 +9372,7 @@
         <v>-1</v>
       </c>
       <c r="K181" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L181" s="8" t="b">
         <v>1</v>
@@ -9257,24 +9381,24 @@
         <v>1</v>
       </c>
       <c r="O181" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="C182" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
       <c r="H182" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="I182">
         <v>-1</v>
@@ -9283,7 +9407,7 @@
         <v>-1</v>
       </c>
       <c r="K182" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L182" s="8" t="b">
         <v>1</v>
@@ -9292,24 +9416,24 @@
         <v>1</v>
       </c>
       <c r="O182" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="C183" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
       <c r="H183" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="I183">
         <v>-1</v>
@@ -9318,7 +9442,7 @@
         <v>-1</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L183" s="8" t="b">
         <v>1</v>
@@ -9327,24 +9451,24 @@
         <v>1</v>
       </c>
       <c r="O183" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="C184" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="H184" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="I184">
         <v>-1</v>
@@ -9353,7 +9477,7 @@
         <v>-1</v>
       </c>
       <c r="K184" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L184" s="8" t="b">
         <v>1</v>
@@ -9362,24 +9486,24 @@
         <v>1</v>
       </c>
       <c r="O184" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="C185" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="H185" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="I185">
         <v>-1</v>
@@ -9388,7 +9512,7 @@
         <v>-1</v>
       </c>
       <c r="K185" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L185" s="8" t="b">
         <v>1</v>
@@ -9400,21 +9524,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="C186" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="H186" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="I186">
         <v>-1</v>
@@ -9423,7 +9547,7 @@
         <v>-1</v>
       </c>
       <c r="K186" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L186" s="8" t="b">
         <v>1</v>
@@ -9435,21 +9559,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="C187" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="H187" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="I187">
         <v>-1</v>
@@ -9458,7 +9582,7 @@
         <v>-1</v>
       </c>
       <c r="K187" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L187" s="8" t="b">
         <v>1</v>
@@ -9470,21 +9594,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="C188" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="H188" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="I188">
         <v>-1</v>
@@ -9493,7 +9617,7 @@
         <v>-1</v>
       </c>
       <c r="K188" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L188" s="8" t="b">
         <v>1</v>
@@ -9505,21 +9629,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>657</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>427</v>
+        <v>627</v>
+      </c>
+      <c r="C189" t="s">
+        <v>403</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="H189" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="I189">
         <v>-1</v>
@@ -9528,7 +9652,7 @@
         <v>-1</v>
       </c>
       <c r="K189" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L189" s="8" t="b">
         <v>1</v>
@@ -9540,21 +9664,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>659</v>
-      </c>
-      <c r="C190" s="14" t="s">
-        <v>429</v>
+        <v>629</v>
+      </c>
+      <c r="C190" t="s">
+        <v>405</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="H190" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="I190">
         <v>-1</v>
@@ -9563,7 +9687,7 @@
         <v>-1</v>
       </c>
       <c r="K190" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L190" s="8" t="b">
         <v>1</v>
@@ -9575,21 +9699,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="H191" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="I191">
         <v>-1</v>
@@ -9598,7 +9722,7 @@
         <v>-1</v>
       </c>
       <c r="K191" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L191" s="8" t="b">
         <v>1</v>
@@ -9610,21 +9734,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>663</v>
-      </c>
-      <c r="C192" t="s">
-        <v>433</v>
+        <v>633</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>409</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="H192" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="I192">
         <v>-1</v>
@@ -9633,7 +9757,7 @@
         <v>-1</v>
       </c>
       <c r="K192" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L192" s="8" t="b">
         <v>1</v>
@@ -9645,21 +9769,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>665</v>
-      </c>
-      <c r="C193" t="s">
-        <v>435</v>
+        <v>635</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>411</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="H193" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="I193">
         <v>-1</v>
@@ -9668,7 +9792,7 @@
         <v>-1</v>
       </c>
       <c r="K193" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L193" s="8" t="b">
         <v>1</v>
@@ -9680,21 +9804,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="C194" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="H194" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="I194">
         <v>-1</v>
@@ -9703,7 +9827,7 @@
         <v>-1</v>
       </c>
       <c r="K194" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L194" s="8" t="b">
         <v>1</v>
@@ -9715,21 +9839,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="C195" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="H195" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="I195">
         <v>-1</v>
@@ -9738,7 +9862,7 @@
         <v>-1</v>
       </c>
       <c r="K195" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L195" s="8" t="b">
         <v>1</v>
@@ -9750,21 +9874,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
       <c r="C196" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="H196" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="I196">
         <v>-1</v>
@@ -9773,7 +9897,7 @@
         <v>-1</v>
       </c>
       <c r="K196" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L196" s="8" t="b">
         <v>1</v>
@@ -9785,21 +9909,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="C197" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="H197" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="I197">
         <v>-1</v>
@@ -9808,7 +9932,7 @@
         <v>-1</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L197" s="8" t="b">
         <v>1</v>
@@ -9820,21 +9944,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="C198" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="H198" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="I198">
         <v>-1</v>
@@ -9843,7 +9967,7 @@
         <v>-1</v>
       </c>
       <c r="K198" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L198" s="8" t="b">
         <v>1</v>
@@ -9851,25 +9975,25 @@
       <c r="M198" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O198" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O198" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="C199" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="H199" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="I199">
         <v>-1</v>
@@ -9878,7 +10002,7 @@
         <v>-1</v>
       </c>
       <c r="K199" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L199" s="8" t="b">
         <v>1</v>
@@ -9886,25 +10010,25 @@
       <c r="M199" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O199" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O199" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="C200" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="H200" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="I200">
         <v>-1</v>
@@ -9913,7 +10037,7 @@
         <v>-1</v>
       </c>
       <c r="K200" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L200" s="8" t="b">
         <v>1</v>
@@ -9922,24 +10046,24 @@
         <v>1</v>
       </c>
       <c r="O200" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>681</v>
-      </c>
-      <c r="C201" s="14" t="s">
-        <v>480</v>
+        <v>651</v>
+      </c>
+      <c r="C201" t="s">
+        <v>428</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="H201" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="I201">
         <v>-1</v>
@@ -9948,7 +10072,7 @@
         <v>-1</v>
       </c>
       <c r="K201" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L201" s="8" t="b">
         <v>1</v>
@@ -9957,24 +10081,24 @@
         <v>1</v>
       </c>
       <c r="O201" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>683</v>
-      </c>
-      <c r="C202" s="14" t="s">
-        <v>480</v>
+        <v>653</v>
+      </c>
+      <c r="C202" t="s">
+        <v>430</v>
       </c>
       <c r="E202" t="b">
         <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="H202" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="I202">
         <v>-1</v>
@@ -9983,7 +10107,7 @@
         <v>-1</v>
       </c>
       <c r="K202" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L202" s="8" t="b">
         <v>1</v>
@@ -9992,24 +10116,24 @@
         <v>1</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="E203" t="b">
         <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="H203" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="I203">
         <v>-1</v>
@@ -10018,7 +10142,7 @@
         <v>-1</v>
       </c>
       <c r="K203" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="L203" s="8" t="b">
         <v>1</v>
@@ -10027,118 +10151,126 @@
         <v>1</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B205" s="14" t="s">
-        <v>751</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>657</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E204" t="b">
+        <v>0</v>
+      </c>
+      <c r="F204" t="s">
+        <v>658</v>
+      </c>
+      <c r="H204" t="s">
+        <v>432</v>
+      </c>
+      <c r="I204">
+        <v>-1</v>
+      </c>
+      <c r="J204" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K204" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L204" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M204" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O204" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>659</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>760</v>
+        <v>460</v>
       </c>
       <c r="E205" t="b">
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>750</v>
+        <v>660</v>
+      </c>
+      <c r="H205" t="s">
+        <v>433</v>
       </c>
       <c r="I205">
         <v>-1</v>
       </c>
       <c r="J205" s="8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K205" s="8" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="L205" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O205" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O205" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B206" s="14" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="E206" t="b">
         <v>0</v>
       </c>
-      <c r="F206" t="s">
-        <v>750</v>
-      </c>
-      <c r="H206" s="8"/>
+      <c r="F206" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="H206" t="s">
+        <v>769</v>
+      </c>
       <c r="I206">
         <v>-1</v>
       </c>
       <c r="J206" s="8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K206" s="8" t="s">
-        <v>765</v>
+        <v>732</v>
       </c>
       <c r="L206" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M206" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O206" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B207" s="14" t="s">
-        <v>752</v>
-      </c>
-      <c r="C207" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="E207" t="b">
-        <v>0</v>
-      </c>
-      <c r="F207" s="14" t="s">
-        <v>754</v>
-      </c>
-      <c r="I207">
-        <v>-1</v>
-      </c>
-      <c r="J207" s="8">
-        <v>1</v>
-      </c>
-      <c r="K207" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="L207" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M207" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O207" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O206" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B208" s="14" t="s">
-        <v>763</v>
+        <v>725</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="E208" t="b">
         <v>0</v>
       </c>
-      <c r="F208" s="14" t="s">
-        <v>754</v>
+      <c r="F208" t="s">
+        <v>724</v>
       </c>
       <c r="I208">
         <v>-1</v>
@@ -10147,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="K208" s="8" t="s">
-        <v>765</v>
+        <v>738</v>
       </c>
       <c r="L208" s="8" t="b">
         <v>0</v>
@@ -10159,27 +10291,60 @@
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B209" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>724</v>
+      </c>
+      <c r="H209" s="8"/>
+      <c r="I209">
+        <v>-1</v>
+      </c>
+      <c r="J209" s="8">
+        <v>1</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="L209" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M209" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O209" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="210" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B210" s="14" t="s">
-        <v>767</v>
+        <v>726</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="E210" t="b">
         <v>0</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>766</v>
+        <v>728</v>
       </c>
       <c r="I210">
         <v>-1</v>
       </c>
       <c r="J210" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K210" s="8" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="L210" s="8" t="b">
         <v>0</v>
@@ -10191,15 +10356,79 @@
         <v>176</v>
       </c>
     </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H211" s="8"/>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B211" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="I211">
+        <v>-1</v>
+      </c>
+      <c r="J211" s="8">
+        <v>1</v>
+      </c>
+      <c r="K211" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="L211" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M211" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O211" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="213" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B213" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="I213">
+        <v>-1</v>
+      </c>
+      <c r="J213" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K213" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="L213" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M213" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O213" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H214" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N3:P3"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B41">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254846FD-7822-4EAB-94AC-4BED6E847D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86D12A7-331A-40B9-B5F1-5D76E49786F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="773">
   <si>
     <t>##var</t>
   </si>
@@ -2559,6 +2559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2586,6 +2587,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2622,6 +2624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2824,6 +2827,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2841,6 +2845,18 @@
   </si>
   <si>
     <t>BuffTowerBomb3</t>
+  </si>
+  <si>
+    <t>EffectCreate_BossEffect</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss特效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BossEffect</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3499,11 +3515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA214"/>
+  <dimension ref="A1:AA216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111:XFD113"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3771,66 +3787,46 @@
       <c r="AA5"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D6" t="s">
-        <v>454</v>
+      <c r="B6" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>771</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>469</v>
+      <c r="F6" s="15" t="s">
+        <v>772</v>
       </c>
       <c r="J6" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L6" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D7" t="s">
-        <v>454</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>470</v>
-      </c>
-      <c r="J7" s="8">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>176</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D8" t="s">
         <v>454</v>
@@ -3839,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J8" s="8">
         <v>3</v>
@@ -3859,7 +3855,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
         <v>454</v>
@@ -3868,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J9" s="8">
         <v>3</v>
@@ -3888,7 +3884,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D10" t="s">
         <v>454</v>
@@ -3897,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J10" s="8">
         <v>3</v>
@@ -3917,19 +3913,19 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J11" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>732</v>
@@ -3938,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
         <v>176</v>
@@ -3946,19 +3942,19 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J12" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>732</v>
@@ -3967,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>176</v>
@@ -3975,7 +3971,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D13" t="s">
         <v>455</v>
@@ -3984,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J13" s="8">
         <v>-1</v>
@@ -4004,19 +4000,19 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J14" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>732</v>
@@ -4025,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
         <v>176</v>
@@ -4033,7 +4029,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D15" t="s">
         <v>455</v>
@@ -4042,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J15" s="8">
         <v>-1</v>
@@ -4062,16 +4058,16 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D16" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J16" s="8">
         <v>3</v>
@@ -4091,19 +4087,19 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J17" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>732</v>
@@ -4112,15 +4108,15 @@
         <v>1</v>
       </c>
       <c r="M17" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
-        <v>461</v>
+      <c r="B18" t="s">
+        <v>447</v>
       </c>
       <c r="D18" t="s">
         <v>459</v>
@@ -4129,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J18" s="8">
         <v>3</v>
@@ -4149,16 +4145,16 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D19" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J19" s="8">
         <v>3</v>
@@ -4177,8 +4173,8 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>450</v>
+      <c r="B20" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="D20" t="s">
         <v>459</v>
@@ -4187,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J20" s="8">
         <v>3</v>
@@ -4207,19 +4203,19 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>662</v>
+        <v>482</v>
       </c>
       <c r="J21" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>732</v>
@@ -4228,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
         <v>176</v>
@@ -4236,16 +4232,16 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D22" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J22" s="8">
         <v>3</v>
@@ -4265,19 +4261,19 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D23" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
+        <v>662</v>
       </c>
       <c r="J23" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>732</v>
@@ -4286,102 +4282,102 @@
         <v>1</v>
       </c>
       <c r="M23" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>700</v>
+      <c r="B24" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" t="s">
+        <v>454</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>458</v>
+      <c r="F24" t="s">
+        <v>484</v>
       </c>
       <c r="J24" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L24" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>176</v>
       </c>
     </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>485</v>
+      </c>
+      <c r="J25" s="8">
+        <v>3</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="D26" t="s">
-        <v>661</v>
+      <c r="B26" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>700</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>663</v>
+      <c r="F26" s="15" t="s">
+        <v>458</v>
       </c>
       <c r="J26" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L26" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="D27" t="s">
-        <v>661</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="J27" s="8">
-        <v>3</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>176</v>
-      </c>
-    </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D28" t="s">
         <v>661</v>
@@ -4390,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J28" s="8">
         <v>3</v>
@@ -4410,7 +4406,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D29" t="s">
         <v>661</v>
@@ -4419,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J29" s="8">
         <v>3</v>
@@ -4439,7 +4435,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D30" t="s">
         <v>661</v>
@@ -4448,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J30" s="8">
         <v>3</v>
@@ -4468,7 +4464,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D31" t="s">
         <v>661</v>
@@ -4477,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J31" s="8">
         <v>3</v>
@@ -4497,7 +4493,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D32" t="s">
         <v>661</v>
@@ -4506,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J32" s="8">
         <v>3</v>
@@ -4526,19 +4522,19 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
-        <v>670</v>
+        <v>467</v>
       </c>
       <c r="D33" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="J33" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>732</v>
@@ -4547,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s">
         <v>176</v>
@@ -4555,19 +4551,19 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
-        <v>671</v>
+        <v>468</v>
       </c>
       <c r="D34" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="J34" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>732</v>
@@ -4576,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
         <v>176</v>
@@ -4584,7 +4580,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D35" t="s">
         <v>678</v>
@@ -4593,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J35" s="8">
         <v>-1</v>
@@ -4613,7 +4609,7 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D36" t="s">
         <v>678</v>
@@ -4622,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J36" s="8">
         <v>-1</v>
@@ -4642,7 +4638,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D37" t="s">
         <v>678</v>
@@ -4651,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J37" s="8">
         <v>-1</v>
@@ -4671,7 +4667,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D38" t="s">
         <v>678</v>
@@ -4680,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J38" s="8">
         <v>-1</v>
@@ -4700,7 +4696,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D39" t="s">
         <v>678</v>
@@ -4709,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J39" s="8">
         <v>-1</v>
@@ -4729,7 +4725,7 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D40" t="s">
         <v>678</v>
@@ -4738,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="J40" s="8">
         <v>-1</v>
@@ -4758,19 +4754,19 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="D41" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="J41" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>732</v>
@@ -4779,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
         <v>176</v>
@@ -4787,19 +4783,19 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="16" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D42" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J42" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>732</v>
@@ -4808,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="s">
         <v>176</v>
@@ -4816,7 +4812,7 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="16" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D43" t="s">
         <v>692</v>
@@ -4825,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J43" s="8">
         <v>3</v>
@@ -4845,7 +4841,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="16" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D44" t="s">
         <v>692</v>
@@ -4854,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J44" s="8">
         <v>3</v>
@@ -4874,7 +4870,7 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D45" t="s">
         <v>692</v>
@@ -4883,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J45" s="8">
         <v>3</v>
@@ -4903,7 +4899,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D46" t="s">
         <v>692</v>
@@ -4912,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J46" s="8">
         <v>3</v>
@@ -4932,16 +4928,16 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="D47" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="J47" s="8">
         <v>3</v>
@@ -4961,16 +4957,16 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="D48" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="J48" s="8">
         <v>3</v>
@@ -4990,16 +4986,16 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D49" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J49" s="8">
         <v>3</v>
@@ -5018,93 +5014,87 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="16"/>
+      <c r="B50" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="D50" t="s">
+        <v>705</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="J50" s="8">
+        <v>3</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>486</v>
+        <v>703</v>
       </c>
       <c r="D51" t="s">
-        <v>434</v>
+        <v>706</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>435</v>
+        <v>709</v>
       </c>
       <c r="J51" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L51" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="D52" t="s">
-        <v>710</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="J52" s="8">
+      <c r="B52" s="16"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="D53" t="s">
+        <v>434</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="J53" s="8">
         <v>2</v>
       </c>
-      <c r="K52" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L52" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="D53" t="s">
-        <v>714</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>715</v>
-      </c>
-      <c r="H53" t="s">
-        <v>716</v>
-      </c>
-      <c r="I53">
-        <v>-1</v>
-      </c>
-      <c r="J53" s="8">
-        <v>-1</v>
-      </c>
       <c r="K53" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L53" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="8" t="b">
         <v>1</v>
@@ -5114,92 +5104,92 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="B54" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="D54" t="s">
+        <v>710</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="J54" s="8">
+        <v>2</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L54" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C55" t="s">
-        <v>434</v>
+      <c r="B55" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D55" t="s">
+        <v>714</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>436</v>
+      <c r="F55" t="s">
+        <v>715</v>
+      </c>
+      <c r="H55" t="s">
+        <v>716</v>
+      </c>
+      <c r="I55">
+        <v>-1</v>
       </c>
       <c r="J55" s="8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L55" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="8" t="b">
         <v>1</v>
       </c>
+      <c r="O55" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="C56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" s="8">
-        <v>5</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L56" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" s="8" t="b">
-        <v>1</v>
-      </c>
+      <c r="B56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>434</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
+        <v>436</v>
       </c>
       <c r="J57" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>732</v>
@@ -5213,22 +5203,19 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5248,25 +5235,31 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
       </c>
       <c r="J59" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L59" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="8" t="b">
         <v>1</v>
@@ -5274,20 +5267,26 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
         <v>48</v>
       </c>
+      <c r="H60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
       <c r="J60" s="8">
         <v>5</v>
       </c>
@@ -5295,33 +5294,27 @@
         <v>732</v>
       </c>
       <c r="L60" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G61" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J61" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>732</v>
@@ -5331,14 +5324,11 @@
       </c>
       <c r="M61" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O61" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
@@ -5347,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
         <v>48</v>
@@ -5370,16 +5360,16 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
@@ -5397,27 +5387,27 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s">
         <v>48</v>
       </c>
       <c r="J64" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>732</v>
@@ -5429,112 +5419,108 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="8">
+        <v>5</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L65" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" s="8">
+        <v>3</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L66" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>62</v>
       </c>
-      <c r="E65" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="16" t="s">
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G67" t="s">
         <v>64</v>
       </c>
-      <c r="J65" s="8">
-        <v>3</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L65" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M65" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>498</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="J66" s="8">
-        <v>1</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L66" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>499</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" t="s">
-        <v>71</v>
-      </c>
       <c r="J67" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L67" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O67" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
         <v>66</v>
@@ -5543,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G68" s="8"/>
       <c r="J68" s="8">
@@ -5553,89 +5539,89 @@
         <v>732</v>
       </c>
       <c r="L68" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>499</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" s="8">
+        <v>1</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L69" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>500</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="J70" s="8">
+        <v>1</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L70" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" s="8"/>
-      <c r="J69" s="9">
-        <v>1</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s">
-        <v>81</v>
-      </c>
-      <c r="J70" s="9">
-        <v>1</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L70" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M70" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="71" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>76</v>
@@ -5644,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G71" s="8"/>
       <c r="J71" s="9">
@@ -5654,121 +5640,110 @@
         <v>732</v>
       </c>
       <c r="L71" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s">
+        <v>81</v>
+      </c>
+      <c r="J72" s="9">
+        <v>1</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L72" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="J73" s="9">
+        <v>1</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L73" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>504</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-      <c r="I72">
-        <v>10</v>
-      </c>
-      <c r="J72" s="8">
-        <v>1</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L72" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M72" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>505</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s">
-        <v>89</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I73" s="8">
-        <v>1</v>
-      </c>
-      <c r="J73" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L73" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O73" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="D74" t="s">
+        <v>85</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I74" s="8">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
       </c>
       <c r="J74" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>732</v>
@@ -5778,14 +5753,11 @@
       </c>
       <c r="M74" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O74" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>87</v>
@@ -5797,13 +5769,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s">
         <v>89</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I75" s="8">
         <v>1</v>
@@ -5821,69 +5793,71 @@
         <v>1</v>
       </c>
       <c r="O75" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>719</v>
+      <c r="B76" t="s">
+        <v>506</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>718</v>
+        <v>87</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>720</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s">
         <v>89</v>
       </c>
-      <c r="H76" s="8"/>
+      <c r="H76" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="I76" s="8">
         <v>1</v>
       </c>
       <c r="J76" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L76" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="8" t="b">
         <v>1</v>
       </c>
       <c r="O76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G77" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I77" s="8">
         <v>1</v>
@@ -5900,48 +5874,52 @@
       <c r="M77" s="8" t="b">
         <v>1</v>
       </c>
+      <c r="O77" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>509</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>95</v>
+      <c r="B78" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>719</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>95</v>
+        <v>718</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>96</v>
+        <v>720</v>
       </c>
       <c r="G78" t="s">
-        <v>97</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H78" s="8"/>
       <c r="I78" s="8">
         <v>1</v>
       </c>
       <c r="J78" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L78" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" s="8" t="b">
         <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>95</v>
@@ -5953,80 +5931,95 @@
         <v>0</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G79" t="s">
         <v>97</v>
       </c>
       <c r="H79" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I79" s="8">
+        <v>1</v>
+      </c>
+      <c r="J79" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L79" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>509</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>97</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80" s="8">
+        <v>1</v>
+      </c>
+      <c r="J80" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L80" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>510</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" t="s">
+        <v>97</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I79" s="8">
-        <v>1</v>
-      </c>
-      <c r="J79" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L79" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M79" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" t="s">
-        <v>71</v>
-      </c>
-      <c r="J80" s="10">
-        <v>3</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L80" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M80" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G81" t="s">
-        <v>71</v>
-      </c>
-      <c r="J81" s="10">
-        <v>3</v>
+      <c r="I81" s="8">
+        <v>1</v>
+      </c>
+      <c r="J81" s="8">
+        <v>-1</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>732</v>
@@ -6036,23 +6029,20 @@
       </c>
       <c r="M81" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="82" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
         <v>71</v>
@@ -6070,79 +6060,85 @@
         <v>1</v>
       </c>
       <c r="O82" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
+      </c>
+      <c r="J83" s="10">
+        <v>3</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L83" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="J84" s="10">
+        <v>3</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L84" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84" s="4" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>514</v>
-      </c>
-      <c r="C83" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" t="s">
-        <v>110</v>
-      </c>
-      <c r="J83" s="8">
-        <v>3</v>
-      </c>
-      <c r="K83" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L83" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M83" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O83" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>515</v>
-      </c>
-      <c r="C84" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>112</v>
-      </c>
-      <c r="J84" s="8">
-        <v>3</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L84" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O84" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J85" s="8">
         <v>3</v>
@@ -6162,16 +6158,16 @@
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>721</v>
+        <v>515</v>
       </c>
       <c r="C86" t="s">
-        <v>722</v>
+        <v>111</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>723</v>
+        <v>112</v>
       </c>
       <c r="J86" s="8">
         <v>3</v>
@@ -6189,23 +6185,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>115</v>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>516</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G87" t="s">
-        <v>81</v>
-      </c>
-      <c r="J87" s="10">
+      <c r="F87" t="s">
+        <v>114</v>
+      </c>
+      <c r="J87" s="8">
         <v>3</v>
       </c>
       <c r="K87" s="8" t="s">
@@ -6215,29 +6208,26 @@
         <v>1</v>
       </c>
       <c r="M87" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>118</v>
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>721</v>
+      </c>
+      <c r="C88" t="s">
+        <v>722</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G88" t="s">
-        <v>81</v>
-      </c>
-      <c r="J88" s="10">
+      <c r="F88" t="s">
+        <v>723</v>
+      </c>
+      <c r="J88" s="8">
         <v>3</v>
       </c>
       <c r="K88" s="8" t="s">
@@ -6247,24 +6237,24 @@
         <v>1</v>
       </c>
       <c r="M88" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G89" t="s">
         <v>81</v>
@@ -6282,79 +6272,85 @@
         <v>1</v>
       </c>
       <c r="O89" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+      <c r="J90" s="10">
+        <v>3</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L90" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G91" t="s">
+        <v>81</v>
+      </c>
+      <c r="J91" s="10">
+        <v>3</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L91" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>520</v>
-      </c>
-      <c r="C90" t="s">
-        <v>124</v>
-      </c>
-      <c r="E90" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>125</v>
-      </c>
-      <c r="J90" s="8">
-        <v>3</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L90" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M90" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>521</v>
-      </c>
-      <c r="C91" t="s">
-        <v>126</v>
-      </c>
-      <c r="E91" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>127</v>
-      </c>
-      <c r="J91" s="8">
-        <v>3</v>
-      </c>
-      <c r="K91" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L91" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M91" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O91" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J92" s="8">
         <v>3</v>
@@ -6374,16 +6370,16 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J93" s="8">
         <v>3</v>
@@ -6403,16 +6399,16 @@
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J94" s="8">
         <v>3</v>
@@ -6432,16 +6428,16 @@
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J95" s="8">
         <v>3</v>
@@ -6461,16 +6457,16 @@
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J96" s="8">
         <v>3</v>
@@ -6490,16 +6486,16 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J97" s="8">
         <v>3</v>
@@ -6519,16 +6515,16 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J98" s="8">
         <v>3</v>
@@ -6548,22 +6544,16 @@
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C99" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>144</v>
-      </c>
-      <c r="H99" t="s">
-        <v>142</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="J99" s="8">
         <v>3</v>
@@ -6575,30 +6565,24 @@
         <v>1</v>
       </c>
       <c r="M99" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
-      </c>
-      <c r="H100" t="s">
-        <v>146</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="J100" s="8">
         <v>3</v>
@@ -6610,27 +6594,27 @@
         <v>1</v>
       </c>
       <c r="M100" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O100" s="11" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H101" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -6648,27 +6632,27 @@
         <v>1</v>
       </c>
       <c r="O101" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H102" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J102" s="8">
         <v>3</v>
@@ -6680,30 +6664,30 @@
         <v>1</v>
       </c>
       <c r="M102" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O102" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="O102" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H103" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J103" s="8">
         <v>3</v>
@@ -6715,27 +6699,27 @@
         <v>1</v>
       </c>
       <c r="M103" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H104" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I104">
         <v>-1</v>
@@ -6758,22 +6742,25 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H105" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="I105">
+        <v>-1</v>
       </c>
       <c r="J105" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>732</v>
@@ -6782,30 +6769,33 @@
         <v>1</v>
       </c>
       <c r="M105" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H106" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="I106">
+        <v>-1</v>
       </c>
       <c r="J106" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K106" s="8" t="s">
         <v>732</v>
@@ -6814,27 +6804,27 @@
         <v>1</v>
       </c>
       <c r="M106" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H107" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J107" s="8">
         <v>-1</v>
@@ -6852,27 +6842,24 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E108" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I108" s="5">
-        <v>-1</v>
-      </c>
-      <c r="J108" s="12">
-        <v>2</v>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>536</v>
+      </c>
+      <c r="C108" t="s">
+        <v>168</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>169</v>
+      </c>
+      <c r="H108" t="s">
+        <v>167</v>
+      </c>
+      <c r="J108" s="8">
+        <v>-1</v>
       </c>
       <c r="K108" s="8" t="s">
         <v>732</v>
@@ -6880,34 +6867,31 @@
       <c r="L108" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M108" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O108" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E109" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I109" s="5">
-        <v>-1</v>
-      </c>
-      <c r="J109" s="12">
-        <v>2</v>
+      <c r="M108" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>537</v>
+      </c>
+      <c r="C109" t="s">
+        <v>171</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>172</v>
+      </c>
+      <c r="H109" t="s">
+        <v>170</v>
+      </c>
+      <c r="J109" s="8">
+        <v>-1</v>
       </c>
       <c r="K109" s="8" t="s">
         <v>732</v>
@@ -6915,19 +6899,19 @@
       <c r="L109" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M109" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O109" s="13" t="s">
-        <v>176</v>
+      <c r="M109" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E110" s="5" t="b">
         <v>0</v>
@@ -6936,7 +6920,7 @@
         <v>175</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I110" s="5">
         <v>-1</v>
@@ -6957,27 +6941,27 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>541</v>
-      </c>
-      <c r="C111" t="s">
-        <v>182</v>
-      </c>
-      <c r="E111" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" t="s">
-        <v>183</v>
-      </c>
-      <c r="H111" t="s">
-        <v>181</v>
-      </c>
-      <c r="I111">
-        <v>-1</v>
-      </c>
-      <c r="J111" s="8">
-        <v>3</v>
+    <row r="111" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E111" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I111" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J111" s="12">
+        <v>2</v>
       </c>
       <c r="K111" s="8" t="s">
         <v>732</v>
@@ -6985,34 +6969,34 @@
       <c r="L111" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M111" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O111" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>542</v>
-      </c>
-      <c r="C112" t="s">
-        <v>186</v>
-      </c>
-      <c r="E112" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" t="s">
-        <v>187</v>
-      </c>
-      <c r="H112" t="s">
-        <v>185</v>
-      </c>
-      <c r="I112">
-        <v>-1</v>
-      </c>
-      <c r="J112" s="8">
-        <v>3</v>
+      <c r="M111" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E112" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I112" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J112" s="12">
+        <v>2</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>732</v>
@@ -7020,28 +7004,28 @@
       <c r="L112" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M112" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O112" t="s">
-        <v>188</v>
+      <c r="M112" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C113" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H113" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I113">
         <v>-1</v>
@@ -7059,24 +7043,24 @@
         <v>1</v>
       </c>
       <c r="O113" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H114" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I114">
         <v>-1</v>
@@ -7094,24 +7078,24 @@
         <v>1</v>
       </c>
       <c r="O114" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C115" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H115" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I115">
         <v>-1</v>
@@ -7129,24 +7113,24 @@
         <v>1</v>
       </c>
       <c r="O115" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C116" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H116" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I116">
         <v>-1</v>
@@ -7164,24 +7148,24 @@
         <v>1</v>
       </c>
       <c r="O116" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C117" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H117" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I117">
         <v>-1</v>
@@ -7199,24 +7183,24 @@
         <v>1</v>
       </c>
       <c r="O117" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C118" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H118" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I118">
         <v>-1</v>
@@ -7234,24 +7218,24 @@
         <v>1</v>
       </c>
       <c r="O118" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H119" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I119">
         <v>-1</v>
@@ -7269,24 +7253,24 @@
         <v>1</v>
       </c>
       <c r="O119" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C120" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H120" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I120">
         <v>-1</v>
@@ -7304,24 +7288,24 @@
         <v>1</v>
       </c>
       <c r="O120" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C121" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H121" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I121">
         <v>-1</v>
@@ -7339,24 +7323,24 @@
         <v>1</v>
       </c>
       <c r="O121" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C122" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H122" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I122">
         <v>-1</v>
@@ -7374,24 +7358,24 @@
         <v>1</v>
       </c>
       <c r="O122" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H123" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I123">
         <v>-1</v>
@@ -7409,24 +7393,24 @@
         <v>1</v>
       </c>
       <c r="O123" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C124" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H124" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I124">
         <v>-1</v>
@@ -7444,24 +7428,24 @@
         <v>1</v>
       </c>
       <c r="O124" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C125" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H125" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I125">
         <v>-1</v>
@@ -7479,24 +7463,24 @@
         <v>1</v>
       </c>
       <c r="O125" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C126" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H126" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I126">
         <v>-1</v>
@@ -7514,24 +7498,24 @@
         <v>1</v>
       </c>
       <c r="O126" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C127" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H127" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I127">
         <v>-1</v>
@@ -7549,24 +7533,24 @@
         <v>1</v>
       </c>
       <c r="O127" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C128" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H128" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I128">
         <v>-1</v>
@@ -7584,24 +7568,24 @@
         <v>1</v>
       </c>
       <c r="O128" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H129" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I129">
         <v>-1</v>
@@ -7619,24 +7603,24 @@
         <v>1</v>
       </c>
       <c r="O129" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C130" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H130" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I130">
         <v>-1</v>
@@ -7654,24 +7638,24 @@
         <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C131" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H131" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I131">
         <v>-1</v>
@@ -7689,24 +7673,24 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C132" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H132" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I132">
         <v>-1</v>
@@ -7724,24 +7708,24 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C133" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H133" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I133">
         <v>-1</v>
@@ -7759,117 +7743,117 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
+        <v>562</v>
+      </c>
+      <c r="C134" t="s">
+        <v>266</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>267</v>
+      </c>
+      <c r="H134" t="s">
+        <v>265</v>
+      </c>
+      <c r="I134">
+        <v>-1</v>
+      </c>
+      <c r="J134" s="8">
+        <v>3</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L134" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M134" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>563</v>
+      </c>
+      <c r="C135" t="s">
+        <v>270</v>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>271</v>
+      </c>
+      <c r="H135" t="s">
+        <v>269</v>
+      </c>
+      <c r="I135">
+        <v>-1</v>
+      </c>
+      <c r="J135" s="8">
+        <v>3</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L135" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M135" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>564</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C136" t="s">
         <v>274</v>
       </c>
-      <c r="E134" t="b">
-        <v>0</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
         <v>275</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H136" t="s">
         <v>273</v>
       </c>
-      <c r="I134">
-        <v>-1</v>
-      </c>
-      <c r="J134" s="8">
-        <v>3</v>
-      </c>
-      <c r="K134" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L134" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M134" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O134" t="s">
+      <c r="I136">
+        <v>-1</v>
+      </c>
+      <c r="J136" s="8">
+        <v>3</v>
+      </c>
+      <c r="K136" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L136" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M136" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>747</v>
-      </c>
-      <c r="E135" t="b">
-        <v>0</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="H135" t="s">
-        <v>751</v>
-      </c>
-      <c r="I135">
-        <v>-1</v>
-      </c>
-      <c r="J135" s="8">
-        <v>3</v>
-      </c>
-      <c r="K135" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L135" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M135" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O135" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>747</v>
-      </c>
-      <c r="E136" t="b">
-        <v>0</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="H136" t="s">
-        <v>752</v>
-      </c>
-      <c r="I136">
-        <v>-1</v>
-      </c>
-      <c r="J136" s="8">
-        <v>3</v>
-      </c>
-      <c r="K136" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L136" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M136" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O136" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137" s="17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>747</v>
@@ -7878,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H137" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I137">
         <v>-1</v>
@@ -7903,26 +7887,55 @@
       </c>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
+      <c r="B138" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="H138" t="s">
+        <v>752</v>
+      </c>
+      <c r="I138">
+        <v>-1</v>
+      </c>
+      <c r="J138" s="8">
+        <v>3</v>
+      </c>
+      <c r="K138" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L138" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M138" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>565</v>
-      </c>
-      <c r="C139" t="s">
-        <v>278</v>
+      <c r="B139" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>747</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
-      <c r="F139" t="s">
-        <v>279</v>
+      <c r="F139" s="14" t="s">
+        <v>750</v>
       </c>
       <c r="H139" t="s">
-        <v>277</v>
+        <v>753</v>
       </c>
       <c r="I139">
         <v>-1</v>
@@ -7937,62 +7950,33 @@
         <v>1</v>
       </c>
       <c r="M139" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>566</v>
-      </c>
-      <c r="C140" t="s">
-        <v>281</v>
-      </c>
-      <c r="E140" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140" t="s">
-        <v>282</v>
-      </c>
-      <c r="H140" t="s">
-        <v>280</v>
-      </c>
-      <c r="I140">
-        <v>-1</v>
-      </c>
-      <c r="J140" s="8">
-        <v>3</v>
-      </c>
-      <c r="K140" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L140" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M140" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O140" t="s">
-        <v>74</v>
-      </c>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C141" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H141" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I141">
         <v>-1</v>
@@ -8015,19 +7999,19 @@
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C142" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H142" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I142">
         <v>-1</v>
@@ -8050,19 +8034,19 @@
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C143" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H143" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="I143">
         <v>-1</v>
@@ -8085,19 +8069,19 @@
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C144" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H144" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I144">
         <v>-1</v>
@@ -8120,19 +8104,19 @@
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C145" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H145" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I145">
         <v>-1</v>
@@ -8155,19 +8139,19 @@
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C146" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H146" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I146">
         <v>-1</v>
@@ -8190,19 +8174,19 @@
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C147" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H147" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I147">
         <v>-1</v>
@@ -8225,19 +8209,19 @@
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C148" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H148" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I148">
         <v>-1</v>
@@ -8260,19 +8244,19 @@
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C149" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H149" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I149">
         <v>-1</v>
@@ -8295,19 +8279,19 @@
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C150" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H150" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I150">
         <v>-1</v>
@@ -8330,19 +8314,19 @@
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C151" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H151" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I151">
         <v>-1</v>
@@ -8365,19 +8349,19 @@
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C152" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H152" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I152">
         <v>-1</v>
@@ -8400,19 +8384,19 @@
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C153" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H153" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I153">
         <v>-1</v>
@@ -8435,19 +8419,19 @@
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C154" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H154" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I154">
         <v>-1</v>
@@ -8470,19 +8454,19 @@
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C155" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H155" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I155">
         <v>-1</v>
@@ -8505,19 +8489,19 @@
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C156" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H156" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I156">
         <v>-1</v>
@@ -8540,19 +8524,19 @@
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C157" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H157" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I157">
         <v>-1</v>
@@ -8575,19 +8559,19 @@
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C158" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H158" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="I158">
         <v>-1</v>
@@ -8610,19 +8594,19 @@
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C159" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H159" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I159">
         <v>-1</v>
@@ -8645,19 +8629,19 @@
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C160" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H160" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="I160">
         <v>-1</v>
@@ -8680,19 +8664,19 @@
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C161" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H161" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I161">
         <v>-1</v>
@@ -8715,19 +8699,19 @@
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C162" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H162" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I162">
         <v>-1</v>
@@ -8750,19 +8734,19 @@
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C163" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H163" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I163">
         <v>-1</v>
@@ -8785,19 +8769,19 @@
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C164" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H164" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I164">
         <v>-1</v>
@@ -8820,19 +8804,19 @@
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C165" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H165" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I165">
         <v>-1</v>
@@ -8855,19 +8839,19 @@
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C166" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H166" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="I166">
         <v>-1</v>
@@ -8890,19 +8874,19 @@
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C167" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H167" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I167">
         <v>-1</v>
@@ -8925,19 +8909,19 @@
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C168" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H168" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I168">
         <v>-1</v>
@@ -8960,19 +8944,19 @@
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C169" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>596</v>
+        <v>363</v>
       </c>
       <c r="H169" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I169">
         <v>-1</v>
@@ -8990,24 +8974,24 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C170" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>598</v>
+        <v>366</v>
       </c>
       <c r="H170" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I170">
         <v>-1</v>
@@ -9025,24 +9009,24 @@
         <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C171" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H171" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I171">
         <v>-1</v>
@@ -9064,20 +9048,20 @@
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B172" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>757</v>
+      <c r="B172" t="s">
+        <v>597</v>
+      </c>
+      <c r="C172" t="s">
+        <v>370</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
-      <c r="F172" s="14" t="s">
-        <v>760</v>
+      <c r="F172" t="s">
+        <v>598</v>
       </c>
       <c r="H172" t="s">
-        <v>763</v>
+        <v>369</v>
       </c>
       <c r="I172">
         <v>-1</v>
@@ -9099,20 +9083,20 @@
       </c>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B173" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>758</v>
+      <c r="B173" t="s">
+        <v>599</v>
+      </c>
+      <c r="C173" t="s">
+        <v>372</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
-      <c r="F173" s="14" t="s">
-        <v>761</v>
+      <c r="F173" t="s">
+        <v>600</v>
       </c>
       <c r="H173" t="s">
-        <v>764</v>
+        <v>371</v>
       </c>
       <c r="I173">
         <v>-1</v>
@@ -9135,19 +9119,19 @@
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B174" s="17" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H174" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I174">
         <v>-1</v>
@@ -9169,32 +9153,61 @@
       </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
+      <c r="B175" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="H175" t="s">
+        <v>764</v>
+      </c>
+      <c r="I175">
+        <v>-1</v>
+      </c>
+      <c r="J175" s="8">
+        <v>3</v>
+      </c>
+      <c r="K175" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L175" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M175" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>601</v>
-      </c>
-      <c r="C176" t="s">
-        <v>374</v>
+      <c r="B176" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>759</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
-      <c r="F176" t="s">
-        <v>602</v>
+      <c r="F176" s="14" t="s">
+        <v>762</v>
       </c>
       <c r="H176" t="s">
-        <v>373</v>
+        <v>765</v>
       </c>
       <c r="I176">
         <v>-1</v>
       </c>
       <c r="J176" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K176" s="8" t="s">
         <v>732</v>
@@ -9203,62 +9216,33 @@
         <v>1</v>
       </c>
       <c r="M176" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O176" s="14" t="s">
-        <v>375</v>
+        <v>0</v>
+      </c>
+      <c r="O176" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
-        <v>603</v>
-      </c>
-      <c r="C177" t="s">
-        <v>377</v>
-      </c>
-      <c r="E177" t="b">
-        <v>0</v>
-      </c>
-      <c r="F177" t="s">
-        <v>604</v>
-      </c>
-      <c r="H177" t="s">
-        <v>376</v>
-      </c>
-      <c r="I177">
-        <v>-1</v>
-      </c>
-      <c r="J177" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K177" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L177" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M177" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O177" s="14" t="s">
-        <v>375</v>
-      </c>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="8"/>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C178" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H178" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I178">
         <v>-1</v>
@@ -9276,24 +9260,24 @@
         <v>1</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C179" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H179" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I179">
         <v>-1</v>
@@ -9310,25 +9294,25 @@
       <c r="M179" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O179" t="s">
-        <v>176</v>
+      <c r="O179" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C180" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H180" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I180">
         <v>-1</v>
@@ -9345,25 +9329,25 @@
       <c r="M180" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O180" t="s">
-        <v>176</v>
+      <c r="O180" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C181" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H181" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I181">
         <v>-1</v>
@@ -9386,19 +9370,19 @@
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C182" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H182" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I182">
         <v>-1</v>
@@ -9416,24 +9400,24 @@
         <v>1</v>
       </c>
       <c r="O182" t="s">
-        <v>388</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C183" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H183" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I183">
         <v>-1</v>
@@ -9451,24 +9435,24 @@
         <v>1</v>
       </c>
       <c r="O183" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C184" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H184" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I184">
         <v>-1</v>
@@ -9486,24 +9470,24 @@
         <v>1</v>
       </c>
       <c r="O184" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C185" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H185" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I185">
         <v>-1</v>
@@ -9521,24 +9505,24 @@
         <v>1</v>
       </c>
       <c r="O185" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C186" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H186" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I186">
         <v>-1</v>
@@ -9556,24 +9540,24 @@
         <v>1</v>
       </c>
       <c r="O186" t="s">
-        <v>176</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C187" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H187" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I187">
         <v>-1</v>
@@ -9596,19 +9580,19 @@
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C188" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H188" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I188">
         <v>-1</v>
@@ -9631,19 +9615,19 @@
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C189" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H189" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I189">
         <v>-1</v>
@@ -9666,19 +9650,19 @@
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C190" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H190" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I190">
         <v>-1</v>
@@ -9701,19 +9685,19 @@
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>631</v>
-      </c>
-      <c r="C191" s="14" t="s">
-        <v>407</v>
+        <v>627</v>
+      </c>
+      <c r="C191" t="s">
+        <v>403</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H191" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I191">
         <v>-1</v>
@@ -9736,19 +9720,19 @@
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>633</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>409</v>
+        <v>629</v>
+      </c>
+      <c r="C192" t="s">
+        <v>405</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H192" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I192">
         <v>-1</v>
@@ -9771,19 +9755,19 @@
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H193" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I193">
         <v>-1</v>
@@ -9806,19 +9790,19 @@
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>637</v>
-      </c>
-      <c r="C194" t="s">
-        <v>413</v>
+        <v>633</v>
+      </c>
+      <c r="C194" s="14" t="s">
+        <v>409</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H194" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I194">
         <v>-1</v>
@@ -9841,19 +9825,19 @@
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>639</v>
-      </c>
-      <c r="C195" t="s">
-        <v>415</v>
+        <v>635</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>411</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H195" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I195">
         <v>-1</v>
@@ -9876,19 +9860,19 @@
     </row>
     <row r="196" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C196" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H196" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I196">
         <v>-1</v>
@@ -9911,19 +9895,19 @@
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C197" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H197" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I197">
         <v>-1</v>
@@ -9946,19 +9930,19 @@
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C198" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H198" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I198">
         <v>-1</v>
@@ -9981,19 +9965,19 @@
     </row>
     <row r="199" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C199" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H199" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I199">
         <v>-1</v>
@@ -10016,19 +10000,19 @@
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C200" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H200" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I200">
         <v>-1</v>
@@ -10045,25 +10029,25 @@
       <c r="M200" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O200" s="14" t="s">
-        <v>426</v>
+      <c r="O200" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="201" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C201" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H201" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I201">
         <v>-1</v>
@@ -10080,25 +10064,25 @@
       <c r="M201" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O201" s="14" t="s">
-        <v>426</v>
+      <c r="O201" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="202" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C202" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E202" t="b">
         <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H202" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I202">
         <v>-1</v>
@@ -10121,19 +10105,19 @@
     </row>
     <row r="203" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>655</v>
-      </c>
-      <c r="C203" s="14" t="s">
-        <v>460</v>
+        <v>651</v>
+      </c>
+      <c r="C203" t="s">
+        <v>428</v>
       </c>
       <c r="E203" t="b">
         <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H203" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I203">
         <v>-1</v>
@@ -10156,19 +10140,19 @@
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>657</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>460</v>
+        <v>653</v>
+      </c>
+      <c r="C204" t="s">
+        <v>430</v>
       </c>
       <c r="E204" t="b">
         <v>0</v>
       </c>
       <c r="F204" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H204" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I204">
         <v>-1</v>
@@ -10191,7 +10175,7 @@
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>460</v>
@@ -10200,10 +10184,10 @@
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H205" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I205">
         <v>-1</v>
@@ -10225,20 +10209,20 @@
       </c>
     </row>
     <row r="206" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B206" s="14" t="s">
-        <v>766</v>
+      <c r="B206" t="s">
+        <v>657</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>767</v>
+        <v>460</v>
       </c>
       <c r="E206" t="b">
         <v>0</v>
       </c>
-      <c r="F206" s="14" t="s">
-        <v>768</v>
+      <c r="F206" t="s">
+        <v>658</v>
       </c>
       <c r="H206" t="s">
-        <v>769</v>
+        <v>432</v>
       </c>
       <c r="I206">
         <v>-1</v>
@@ -10259,83 +10243,88 @@
         <v>426</v>
       </c>
     </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>659</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
+      <c r="F207" t="s">
+        <v>660</v>
+      </c>
+      <c r="H207" t="s">
+        <v>433</v>
+      </c>
+      <c r="I207">
+        <v>-1</v>
+      </c>
+      <c r="J207" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K207" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L207" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M207" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O207" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
     <row r="208" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B208" s="14" t="s">
-        <v>725</v>
+        <v>766</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="E208" t="b">
         <v>0</v>
       </c>
-      <c r="F208" t="s">
-        <v>724</v>
+      <c r="F208" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="H208" t="s">
+        <v>769</v>
       </c>
       <c r="I208">
         <v>-1</v>
       </c>
       <c r="J208" s="8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K208" s="8" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="L208" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M208" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O208" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B209" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="C209" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="E209" t="b">
-        <v>0</v>
-      </c>
-      <c r="F209" t="s">
-        <v>724</v>
-      </c>
-      <c r="H209" s="8"/>
-      <c r="I209">
-        <v>-1</v>
-      </c>
-      <c r="J209" s="8">
-        <v>1</v>
-      </c>
-      <c r="K209" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="L209" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M209" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O209" t="s">
-        <v>176</v>
+        <v>1</v>
+      </c>
+      <c r="O208" s="14" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B210" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E210" t="b">
         <v>0</v>
       </c>
-      <c r="F210" s="14" t="s">
-        <v>728</v>
+      <c r="F210" t="s">
+        <v>724</v>
       </c>
       <c r="I210">
         <v>-1</v>
@@ -10358,17 +10347,18 @@
     </row>
     <row r="211" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B211" s="14" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="E211" t="b">
         <v>0</v>
       </c>
-      <c r="F211" s="14" t="s">
-        <v>728</v>
-      </c>
+      <c r="F211" t="s">
+        <v>724</v>
+      </c>
+      <c r="H211" s="8"/>
       <c r="I211">
         <v>-1</v>
       </c>
@@ -10388,27 +10378,59 @@
         <v>176</v>
       </c>
     </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B212" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="I212">
+        <v>-1</v>
+      </c>
+      <c r="J212" s="8">
+        <v>1</v>
+      </c>
+      <c r="K212" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="L212" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M212" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O212" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="213" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B213" s="14" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="E213" t="b">
         <v>0</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="I213">
         <v>-1</v>
       </c>
       <c r="J213" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K213" s="8" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="L213" s="8" t="b">
         <v>0</v>
@@ -10420,8 +10442,40 @@
         <v>176</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="H214" s="8"/>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B215" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="C215" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="I215">
+        <v>-1</v>
+      </c>
+      <c r="J215" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K215" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="L215" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M215" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O215" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H216" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10429,49 +10483,49 @@
     <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B41">
+  <conditionalFormatting sqref="B43">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B44">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
+  <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B46">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="B48">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:B52 B54:B65">
+  <conditionalFormatting sqref="B49:B54 B56:B67">
     <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F43">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+  <conditionalFormatting sqref="F44">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F45">
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F46">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F47">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F48">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F49">
+  <conditionalFormatting sqref="F49:F51">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51:F52 F54:F65">
+  <conditionalFormatting sqref="F53:F54 F56:F67">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86D12A7-331A-40B9-B5F1-5D76E49786F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F9FD0-251A-48B2-A992-C36DA50129CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="808">
   <si>
     <t>##var</t>
   </si>
@@ -2856,6 +2856,124 @@
   </si>
   <si>
     <t>ResEffect_BossEffect</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Heal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-治疗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Heal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Invisible_Buff</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-隐身-隐身效果buff</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Invisible_Buff</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Weaken</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-弱化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Weaken</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶塔命中1</t>
+  </si>
+  <si>
+    <t>水晶塔命中2</t>
+  </si>
+  <si>
+    <t>水晶塔命中3</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerFire_Hit1</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerFire_Hit1</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerFire_Hit2</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerFire_Hit2</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerFire_Hit3</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerFire_Hit3</t>
+  </si>
+  <si>
+    <t>EffectCreate_FireTowerGolem1</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerGolem1</t>
+  </si>
+  <si>
+    <t>EffectCreate_FireTowerGolem2</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerGolem2</t>
+  </si>
+  <si>
+    <t>EffectCreate_FireTowerGolem3</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerGolem3</t>
+  </si>
+  <si>
+    <t>魔像开火</t>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Niao1</t>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Niao2</t>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Niao3</t>
+  </si>
+  <si>
+    <t>怪物技能-鸟1</t>
+  </si>
+  <si>
+    <t>友军加速</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-鸟2</t>
+  </si>
+  <si>
+    <t>怪物技能-鸟3</t>
+  </si>
+  <si>
+    <t>怪物通用技能-自身弱化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_WeakenSmall</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_WeakenSmall</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3038,7 +3156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -3069,6 +3187,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3093,7 +3214,27 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3515,11 +3656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA216"/>
+  <dimension ref="A1:AA230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3581,11 +3722,11 @@
       <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -3675,11 +3816,11 @@
       <c r="M3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
@@ -3787,55 +3928,75 @@
       <c r="AA5"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>771</v>
+      <c r="B6" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>774</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>772</v>
+      <c r="F6" s="18" t="s">
+        <v>775</v>
       </c>
       <c r="J6" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L6" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="B7" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D8" t="s">
-        <v>454</v>
+      <c r="B8" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>780</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>469</v>
+      <c r="F8" s="18" t="s">
+        <v>781</v>
       </c>
       <c r="J8" s="8">
         <v>3</v>
@@ -3854,17 +4015,17 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" t="s">
-        <v>454</v>
+      <c r="B9" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>805</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>470</v>
+      <c r="F9" s="18" t="s">
+        <v>807</v>
       </c>
       <c r="J9" s="8">
         <v>3</v>
@@ -3873,117 +4034,77 @@
         <v>732</v>
       </c>
       <c r="L9" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>471</v>
-      </c>
-      <c r="J10" s="8">
-        <v>3</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>176</v>
-      </c>
+      <c r="B10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>440</v>
-      </c>
-      <c r="D11" t="s">
-        <v>454</v>
+      <c r="B11" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>771</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>472</v>
+      <c r="F11" s="15" t="s">
+        <v>772</v>
       </c>
       <c r="J11" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L11" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>441</v>
-      </c>
-      <c r="D12" t="s">
-        <v>454</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>473</v>
-      </c>
-      <c r="J12" s="8">
-        <v>3</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>176</v>
-      </c>
+      <c r="B12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J13" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>732</v>
@@ -3992,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
         <v>176</v>
@@ -4000,19 +4121,19 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J14" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>732</v>
@@ -4021,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
         <v>176</v>
@@ -4029,19 +4150,19 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J15" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>732</v>
@@ -4050,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
         <v>176</v>
@@ -4058,7 +4179,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D16" t="s">
         <v>454</v>
@@ -4067,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J16" s="8">
         <v>3</v>
@@ -4087,19 +4208,19 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J17" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>732</v>
@@ -4108,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>176</v>
@@ -4116,19 +4237,19 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J18" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>732</v>
@@ -4137,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="s">
         <v>176</v>
@@ -4145,19 +4266,19 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J19" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>732</v>
@@ -4166,27 +4287,27 @@
         <v>1</v>
       </c>
       <c r="M19" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
-        <v>461</v>
+      <c r="B20" t="s">
+        <v>444</v>
       </c>
       <c r="D20" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J20" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>732</v>
@@ -4195,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
         <v>176</v>
@@ -4203,7 +4324,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D21" t="s">
         <v>454</v>
@@ -4212,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J21" s="8">
         <v>3</v>
@@ -4232,19 +4353,19 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J22" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>732</v>
@@ -4253,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="s">
         <v>176</v>
@@ -4261,19 +4382,19 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D23" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>662</v>
+        <v>479</v>
       </c>
       <c r="J23" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>732</v>
@@ -4282,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>176</v>
@@ -4290,16 +4411,16 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D24" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J24" s="8">
         <v>3</v>
@@ -4318,8 +4439,8 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>453</v>
+      <c r="B25" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="D25" t="s">
         <v>459</v>
@@ -4328,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J25" s="8">
         <v>3</v>
@@ -4347,49 +4468,78 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>700</v>
+      <c r="B26" t="s">
+        <v>449</v>
+      </c>
+      <c r="D26" t="s">
+        <v>454</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>458</v>
+      <c r="F26" t="s">
+        <v>482</v>
       </c>
       <c r="J26" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L26" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>176</v>
       </c>
     </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" t="s">
+        <v>459</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>483</v>
+      </c>
+      <c r="J27" s="8">
+        <v>3</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="s">
-        <v>462</v>
+      <c r="B28" t="s">
+        <v>451</v>
       </c>
       <c r="D28" t="s">
-        <v>661</v>
+        <v>455</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>663</v>
+      <c r="F28" t="s">
+        <v>662</v>
       </c>
       <c r="J28" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>732</v>
@@ -4398,24 +4548,24 @@
         <v>1</v>
       </c>
       <c r="M28" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="16" t="s">
-        <v>463</v>
+      <c r="B29" t="s">
+        <v>452</v>
       </c>
       <c r="D29" t="s">
-        <v>661</v>
+        <v>454</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>664</v>
+      <c r="F29" t="s">
+        <v>484</v>
       </c>
       <c r="J29" s="8">
         <v>3</v>
@@ -4434,17 +4584,17 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="16" t="s">
-        <v>464</v>
+      <c r="B30" t="s">
+        <v>453</v>
       </c>
       <c r="D30" t="s">
-        <v>661</v>
+        <v>459</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>665</v>
+      <c r="F30" t="s">
+        <v>485</v>
       </c>
       <c r="J30" s="8">
         <v>3</v>
@@ -4463,66 +4613,37 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D31" t="s">
-        <v>661</v>
+      <c r="B31" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>700</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>666</v>
+      <c r="F31" s="15" t="s">
+        <v>458</v>
       </c>
       <c r="J31" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L31" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D32" t="s">
-        <v>661</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="J32" s="8">
-        <v>3</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L32" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>176</v>
-      </c>
-    </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D33" t="s">
         <v>661</v>
@@ -4531,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J33" s="8">
         <v>3</v>
@@ -4551,7 +4672,7 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D34" t="s">
         <v>661</v>
@@ -4560,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="J34" s="8">
         <v>3</v>
@@ -4580,19 +4701,19 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>670</v>
+        <v>464</v>
       </c>
       <c r="D35" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="J35" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>732</v>
@@ -4601,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
         <v>176</v>
@@ -4609,19 +4730,19 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
-        <v>671</v>
+        <v>465</v>
       </c>
       <c r="D36" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="J36" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>732</v>
@@ -4630,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>176</v>
@@ -4638,19 +4759,19 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
-        <v>672</v>
+        <v>466</v>
       </c>
       <c r="D37" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="J37" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>732</v>
@@ -4659,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
         <v>176</v>
@@ -4667,19 +4788,19 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>673</v>
+        <v>467</v>
       </c>
       <c r="D38" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="J38" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>732</v>
@@ -4688,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
         <v>176</v>
@@ -4696,19 +4817,19 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>674</v>
+        <v>468</v>
       </c>
       <c r="D39" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="J39" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>732</v>
@@ -4717,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
         <v>176</v>
@@ -4725,7 +4846,7 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D40" t="s">
         <v>678</v>
@@ -4734,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="J40" s="8">
         <v>-1</v>
@@ -4754,7 +4875,7 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D41" t="s">
         <v>678</v>
@@ -4763,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J41" s="8">
         <v>-1</v>
@@ -4783,7 +4904,7 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="16" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D42" t="s">
         <v>678</v>
@@ -4792,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="J42" s="8">
         <v>-1</v>
@@ -4812,19 +4933,19 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="16" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="D43" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="J43" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>732</v>
@@ -4833,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="s">
         <v>176</v>
@@ -4841,19 +4962,19 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="16" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D44" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="J44" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>732</v>
@@ -4862,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>176</v>
@@ -4870,19 +4991,19 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D45" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="J45" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>732</v>
@@ -4891,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
         <v>176</v>
@@ -4899,19 +5020,19 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D46" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="J46" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>732</v>
@@ -4920,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="M46" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="s">
         <v>176</v>
@@ -4928,19 +5049,19 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D47" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="J47" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>732</v>
@@ -4949,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="s">
         <v>176</v>
@@ -4957,7 +5078,7 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D48" t="s">
         <v>692</v>
@@ -4966,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J48" s="8">
         <v>3</v>
@@ -4986,16 +5107,16 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="D49" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="J49" s="8">
         <v>3</v>
@@ -5015,16 +5136,16 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="D50" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J50" s="8">
         <v>3</v>
@@ -5044,16 +5165,16 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="D51" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="J51" s="8">
         <v>3</v>
@@ -5072,32 +5193,58 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="16"/>
+      <c r="B52" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="D52" t="s">
+        <v>692</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="J52" s="8">
+        <v>3</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L52" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>486</v>
+        <v>691</v>
       </c>
       <c r="D53" t="s">
-        <v>434</v>
+        <v>692</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>435</v>
+        <v>699</v>
       </c>
       <c r="J53" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L53" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="s">
         <v>176</v>
@@ -5105,19 +5252,19 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="D54" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="J54" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>732</v>
@@ -5126,33 +5273,27 @@
         <v>1</v>
       </c>
       <c r="M54" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="14" t="s">
-        <v>713</v>
+      <c r="B55" s="16" t="s">
+        <v>702</v>
       </c>
       <c r="D55" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="s">
-        <v>715</v>
-      </c>
-      <c r="H55" t="s">
-        <v>716</v>
-      </c>
-      <c r="I55">
-        <v>-1</v>
+      <c r="F55" s="16" t="s">
+        <v>708</v>
       </c>
       <c r="J55" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>732</v>
@@ -5161,67 +5302,59 @@
         <v>1</v>
       </c>
       <c r="M55" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
+      <c r="B56" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="D56" t="s">
+        <v>706</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="J56" s="8">
+        <v>3</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L56" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C57" t="s">
-        <v>434</v>
-      </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="J57" s="8">
-        <v>2</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L57" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" s="8" t="b">
-        <v>1</v>
-      </c>
+      <c r="B57" s="16"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="C58" t="s">
-        <v>40</v>
+        <v>486</v>
+      </c>
+      <c r="D58" t="s">
+        <v>434</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="J58" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>732</v>
@@ -5231,148 +5364,127 @@
       </c>
       <c r="M58" s="8" t="b">
         <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C59" t="s">
-        <v>43</v>
+        <v>711</v>
+      </c>
+      <c r="D59" t="s">
+        <v>710</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
+        <v>712</v>
       </c>
       <c r="J59" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L59" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="8" t="b">
         <v>1</v>
       </c>
+      <c r="O59" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="C60" t="s">
-        <v>46</v>
+      <c r="B60" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D60" t="s">
+        <v>714</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" t="s">
-        <v>48</v>
+      <c r="F60" t="s">
+        <v>715</v>
       </c>
       <c r="H60" t="s">
-        <v>49</v>
+        <v>716</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J60" s="8">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L60" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="8" t="b">
         <v>1</v>
       </c>
+      <c r="O60" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="C61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61" s="8">
-        <v>3</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L61" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M61" s="8" t="b">
-        <v>1</v>
-      </c>
+      <c r="B61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>434</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" t="s">
-        <v>48</v>
+        <v>436</v>
       </c>
       <c r="J62" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L62" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O62" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="16" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="H63" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
       </c>
       <c r="J63" s="8">
         <v>5</v>
@@ -5381,30 +5493,30 @@
         <v>732</v>
       </c>
       <c r="L63" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O63" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="16" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="H64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
       </c>
       <c r="J64" s="8">
         <v>5</v>
@@ -5413,31 +5525,34 @@
         <v>732</v>
       </c>
       <c r="L64" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O64" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="16" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
         <v>48</v>
       </c>
+      <c r="H65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
       <c r="J65" s="8">
         <v>5</v>
       </c>
@@ -5445,30 +5560,24 @@
         <v>732</v>
       </c>
       <c r="L65" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O65" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="16" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J66" s="8">
         <v>3</v>
@@ -5481,251 +5590,239 @@
       </c>
       <c r="M66" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="8">
+        <v>5</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L67" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" s="8">
+        <v>5</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L68" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="8">
+        <v>5</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L69" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="8">
+        <v>5</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L70" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="8">
+        <v>3</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L71" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C72" t="s">
         <v>62</v>
       </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="16" t="s">
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G72" t="s">
         <v>64</v>
       </c>
-      <c r="J67" s="8">
-        <v>3</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L67" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="J72" s="8">
+        <v>3</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L72" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>498</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D73" t="s">
         <v>66</v>
       </c>
-      <c r="E68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8" t="s">
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="J68" s="8">
-        <v>1</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L68" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
+      <c r="G73" s="8"/>
+      <c r="J73" s="8">
+        <v>1</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L73" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>499</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" t="s">
-        <v>66</v>
-      </c>
-      <c r="E69" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" t="s">
-        <v>71</v>
-      </c>
-      <c r="J69" s="8">
-        <v>1</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L69" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>500</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="8"/>
-      <c r="J70" s="8">
-        <v>1</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L70" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M70" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" s="8"/>
-      <c r="J71" s="9">
-        <v>1</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L71" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M71" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s">
-        <v>81</v>
-      </c>
-      <c r="J72" s="9">
-        <v>1</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L72" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" s="8"/>
-      <c r="J73" s="9">
-        <v>1</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L73" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -5733,14 +5830,8 @@
       <c r="F74" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-      <c r="I74">
-        <v>10</v>
+      <c r="G74" t="s">
+        <v>71</v>
       </c>
       <c r="J74" s="8">
         <v>1</v>
@@ -5749,39 +5840,34 @@
         <v>732</v>
       </c>
       <c r="L74" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="8" t="b">
         <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>66</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I75" s="8">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G75" s="8"/>
       <c r="J75" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>732</v>
@@ -5790,160 +5876,140 @@
         <v>1</v>
       </c>
       <c r="M75" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>506</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>87</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I76" s="8">
-        <v>1</v>
-      </c>
-      <c r="J76" s="8">
-        <v>-1</v>
+      <c r="F76" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="J76" s="9">
+        <v>1</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="L76" s="8" t="b">
-        <v>1</v>
+      <c r="L76" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="M76" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>507</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>87</v>
+      <c r="O76" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>92</v>
+      <c r="F77" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="G77" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I77" s="8">
-        <v>1</v>
-      </c>
-      <c r="J77" s="8">
-        <v>-1</v>
+        <v>81</v>
+      </c>
+      <c r="J77" s="9">
+        <v>1</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="L77" s="8" t="b">
-        <v>1</v>
+      <c r="L77" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="M77" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>719</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>718</v>
+      <c r="O77" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8">
-        <v>1</v>
-      </c>
-      <c r="J78" s="8">
-        <v>3</v>
+      <c r="F78" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="8"/>
+      <c r="J78" s="9">
+        <v>1</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="L78" s="8" t="b">
-        <v>0</v>
+      <c r="L78" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="M78" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O78" t="s">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>85</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G79" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I79" s="8">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" t="s">
+        <v>86</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
       </c>
       <c r="J79" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>732</v>
@@ -5957,25 +6023,25 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I80" s="8">
         <v>1</v>
@@ -5991,128 +6057,159 @@
       </c>
       <c r="M80" s="8" t="b">
         <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I81" s="8">
+        <v>1</v>
+      </c>
+      <c r="J81" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L81" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>507</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" s="8">
+        <v>1</v>
+      </c>
+      <c r="J82" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L82" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="G83" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8">
+        <v>1</v>
+      </c>
+      <c r="J83" s="8">
+        <v>3</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L83" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>508</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I81" s="8">
-        <v>1</v>
-      </c>
-      <c r="J81" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L81" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M81" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G82" t="s">
-        <v>71</v>
-      </c>
-      <c r="J82" s="10">
-        <v>3</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L82" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M82" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" t="s">
-        <v>71</v>
-      </c>
-      <c r="J83" s="10">
-        <v>3</v>
-      </c>
-      <c r="K83" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L83" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M83" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O83" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E84" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G84" t="s">
-        <v>71</v>
-      </c>
-      <c r="J84" s="10">
-        <v>3</v>
+      <c r="H84" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I84" s="8">
+        <v>1</v>
+      </c>
+      <c r="J84" s="8">
+        <v>-1</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>732</v>
@@ -6122,26 +6219,35 @@
       </c>
       <c r="M84" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>514</v>
-      </c>
-      <c r="C85" t="s">
-        <v>109</v>
+        <v>509</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
-      <c r="F85" t="s">
-        <v>110</v>
+      <c r="F85" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" t="s">
+        <v>97</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85" s="8">
+        <v>1</v>
       </c>
       <c r="J85" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>732</v>
@@ -6150,27 +6256,36 @@
         <v>1</v>
       </c>
       <c r="M85" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O85" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>515</v>
-      </c>
-      <c r="C86" t="s">
-        <v>111</v>
+        <v>510</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
-      <c r="F86" t="s">
-        <v>112</v>
+      <c r="F86" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" t="s">
+        <v>97</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I86" s="8">
+        <v>1</v>
       </c>
       <c r="J86" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>732</v>
@@ -6179,26 +6294,26 @@
         <v>1</v>
       </c>
       <c r="M86" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O86" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>516</v>
-      </c>
-      <c r="C87" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="F87" t="s">
-        <v>114</v>
-      </c>
-      <c r="J87" s="8">
+      <c r="F87" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="J87" s="10">
         <v>3</v>
       </c>
       <c r="K87" s="8" t="s">
@@ -6208,26 +6323,29 @@
         <v>1</v>
       </c>
       <c r="M87" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O87" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>721</v>
-      </c>
-      <c r="C88" t="s">
-        <v>722</v>
+        <v>1</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
-      <c r="F88" t="s">
-        <v>723</v>
-      </c>
-      <c r="J88" s="8">
+      <c r="F88" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="J88" s="10">
         <v>3</v>
       </c>
       <c r="K88" s="8" t="s">
@@ -6237,27 +6355,27 @@
         <v>1</v>
       </c>
       <c r="M88" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O88" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G89" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J89" s="10">
         <v>3</v>
@@ -6272,26 +6390,23 @@
         <v>1</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>514</v>
+      </c>
+      <c r="C90" t="s">
+        <v>109</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G90" t="s">
-        <v>81</v>
-      </c>
-      <c r="J90" s="10">
+      <c r="F90" t="s">
+        <v>110</v>
+      </c>
+      <c r="J90" s="8">
         <v>3</v>
       </c>
       <c r="K90" s="8" t="s">
@@ -6301,29 +6416,26 @@
         <v>1</v>
       </c>
       <c r="M90" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>121</v>
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>515</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G91" t="s">
-        <v>81</v>
-      </c>
-      <c r="J91" s="10">
+      <c r="F91" t="s">
+        <v>112</v>
+      </c>
+      <c r="J91" s="8">
         <v>3</v>
       </c>
       <c r="K91" s="8" t="s">
@@ -6333,24 +6445,24 @@
         <v>1</v>
       </c>
       <c r="M91" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O91" s="4" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="O91" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J92" s="8">
         <v>3</v>
@@ -6370,16 +6482,16 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>521</v>
+        <v>721</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>722</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>723</v>
       </c>
       <c r="J93" s="8">
         <v>3</v>
@@ -6397,20 +6509,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>522</v>
-      </c>
-      <c r="C94" t="s">
-        <v>128</v>
+    <row r="94" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
-      <c r="F94" t="s">
-        <v>129</v>
-      </c>
-      <c r="J94" s="8">
+      <c r="F94" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G94" t="s">
+        <v>81</v>
+      </c>
+      <c r="J94" s="10">
         <v>3</v>
       </c>
       <c r="K94" s="8" t="s">
@@ -6420,26 +6535,29 @@
         <v>1</v>
       </c>
       <c r="M94" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O94" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>523</v>
-      </c>
-      <c r="C95" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
-      <c r="F95" t="s">
-        <v>131</v>
-      </c>
-      <c r="J95" s="8">
+      <c r="F95" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="J95" s="10">
         <v>3</v>
       </c>
       <c r="K95" s="8" t="s">
@@ -6449,26 +6567,29 @@
         <v>1</v>
       </c>
       <c r="M95" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O95" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>524</v>
-      </c>
-      <c r="C96" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
-      <c r="F96" t="s">
-        <v>133</v>
-      </c>
-      <c r="J96" s="8">
+      <c r="F96" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G96" t="s">
+        <v>81</v>
+      </c>
+      <c r="J96" s="10">
         <v>3</v>
       </c>
       <c r="K96" s="8" t="s">
@@ -6478,24 +6599,24 @@
         <v>1</v>
       </c>
       <c r="M96" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O96" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J97" s="8">
         <v>3</v>
@@ -6515,16 +6636,16 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J98" s="8">
         <v>3</v>
@@ -6544,16 +6665,16 @@
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J99" s="8">
         <v>3</v>
@@ -6573,16 +6694,16 @@
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J100" s="8">
         <v>3</v>
@@ -6602,22 +6723,16 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>144</v>
-      </c>
-      <c r="H101" t="s">
-        <v>142</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="J101" s="8">
         <v>3</v>
@@ -6629,30 +6744,24 @@
         <v>1</v>
       </c>
       <c r="M101" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C102" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>148</v>
-      </c>
-      <c r="H102" t="s">
-        <v>146</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="J102" s="8">
         <v>3</v>
@@ -6664,30 +6773,24 @@
         <v>1</v>
       </c>
       <c r="M102" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O102" s="11" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C103" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>152</v>
-      </c>
-      <c r="H103" t="s">
-        <v>150</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="J103" s="8">
         <v>3</v>
@@ -6699,30 +6802,24 @@
         <v>1</v>
       </c>
       <c r="M103" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C104" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>156</v>
-      </c>
-      <c r="H104" t="s">
-        <v>154</v>
-      </c>
-      <c r="I104">
-        <v>-1</v>
+        <v>139</v>
       </c>
       <c r="J104" s="8">
         <v>3</v>
@@ -6742,22 +6839,16 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>159</v>
-      </c>
-      <c r="H105" t="s">
-        <v>157</v>
-      </c>
-      <c r="I105">
-        <v>-1</v>
+        <v>141</v>
       </c>
       <c r="J105" s="8">
         <v>3</v>
@@ -6777,22 +6868,22 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C106" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H106" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="I106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J106" s="8">
         <v>3</v>
@@ -6804,30 +6895,33 @@
         <v>1</v>
       </c>
       <c r="M106" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="H107" t="s">
-        <v>163</v>
+        <v>146</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
       </c>
       <c r="J107" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K107" s="8" t="s">
         <v>732</v>
@@ -6838,28 +6932,31 @@
       <c r="M107" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O107" t="s">
-        <v>166</v>
+      <c r="O107" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C108" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="H108" t="s">
-        <v>167</v>
+        <v>150</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
       </c>
       <c r="J108" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K108" s="8" t="s">
         <v>732</v>
@@ -6871,27 +6968,30 @@
         <v>1</v>
       </c>
       <c r="O108" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C109" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H109" t="s">
-        <v>170</v>
+        <v>154</v>
+      </c>
+      <c r="I109">
+        <v>-1</v>
       </c>
       <c r="J109" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K109" s="8" t="s">
         <v>732</v>
@@ -6900,33 +7000,33 @@
         <v>1</v>
       </c>
       <c r="M109" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E110" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I110" s="5">
-        <v>-1</v>
-      </c>
-      <c r="J110" s="12">
-        <v>2</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>533</v>
+      </c>
+      <c r="C110" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>159</v>
+      </c>
+      <c r="H110" t="s">
+        <v>157</v>
+      </c>
+      <c r="I110">
+        <v>-1</v>
+      </c>
+      <c r="J110" s="8">
+        <v>3</v>
       </c>
       <c r="K110" s="8" t="s">
         <v>732</v>
@@ -6934,34 +7034,34 @@
       <c r="L110" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M110" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O110" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="111" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E111" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I111" s="5">
-        <v>-1</v>
-      </c>
-      <c r="J111" s="12">
-        <v>2</v>
+      <c r="M110" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>534</v>
+      </c>
+      <c r="C111" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>162</v>
+      </c>
+      <c r="H111" t="s">
+        <v>160</v>
+      </c>
+      <c r="I111">
+        <v>-1</v>
+      </c>
+      <c r="J111" s="8">
+        <v>3</v>
       </c>
       <c r="K111" s="8" t="s">
         <v>732</v>
@@ -6969,34 +7069,28 @@
       <c r="L111" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M111" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O111" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="112" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E112" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I112" s="5">
-        <v>-1</v>
-      </c>
-      <c r="J112" s="12">
-        <v>2</v>
+      <c r="M111" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>785</v>
+      </c>
+      <c r="C112" t="s">
+        <v>782</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>786</v>
+      </c>
+      <c r="J112" s="8">
+        <v>3</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>732</v>
@@ -7004,31 +7098,25 @@
       <c r="L112" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M112" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O112" s="13" t="s">
-        <v>176</v>
+      <c r="M112" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O112" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>541</v>
+        <v>787</v>
       </c>
       <c r="C113" t="s">
-        <v>182</v>
+        <v>783</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>183</v>
-      </c>
-      <c r="H113" t="s">
-        <v>181</v>
-      </c>
-      <c r="I113">
-        <v>-1</v>
+        <v>788</v>
       </c>
       <c r="J113" s="8">
         <v>3</v>
@@ -7040,30 +7128,24 @@
         <v>1</v>
       </c>
       <c r="M113" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>542</v>
+        <v>789</v>
       </c>
       <c r="C114" t="s">
-        <v>186</v>
+        <v>784</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>187</v>
-      </c>
-      <c r="H114" t="s">
-        <v>185</v>
-      </c>
-      <c r="I114">
-        <v>-1</v>
+        <v>790</v>
       </c>
       <c r="J114" s="8">
         <v>3</v>
@@ -7075,33 +7157,30 @@
         <v>1</v>
       </c>
       <c r="M114" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C115" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="H115" t="s">
-        <v>189</v>
-      </c>
-      <c r="I115">
-        <v>-1</v>
+        <v>163</v>
       </c>
       <c r="J115" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K115" s="8" t="s">
         <v>732</v>
@@ -7113,30 +7192,27 @@
         <v>1</v>
       </c>
       <c r="O115" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C116" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="H116" t="s">
-        <v>193</v>
-      </c>
-      <c r="I116">
-        <v>-1</v>
+        <v>167</v>
       </c>
       <c r="J116" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K116" s="8" t="s">
         <v>732</v>
@@ -7148,30 +7224,27 @@
         <v>1</v>
       </c>
       <c r="O116" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C117" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="H117" t="s">
-        <v>197</v>
-      </c>
-      <c r="I117">
-        <v>-1</v>
+        <v>170</v>
       </c>
       <c r="J117" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K117" s="8" t="s">
         <v>732</v>
@@ -7183,30 +7256,30 @@
         <v>1</v>
       </c>
       <c r="O117" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>546</v>
-      </c>
-      <c r="C118" t="s">
-        <v>202</v>
-      </c>
-      <c r="E118" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" t="s">
-        <v>203</v>
-      </c>
-      <c r="H118" t="s">
-        <v>201</v>
-      </c>
-      <c r="I118">
-        <v>-1</v>
-      </c>
-      <c r="J118" s="8">
-        <v>3</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E118" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I118" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J118" s="12">
+        <v>2</v>
       </c>
       <c r="K118" s="8" t="s">
         <v>732</v>
@@ -7214,34 +7287,34 @@
       <c r="L118" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M118" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O118" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>547</v>
-      </c>
-      <c r="C119" t="s">
-        <v>206</v>
-      </c>
-      <c r="E119" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" t="s">
-        <v>207</v>
-      </c>
-      <c r="H119" t="s">
-        <v>205</v>
-      </c>
-      <c r="I119">
-        <v>-1</v>
-      </c>
-      <c r="J119" s="8">
-        <v>3</v>
+      <c r="M118" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I119" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J119" s="12">
+        <v>2</v>
       </c>
       <c r="K119" s="8" t="s">
         <v>732</v>
@@ -7249,34 +7322,34 @@
       <c r="L119" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M119" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O119" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>548</v>
-      </c>
-      <c r="C120" t="s">
-        <v>210</v>
-      </c>
-      <c r="E120" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120" t="s">
-        <v>211</v>
-      </c>
-      <c r="H120" t="s">
-        <v>209</v>
-      </c>
-      <c r="I120">
-        <v>-1</v>
-      </c>
-      <c r="J120" s="8">
-        <v>3</v>
+      <c r="M119" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O119" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E120" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I120" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J120" s="12">
+        <v>2</v>
       </c>
       <c r="K120" s="8" t="s">
         <v>732</v>
@@ -7284,28 +7357,28 @@
       <c r="L120" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M120" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O120" t="s">
-        <v>212</v>
+      <c r="M120" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O120" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="H121" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="I121">
         <v>-1</v>
@@ -7323,24 +7396,24 @@
         <v>1</v>
       </c>
       <c r="O121" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="H122" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="I122">
         <v>-1</v>
@@ -7358,24 +7431,24 @@
         <v>1</v>
       </c>
       <c r="O122" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="H123" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="I123">
         <v>-1</v>
@@ -7393,24 +7466,24 @@
         <v>1</v>
       </c>
       <c r="O123" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C124" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="H124" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="I124">
         <v>-1</v>
@@ -7428,24 +7501,24 @@
         <v>1</v>
       </c>
       <c r="O124" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C125" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="H125" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="I125">
         <v>-1</v>
@@ -7463,24 +7536,24 @@
         <v>1</v>
       </c>
       <c r="O125" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="H126" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="I126">
         <v>-1</v>
@@ -7498,24 +7571,24 @@
         <v>1</v>
       </c>
       <c r="O126" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C127" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H127" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="I127">
         <v>-1</v>
@@ -7533,24 +7606,24 @@
         <v>1</v>
       </c>
       <c r="O127" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C128" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="H128" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="I128">
         <v>-1</v>
@@ -7568,24 +7641,24 @@
         <v>1</v>
       </c>
       <c r="O128" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C129" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="H129" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="I129">
         <v>-1</v>
@@ -7603,24 +7676,24 @@
         <v>1</v>
       </c>
       <c r="O129" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C130" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="H130" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="I130">
         <v>-1</v>
@@ -7638,24 +7711,24 @@
         <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C131" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="H131" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="I131">
         <v>-1</v>
@@ -7673,24 +7746,24 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C132" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="H132" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="I132">
         <v>-1</v>
@@ -7708,24 +7781,24 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C133" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="H133" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="I133">
         <v>-1</v>
@@ -7743,24 +7816,24 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="H134" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="I134">
         <v>-1</v>
@@ -7778,24 +7851,24 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C135" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="H135" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="I135">
         <v>-1</v>
@@ -7813,24 +7886,24 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C136" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="H136" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="I136">
         <v>-1</v>
@@ -7848,24 +7921,24 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>747</v>
+      <c r="B137" t="s">
+        <v>557</v>
+      </c>
+      <c r="C137" t="s">
+        <v>246</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
-      <c r="F137" s="14" t="s">
-        <v>748</v>
+      <c r="F137" t="s">
+        <v>247</v>
       </c>
       <c r="H137" t="s">
-        <v>751</v>
+        <v>245</v>
       </c>
       <c r="I137">
         <v>-1</v>
@@ -7883,24 +7956,24 @@
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>747</v>
+      <c r="B138" t="s">
+        <v>558</v>
+      </c>
+      <c r="C138" t="s">
+        <v>250</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
-      <c r="F138" s="14" t="s">
-        <v>749</v>
+      <c r="F138" t="s">
+        <v>251</v>
       </c>
       <c r="H138" t="s">
-        <v>752</v>
+        <v>249</v>
       </c>
       <c r="I138">
         <v>-1</v>
@@ -7918,24 +7991,24 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>747</v>
+      <c r="B139" t="s">
+        <v>559</v>
+      </c>
+      <c r="C139" t="s">
+        <v>254</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
-      <c r="F139" s="14" t="s">
-        <v>750</v>
+      <c r="F139" t="s">
+        <v>255</v>
       </c>
       <c r="H139" t="s">
-        <v>753</v>
+        <v>253</v>
       </c>
       <c r="I139">
         <v>-1</v>
@@ -7953,30 +8026,59 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
+      <c r="B140" t="s">
+        <v>560</v>
+      </c>
+      <c r="C140" t="s">
+        <v>258</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>259</v>
+      </c>
+      <c r="H140" t="s">
+        <v>257</v>
+      </c>
+      <c r="I140">
+        <v>-1</v>
+      </c>
+      <c r="J140" s="8">
+        <v>3</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L140" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M140" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C141" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="H141" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="I141">
         <v>-1</v>
@@ -7991,27 +8093,27 @@
         <v>1</v>
       </c>
       <c r="M141" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="H142" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="I142">
         <v>-1</v>
@@ -8026,27 +8128,27 @@
         <v>1</v>
       </c>
       <c r="M142" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>74</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C143" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="H143" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="I143">
         <v>-1</v>
@@ -8061,27 +8163,27 @@
         <v>1</v>
       </c>
       <c r="M143" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C144" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H144" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I144">
         <v>-1</v>
@@ -8096,27 +8198,27 @@
         <v>1</v>
       </c>
       <c r="M144" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O144" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>569</v>
-      </c>
-      <c r="C145" t="s">
-        <v>290</v>
+      <c r="B145" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>747</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
-      <c r="F145" t="s">
-        <v>291</v>
+      <c r="F145" s="14" t="s">
+        <v>748</v>
       </c>
       <c r="H145" t="s">
-        <v>289</v>
+        <v>751</v>
       </c>
       <c r="I145">
         <v>-1</v>
@@ -8131,27 +8233,27 @@
         <v>1</v>
       </c>
       <c r="M145" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>570</v>
-      </c>
-      <c r="C146" t="s">
-        <v>293</v>
+      <c r="B146" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>747</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
-      <c r="F146" t="s">
-        <v>294</v>
+      <c r="F146" s="14" t="s">
+        <v>749</v>
       </c>
       <c r="H146" t="s">
-        <v>292</v>
+        <v>752</v>
       </c>
       <c r="I146">
         <v>-1</v>
@@ -8166,27 +8268,27 @@
         <v>1</v>
       </c>
       <c r="M146" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>571</v>
-      </c>
-      <c r="C147" t="s">
-        <v>296</v>
+      <c r="B147" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>747</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
-      <c r="F147" t="s">
-        <v>297</v>
+      <c r="F147" s="14" t="s">
+        <v>750</v>
       </c>
       <c r="H147" t="s">
-        <v>295</v>
+        <v>753</v>
       </c>
       <c r="I147">
         <v>-1</v>
@@ -8201,30 +8303,24 @@
         <v>1</v>
       </c>
       <c r="M147" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>572</v>
-      </c>
-      <c r="C148" t="s">
-        <v>299</v>
+      <c r="B148" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>797</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
-      <c r="F148" t="s">
-        <v>300</v>
-      </c>
-      <c r="H148" t="s">
-        <v>298</v>
-      </c>
-      <c r="I148">
-        <v>-1</v>
+      <c r="F148" s="14" t="s">
+        <v>792</v>
       </c>
       <c r="J148" s="8">
         <v>3</v>
@@ -8236,30 +8332,24 @@
         <v>1</v>
       </c>
       <c r="M148" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>573</v>
-      </c>
-      <c r="C149" t="s">
-        <v>302</v>
+      <c r="B149" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>797</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
-      <c r="F149" t="s">
-        <v>303</v>
-      </c>
-      <c r="H149" t="s">
-        <v>301</v>
-      </c>
-      <c r="I149">
-        <v>-1</v>
+      <c r="F149" s="14" t="s">
+        <v>794</v>
       </c>
       <c r="J149" s="8">
         <v>3</v>
@@ -8271,30 +8361,24 @@
         <v>1</v>
       </c>
       <c r="M149" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>574</v>
-      </c>
-      <c r="C150" t="s">
-        <v>305</v>
+      <c r="B150" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>797</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
-      <c r="F150" t="s">
-        <v>306</v>
-      </c>
-      <c r="H150" t="s">
-        <v>304</v>
-      </c>
-      <c r="I150">
-        <v>-1</v>
+      <c r="F150" s="14" t="s">
+        <v>796</v>
       </c>
       <c r="J150" s="8">
         <v>3</v>
@@ -8306,62 +8390,33 @@
         <v>1</v>
       </c>
       <c r="M150" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>575</v>
-      </c>
-      <c r="C151" t="s">
-        <v>308</v>
-      </c>
-      <c r="E151" t="b">
-        <v>0</v>
-      </c>
-      <c r="F151" t="s">
-        <v>309</v>
-      </c>
-      <c r="H151" t="s">
-        <v>307</v>
-      </c>
-      <c r="I151">
-        <v>-1</v>
-      </c>
-      <c r="J151" s="8">
-        <v>3</v>
-      </c>
-      <c r="K151" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L151" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M151" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O151" t="s">
-        <v>74</v>
-      </c>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C152" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="H152" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="I152">
         <v>-1</v>
@@ -8384,19 +8439,19 @@
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C153" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="H153" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="I153">
         <v>-1</v>
@@ -8419,19 +8474,19 @@
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C154" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="H154" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="I154">
         <v>-1</v>
@@ -8454,19 +8509,19 @@
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C155" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="H155" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="I155">
         <v>-1</v>
@@ -8489,19 +8544,19 @@
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C156" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="H156" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="I156">
         <v>-1</v>
@@ -8524,19 +8579,19 @@
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C157" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="H157" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="I157">
         <v>-1</v>
@@ -8559,19 +8614,19 @@
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C158" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="H158" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="I158">
         <v>-1</v>
@@ -8594,19 +8649,19 @@
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C159" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="H159" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="I159">
         <v>-1</v>
@@ -8629,19 +8684,19 @@
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C160" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="H160" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="I160">
         <v>-1</v>
@@ -8664,19 +8719,19 @@
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C161" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="H161" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="I161">
         <v>-1</v>
@@ -8699,19 +8754,19 @@
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="C162" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="H162" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="I162">
         <v>-1</v>
@@ -8734,19 +8789,19 @@
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="C163" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="H163" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="I163">
         <v>-1</v>
@@ -8769,19 +8824,19 @@
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="C164" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="H164" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="I164">
         <v>-1</v>
@@ -8804,19 +8859,19 @@
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C165" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="H165" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="I165">
         <v>-1</v>
@@ -8839,19 +8894,19 @@
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="C166" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="H166" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="I166">
         <v>-1</v>
@@ -8874,19 +8929,19 @@
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C167" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="H167" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="I167">
         <v>-1</v>
@@ -8909,19 +8964,19 @@
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C168" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="H168" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="I168">
         <v>-1</v>
@@ -8944,19 +8999,19 @@
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C169" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="H169" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="I169">
         <v>-1</v>
@@ -8979,19 +9034,19 @@
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C170" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="H170" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="I170">
         <v>-1</v>
@@ -9014,19 +9069,19 @@
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="C171" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>596</v>
+        <v>336</v>
       </c>
       <c r="H171" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="I171">
         <v>-1</v>
@@ -9044,24 +9099,24 @@
         <v>0</v>
       </c>
       <c r="O171" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C172" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>598</v>
+        <v>339</v>
       </c>
       <c r="H172" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="I172">
         <v>-1</v>
@@ -9079,24 +9134,24 @@
         <v>0</v>
       </c>
       <c r="O172" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C173" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>600</v>
+        <v>342</v>
       </c>
       <c r="H173" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="I173">
         <v>-1</v>
@@ -9114,24 +9169,24 @@
         <v>0</v>
       </c>
       <c r="O173" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B174" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>757</v>
+      <c r="B174" t="s">
+        <v>587</v>
+      </c>
+      <c r="C174" t="s">
+        <v>344</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
-      <c r="F174" s="14" t="s">
-        <v>760</v>
+      <c r="F174" t="s">
+        <v>345</v>
       </c>
       <c r="H174" t="s">
-        <v>763</v>
+        <v>343</v>
       </c>
       <c r="I174">
         <v>-1</v>
@@ -9149,24 +9204,24 @@
         <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B175" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="C175" s="14" t="s">
-        <v>758</v>
+      <c r="B175" t="s">
+        <v>588</v>
+      </c>
+      <c r="C175" t="s">
+        <v>347</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
-      <c r="F175" s="14" t="s">
-        <v>761</v>
+      <c r="F175" t="s">
+        <v>348</v>
       </c>
       <c r="H175" t="s">
-        <v>764</v>
+        <v>346</v>
       </c>
       <c r="I175">
         <v>-1</v>
@@ -9184,24 +9239,24 @@
         <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B176" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>759</v>
+      <c r="B176" t="s">
+        <v>589</v>
+      </c>
+      <c r="C176" t="s">
+        <v>350</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
-      <c r="F176" s="14" t="s">
-        <v>762</v>
+      <c r="F176" t="s">
+        <v>351</v>
       </c>
       <c r="H176" t="s">
-        <v>765</v>
+        <v>349</v>
       </c>
       <c r="I176">
         <v>-1</v>
@@ -9219,36 +9274,65 @@
         <v>0</v>
       </c>
       <c r="O176" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
-      <c r="L177" s="8"/>
-      <c r="M177" s="8"/>
+      <c r="B177" t="s">
+        <v>590</v>
+      </c>
+      <c r="C177" t="s">
+        <v>353</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="s">
+        <v>354</v>
+      </c>
+      <c r="H177" t="s">
+        <v>352</v>
+      </c>
+      <c r="I177">
+        <v>-1</v>
+      </c>
+      <c r="J177" s="8">
+        <v>3</v>
+      </c>
+      <c r="K177" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L177" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M177" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C178" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>602</v>
+        <v>357</v>
       </c>
       <c r="H178" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="I178">
         <v>-1</v>
       </c>
       <c r="J178" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K178" s="8" t="s">
         <v>732</v>
@@ -9257,33 +9341,33 @@
         <v>1</v>
       </c>
       <c r="M178" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O178" s="14" t="s">
-        <v>375</v>
+        <v>0</v>
+      </c>
+      <c r="O178" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="C179" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>604</v>
+        <v>360</v>
       </c>
       <c r="H179" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="I179">
         <v>-1</v>
       </c>
       <c r="J179" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K179" s="8" t="s">
         <v>732</v>
@@ -9292,33 +9376,33 @@
         <v>1</v>
       </c>
       <c r="M179" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O179" s="14" t="s">
-        <v>375</v>
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C180" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>606</v>
+        <v>363</v>
       </c>
       <c r="H180" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="I180">
         <v>-1</v>
       </c>
       <c r="J180" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K180" s="8" t="s">
         <v>732</v>
@@ -9327,33 +9411,33 @@
         <v>1</v>
       </c>
       <c r="M180" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O180" s="14" t="s">
-        <v>184</v>
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C181" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>608</v>
+        <v>366</v>
       </c>
       <c r="H181" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="I181">
         <v>-1</v>
       </c>
       <c r="J181" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K181" s="8" t="s">
         <v>732</v>
@@ -9362,33 +9446,33 @@
         <v>1</v>
       </c>
       <c r="M181" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="C182" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="H182" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="I182">
         <v>-1</v>
       </c>
       <c r="J182" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K182" s="8" t="s">
         <v>732</v>
@@ -9397,7 +9481,7 @@
         <v>1</v>
       </c>
       <c r="M182" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O182" t="s">
         <v>176</v>
@@ -9405,25 +9489,25 @@
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C183" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="H183" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="I183">
         <v>-1</v>
       </c>
       <c r="J183" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K183" s="8" t="s">
         <v>732</v>
@@ -9432,7 +9516,7 @@
         <v>1</v>
       </c>
       <c r="M183" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O183" t="s">
         <v>176</v>
@@ -9440,25 +9524,25 @@
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C184" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="H184" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="I184">
         <v>-1</v>
       </c>
       <c r="J184" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K184" s="8" t="s">
         <v>732</v>
@@ -9467,33 +9551,33 @@
         <v>1</v>
       </c>
       <c r="M184" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O184" t="s">
-        <v>388</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
-        <v>615</v>
-      </c>
-      <c r="C185" t="s">
-        <v>390</v>
+      <c r="B185" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>757</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
-      <c r="F185" t="s">
-        <v>616</v>
+      <c r="F185" s="14" t="s">
+        <v>760</v>
       </c>
       <c r="H185" t="s">
-        <v>389</v>
+        <v>763</v>
       </c>
       <c r="I185">
         <v>-1</v>
       </c>
       <c r="J185" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K185" s="8" t="s">
         <v>732</v>
@@ -9502,33 +9586,33 @@
         <v>1</v>
       </c>
       <c r="M185" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O185" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
-        <v>617</v>
-      </c>
-      <c r="C186" t="s">
-        <v>392</v>
+      <c r="B186" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>758</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
-      <c r="F186" t="s">
-        <v>618</v>
+      <c r="F186" s="14" t="s">
+        <v>761</v>
       </c>
       <c r="H186" t="s">
-        <v>391</v>
+        <v>764</v>
       </c>
       <c r="I186">
         <v>-1</v>
       </c>
       <c r="J186" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K186" s="8" t="s">
         <v>732</v>
@@ -9537,33 +9621,33 @@
         <v>1</v>
       </c>
       <c r="M186" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O186" t="s">
-        <v>393</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B187" t="s">
-        <v>619</v>
-      </c>
-      <c r="C187" t="s">
-        <v>395</v>
+      <c r="B187" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>759</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
-      <c r="F187" t="s">
-        <v>620</v>
+      <c r="F187" s="14" t="s">
+        <v>762</v>
       </c>
       <c r="H187" t="s">
-        <v>394</v>
+        <v>765</v>
       </c>
       <c r="I187">
         <v>-1</v>
       </c>
       <c r="J187" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K187" s="8" t="s">
         <v>732</v>
@@ -9572,62 +9656,33 @@
         <v>1</v>
       </c>
       <c r="M187" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O187" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>621</v>
-      </c>
-      <c r="C188" t="s">
-        <v>397</v>
-      </c>
-      <c r="E188" t="b">
-        <v>0</v>
-      </c>
-      <c r="F188" t="s">
-        <v>622</v>
-      </c>
-      <c r="H188" t="s">
-        <v>396</v>
-      </c>
-      <c r="I188">
-        <v>-1</v>
-      </c>
-      <c r="J188" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K188" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L188" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M188" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O188" t="s">
-        <v>176</v>
-      </c>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="C189" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="H189" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="I189">
         <v>-1</v>
@@ -9644,25 +9699,25 @@
       <c r="M189" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O189" t="s">
-        <v>176</v>
+      <c r="O189" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="C190" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="H190" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="I190">
         <v>-1</v>
@@ -9679,25 +9734,25 @@
       <c r="M190" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O190" t="s">
-        <v>176</v>
+      <c r="O190" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="C191" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="H191" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="I191">
         <v>-1</v>
@@ -9714,25 +9769,25 @@
       <c r="M191" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O191" t="s">
-        <v>176</v>
+      <c r="O191" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="C192" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="H192" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="I192">
         <v>-1</v>
@@ -9755,19 +9810,19 @@
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>631</v>
-      </c>
-      <c r="C193" s="14" t="s">
-        <v>407</v>
+        <v>609</v>
+      </c>
+      <c r="C193" t="s">
+        <v>383</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="H193" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I193">
         <v>-1</v>
@@ -9790,19 +9845,19 @@
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>633</v>
-      </c>
-      <c r="C194" s="14" t="s">
-        <v>409</v>
+        <v>611</v>
+      </c>
+      <c r="C194" t="s">
+        <v>385</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="H194" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="I194">
         <v>-1</v>
@@ -9825,19 +9880,19 @@
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>635</v>
-      </c>
-      <c r="C195" s="14" t="s">
-        <v>411</v>
+        <v>613</v>
+      </c>
+      <c r="C195" t="s">
+        <v>387</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="H195" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="I195">
         <v>-1</v>
@@ -9855,24 +9910,24 @@
         <v>1</v>
       </c>
       <c r="O195" t="s">
-        <v>176</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="C196" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="H196" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="I196">
         <v>-1</v>
@@ -9890,24 +9945,24 @@
         <v>1</v>
       </c>
       <c r="O196" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="C197" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="H197" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="I197">
         <v>-1</v>
@@ -9925,24 +9980,24 @@
         <v>1</v>
       </c>
       <c r="O197" t="s">
-        <v>176</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="C198" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="H198" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I198">
         <v>-1</v>
@@ -9965,19 +10020,19 @@
     </row>
     <row r="199" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="C199" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="H199" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="I199">
         <v>-1</v>
@@ -10000,19 +10055,19 @@
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="C200" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="H200" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="I200">
         <v>-1</v>
@@ -10035,19 +10090,19 @@
     </row>
     <row r="201" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="C201" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="H201" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="I201">
         <v>-1</v>
@@ -10070,19 +10125,19 @@
     </row>
     <row r="202" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="C202" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="E202" t="b">
         <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="H202" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="I202">
         <v>-1</v>
@@ -10099,25 +10154,25 @@
       <c r="M202" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O202" s="14" t="s">
-        <v>426</v>
+      <c r="O202" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="203" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="C203" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="E203" t="b">
         <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="H203" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="I203">
         <v>-1</v>
@@ -10134,25 +10189,25 @@
       <c r="M203" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O203" s="14" t="s">
-        <v>426</v>
+      <c r="O203" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>653</v>
-      </c>
-      <c r="C204" t="s">
-        <v>430</v>
+        <v>631</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>407</v>
       </c>
       <c r="E204" t="b">
         <v>0</v>
       </c>
       <c r="F204" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="H204" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="I204">
         <v>-1</v>
@@ -10169,25 +10224,25 @@
       <c r="M204" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O204" s="14" t="s">
-        <v>426</v>
+      <c r="O204" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="E205" t="b">
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="H205" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="I205">
         <v>-1</v>
@@ -10204,25 +10259,25 @@
       <c r="M205" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O205" s="14" t="s">
-        <v>426</v>
+      <c r="O205" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="E206" t="b">
         <v>0</v>
       </c>
       <c r="F206" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="H206" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="I206">
         <v>-1</v>
@@ -10239,25 +10294,25 @@
       <c r="M206" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O206" s="14" t="s">
-        <v>426</v>
+      <c r="O206" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="207" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>659</v>
-      </c>
-      <c r="C207" s="14" t="s">
-        <v>460</v>
+        <v>637</v>
+      </c>
+      <c r="C207" t="s">
+        <v>413</v>
       </c>
       <c r="E207" t="b">
         <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="H207" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="I207">
         <v>-1</v>
@@ -10274,25 +10329,25 @@
       <c r="M207" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O207" s="14" t="s">
-        <v>426</v>
+      <c r="O207" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="208" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B208" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="C208" s="14" t="s">
-        <v>767</v>
+      <c r="B208" t="s">
+        <v>639</v>
+      </c>
+      <c r="C208" t="s">
+        <v>415</v>
       </c>
       <c r="E208" t="b">
         <v>0</v>
       </c>
-      <c r="F208" s="14" t="s">
-        <v>768</v>
+      <c r="F208" t="s">
+        <v>640</v>
       </c>
       <c r="H208" t="s">
-        <v>769</v>
+        <v>414</v>
       </c>
       <c r="I208">
         <v>-1</v>
@@ -10309,173 +10364,654 @@
       <c r="M208" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O208" s="14" t="s">
-        <v>426</v>
+      <c r="O208" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>641</v>
+      </c>
+      <c r="C209" t="s">
+        <v>417</v>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>642</v>
+      </c>
+      <c r="H209" t="s">
+        <v>416</v>
+      </c>
+      <c r="I209">
+        <v>-1</v>
+      </c>
+      <c r="J209" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L209" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M209" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B210" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="C210" s="14" t="s">
-        <v>734</v>
+      <c r="B210" t="s">
+        <v>643</v>
+      </c>
+      <c r="C210" t="s">
+        <v>419</v>
       </c>
       <c r="E210" t="b">
         <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>724</v>
+        <v>644</v>
+      </c>
+      <c r="H210" t="s">
+        <v>418</v>
       </c>
       <c r="I210">
         <v>-1</v>
       </c>
       <c r="J210" s="8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K210" s="8" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="L210" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O210" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="211" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B211" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="C211" s="14" t="s">
-        <v>735</v>
+      <c r="B211" t="s">
+        <v>645</v>
+      </c>
+      <c r="C211" t="s">
+        <v>421</v>
       </c>
       <c r="E211" t="b">
         <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>724</v>
-      </c>
-      <c r="H211" s="8"/>
+        <v>646</v>
+      </c>
+      <c r="H211" t="s">
+        <v>420</v>
+      </c>
       <c r="I211">
         <v>-1</v>
       </c>
       <c r="J211" s="8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="L211" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O211" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="212" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B212" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="C212" s="14" t="s">
-        <v>736</v>
+      <c r="B212" t="s">
+        <v>647</v>
+      </c>
+      <c r="C212" t="s">
+        <v>423</v>
       </c>
       <c r="E212" t="b">
         <v>0</v>
       </c>
-      <c r="F212" s="14" t="s">
-        <v>728</v>
+      <c r="F212" t="s">
+        <v>648</v>
+      </c>
+      <c r="H212" t="s">
+        <v>422</v>
       </c>
       <c r="I212">
         <v>-1</v>
       </c>
       <c r="J212" s="8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="L212" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M212" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O212" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="213" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B213" s="14" t="s">
+      <c r="B213" t="s">
+        <v>649</v>
+      </c>
+      <c r="C213" t="s">
+        <v>425</v>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>650</v>
+      </c>
+      <c r="H213" t="s">
+        <v>424</v>
+      </c>
+      <c r="I213">
+        <v>-1</v>
+      </c>
+      <c r="J213" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K213" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L213" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M213" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O213" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>651</v>
+      </c>
+      <c r="C214" t="s">
+        <v>428</v>
+      </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
+      <c r="F214" t="s">
+        <v>652</v>
+      </c>
+      <c r="H214" t="s">
+        <v>427</v>
+      </c>
+      <c r="I214">
+        <v>-1</v>
+      </c>
+      <c r="J214" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K214" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L214" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M214" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O214" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>653</v>
+      </c>
+      <c r="C215" t="s">
+        <v>430</v>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+      <c r="F215" t="s">
+        <v>654</v>
+      </c>
+      <c r="H215" t="s">
+        <v>429</v>
+      </c>
+      <c r="I215">
+        <v>-1</v>
+      </c>
+      <c r="J215" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K215" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L215" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M215" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O215" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>655</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
+      <c r="F216" t="s">
+        <v>656</v>
+      </c>
+      <c r="H216" t="s">
+        <v>431</v>
+      </c>
+      <c r="I216">
+        <v>-1</v>
+      </c>
+      <c r="J216" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K216" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L216" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M216" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O216" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="217" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>657</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+      <c r="F217" t="s">
+        <v>658</v>
+      </c>
+      <c r="H217" t="s">
+        <v>432</v>
+      </c>
+      <c r="I217">
+        <v>-1</v>
+      </c>
+      <c r="J217" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K217" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L217" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M217" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O217" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="218" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>659</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
+      <c r="F218" t="s">
+        <v>660</v>
+      </c>
+      <c r="H218" t="s">
+        <v>433</v>
+      </c>
+      <c r="I218">
+        <v>-1</v>
+      </c>
+      <c r="J218" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K218" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L218" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M218" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O218" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B219" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="H219" t="s">
+        <v>769</v>
+      </c>
+      <c r="I219">
+        <v>-1</v>
+      </c>
+      <c r="J219" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K219" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L219" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M219" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O219" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="221" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B221" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+      <c r="F221" t="s">
+        <v>724</v>
+      </c>
+      <c r="I221">
+        <v>-1</v>
+      </c>
+      <c r="J221" s="8">
+        <v>1</v>
+      </c>
+      <c r="K221" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="L221" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M221" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O221" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B222" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
+      <c r="F222" t="s">
+        <v>724</v>
+      </c>
+      <c r="H222" s="8"/>
+      <c r="I222">
+        <v>-1</v>
+      </c>
+      <c r="J222" s="8">
+        <v>1</v>
+      </c>
+      <c r="K222" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="L222" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M222" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O222" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="223" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B223" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="I223">
+        <v>-1</v>
+      </c>
+      <c r="J223" s="8">
+        <v>1</v>
+      </c>
+      <c r="K223" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="L223" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M223" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O223" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="224" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B224" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="C213" s="14" t="s">
+      <c r="C224" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="E213" t="b">
-        <v>0</v>
-      </c>
-      <c r="F213" s="14" t="s">
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
+      <c r="F224" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="I213">
-        <v>-1</v>
-      </c>
-      <c r="J213" s="8">
-        <v>1</v>
-      </c>
-      <c r="K213" s="8" t="s">
+      <c r="I224">
+        <v>-1</v>
+      </c>
+      <c r="J224" s="8">
+        <v>1</v>
+      </c>
+      <c r="K224" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="L213" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M213" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O213" t="s">
+      <c r="L224" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M224" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O224" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B215" s="14" t="s">
+    <row r="226" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B226" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="C215" s="14" t="s">
+      <c r="C226" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="E215" t="b">
-        <v>0</v>
-      </c>
-      <c r="F215" s="14" t="s">
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
+      <c r="F226" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="I215">
-        <v>-1</v>
-      </c>
-      <c r="J215" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K215" s="8" t="s">
+      <c r="I226">
+        <v>-1</v>
+      </c>
+      <c r="J226" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K226" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="L215" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M215" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O215" t="s">
+      <c r="L226" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M226" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O226" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="H216" s="8"/>
+    <row r="227" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H227" s="8"/>
+    </row>
+    <row r="228" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B228" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
+      <c r="F228" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="J228" s="8">
+        <v>3</v>
+      </c>
+      <c r="K228" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L228" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M228" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O228" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="229" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B229" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="E229" t="b">
+        <v>0</v>
+      </c>
+      <c r="F229" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="J229" s="8">
+        <v>3</v>
+      </c>
+      <c r="K229" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L229" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M229" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O229" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="230" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B230" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="E230" t="b">
+        <v>0</v>
+      </c>
+      <c r="F230" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="J230" s="8">
+        <v>3</v>
+      </c>
+      <c r="K230" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L230" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M230" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O230" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10483,50 +11019,56 @@
     <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B43">
+  <conditionalFormatting sqref="B48">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B51">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B52">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  <conditionalFormatting sqref="B54:B59 B61:B72">
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B54 B56:B67">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F50">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F51">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F52">
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F53">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="F54:F56">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="F58:F59 F61:F72">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49:F51">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B228:B230">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53:F54 F56:F67">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="F228:F230">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_EffectCreate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F9FD0-251A-48B2-A992-C36DA50129CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DE9D28-3626-4499-AE1D-DC3095E18A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="829">
   <si>
     <t>##var</t>
   </si>
@@ -2974,6 +2974,82 @@
   </si>
   <si>
     <t>ResEffect_Monster_WeakenSmall</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_BaseDie</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营死亡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BaseDie</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_BaseDie</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_ZhongZi1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Dan2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Dan3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-种子1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-种子2</t>
+  </si>
+  <si>
+    <t>怪物技能-种子3</t>
+  </si>
+  <si>
+    <t>怪物技能-蛋2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-蛋3</t>
+  </si>
+  <si>
+    <t>友军恢复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_ZhongZi1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Dan2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3156,7 +3232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -3207,6 +3283,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3656,11 +3735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA230"/>
+  <dimension ref="A1:AA237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <pane ySplit="5" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F233" sqref="F233:F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4028,7 +4107,7 @@
         <v>807</v>
       </c>
       <c r="J9" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>732</v>
@@ -5339,28 +5418,36 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="D58" t="s">
-        <v>434</v>
+        <v>808</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>809</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
-      <c r="F58" s="16" t="s">
-        <v>435</v>
+      <c r="F58" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>811</v>
       </c>
       <c r="J58" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L58" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="8" t="b">
         <v>1</v>
@@ -5371,16 +5458,16 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>711</v>
+        <v>486</v>
       </c>
       <c r="D59" t="s">
-        <v>710</v>
+        <v>434</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>712</v>
+        <v>435</v>
       </c>
       <c r="J59" s="8">
         <v>2</v>
@@ -5389,7 +5476,7 @@
         <v>732</v>
       </c>
       <c r="L59" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="8" t="b">
         <v>1</v>
@@ -5399,26 +5486,20 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="14" t="s">
-        <v>713</v>
+      <c r="B60" s="16" t="s">
+        <v>711</v>
       </c>
       <c r="D60" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="s">
-        <v>715</v>
-      </c>
-      <c r="H60" t="s">
-        <v>716</v>
-      </c>
-      <c r="I60">
-        <v>-1</v>
+      <c r="F60" s="16" t="s">
+        <v>712</v>
       </c>
       <c r="J60" s="8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>732</v>
@@ -5434,60 +5515,63 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
+      <c r="B61" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D61" t="s">
+        <v>714</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>715</v>
+      </c>
+      <c r="H61" t="s">
+        <v>716</v>
+      </c>
+      <c r="I61">
+        <v>-1</v>
+      </c>
+      <c r="J61" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L61" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C62" t="s">
-        <v>434</v>
-      </c>
-      <c r="E62" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="J62" s="8">
-        <v>2</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L62" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" s="8" t="b">
-        <v>1</v>
-      </c>
+      <c r="B62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>434</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" t="s">
-        <v>42</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
+        <v>436</v>
       </c>
       <c r="J63" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>732</v>
@@ -5501,19 +5585,19 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -5533,22 +5617,19 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -5568,25 +5649,34 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="G66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
       </c>
       <c r="J66" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L66" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="8" t="b">
         <v>1</v>
@@ -5594,22 +5684,19 @@
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G67" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J67" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>732</v>
@@ -5619,14 +5706,11 @@
       </c>
       <c r="M67" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O67" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C68" t="s">
         <v>51</v>
@@ -5635,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
         <v>48</v>
@@ -5658,7 +5742,7 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C69" t="s">
         <v>51</v>
@@ -5667,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G69" t="s">
         <v>48</v>
@@ -5690,16 +5774,16 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s">
         <v>48</v>
@@ -5717,27 +5801,27 @@
         <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C71" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G71" t="s">
         <v>48</v>
       </c>
       <c r="J71" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>732</v>
@@ -5749,77 +5833,76 @@
         <v>1</v>
       </c>
       <c r="O71" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="8">
+        <v>3</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L72" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>62</v>
       </c>
-      <c r="E72" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="16" t="s">
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>64</v>
       </c>
-      <c r="J72" s="8">
-        <v>3</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L72" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M72" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>498</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" t="s">
-        <v>66</v>
-      </c>
-      <c r="E73" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" s="8"/>
       <c r="J73" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L73" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O73" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
         <v>66</v>
@@ -5828,11 +5911,9 @@
         <v>0</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G74" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G74" s="8"/>
       <c r="J74" s="8">
         <v>1</v>
       </c>
@@ -5851,10 +5932,10 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
         <v>66</v>
@@ -5863,64 +5944,66 @@
         <v>0</v>
       </c>
       <c r="F75" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="J75" s="8">
+        <v>1</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L75" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>500</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="J75" s="8">
-        <v>1</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L75" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M75" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="G76" s="8"/>
+      <c r="J76" s="8">
+        <v>1</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L76" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="J76" s="9">
-        <v>1</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L76" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M76" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="77" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>76</v>
@@ -5929,11 +6012,9 @@
         <v>0</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s">
-        <v>81</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G77" s="8"/>
       <c r="J77" s="9">
         <v>1</v>
       </c>
@@ -5952,10 +6033,10 @@
     </row>
     <row r="78" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>76</v>
@@ -5964,90 +6045,87 @@
         <v>0</v>
       </c>
       <c r="F78" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s">
+        <v>81</v>
+      </c>
+      <c r="J78" s="9">
+        <v>1</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L78" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="J78" s="9">
-        <v>1</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L78" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O78" s="3" t="s">
+      <c r="G79" s="8"/>
+      <c r="J79" s="9">
+        <v>1</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L79" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>504</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H79" t="s">
-        <v>86</v>
-      </c>
-      <c r="I79">
-        <v>10</v>
-      </c>
-      <c r="J79" s="8">
-        <v>1</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L79" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M79" s="8" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>85</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s">
-        <v>89</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I80" s="8">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" t="s">
+        <v>86</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
       </c>
       <c r="J80" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>732</v>
@@ -6057,14 +6135,11 @@
       </c>
       <c r="M80" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O80" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>87</v>
@@ -6100,12 +6175,12 @@
         <v>1</v>
       </c>
       <c r="O81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>87</v>
@@ -6117,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s">
         <v>89</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I82" s="8">
         <v>1</v>
@@ -6141,89 +6216,92 @@
         <v>1</v>
       </c>
       <c r="O82" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>719</v>
+      <c r="B83" t="s">
+        <v>507</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>718</v>
+        <v>87</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>720</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s">
         <v>89</v>
       </c>
-      <c r="H83" s="8"/>
+      <c r="H83" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="I83" s="8">
         <v>1</v>
       </c>
       <c r="J83" s="8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>732</v>
       </c>
       <c r="L83" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="8" t="b">
         <v>1</v>
       </c>
       <c r="O83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8">
+        <v>1</v>
+      </c>
+      <c r="J84" s="8">
+        <v>3</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L84" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>508</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E84" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I84" s="8">
-        <v>1</v>
-      </c>
-      <c r="J84" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L84" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84" s="8" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>95</v>
@@ -6261,7 +6339,7 @@
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>95</v>
@@ -6273,48 +6351,57 @@
         <v>0</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G86" t="s">
         <v>97</v>
       </c>
       <c r="H86" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I86" s="8">
+        <v>1</v>
+      </c>
+      <c r="J86" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L86" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>510</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H87" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I86" s="8">
-        <v>1</v>
-      </c>
-      <c r="J86" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K86" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L86" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M86" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E87" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" t="s">
-        <v>71</v>
-      </c>
-      <c r="J87" s="10">
-        <v>3</v>
+      <c r="I87" s="8">
+        <v>1</v>
+      </c>
+      <c r="J87" s="8">
+        <v>-1</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>732</v>
@@ -6324,23 +6411,20 @@
       </c>
       <c r="M87" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="88" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G88" t="s">
         <v>71</v>
@@ -6358,21 +6442,21 @@
         <v>1</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
         <v>71</v>
@@ -6390,50 +6474,53 @@
         <v>1</v>
       </c>
       <c r="O89" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="J90" s="10">
+        <v>3</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L90" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90" s="4" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>514</v>
-      </c>
-      <c r="C90" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>110</v>
-      </c>
-      <c r="J90" s="8">
-        <v>3</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L90" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M90" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O90" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J91" s="8">
         <v>3</v>
@@ -6453,16 +6540,16 @@
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J92" s="8">
         <v>3</v>
@@ -6482,16 +6569,16 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>721</v>
+        <v>516</v>
       </c>
       <c r="C93" t="s">
-        <v>722</v>
+        <v>113</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>723</v>
+        <v>114</v>
       </c>
       <c r="J93" s="8">
         <v>3</v>
@@ -6509,23 +6596,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>115</v>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>721</v>
+      </c>
+      <c r="C94" t="s">
+        <v>722</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" t="s">
-        <v>81</v>
-      </c>
-      <c r="J94" s="10">
+      <c r="F94" t="s">
+        <v>723</v>
+      </c>
+      <c r="J94" s="8">
         <v>3</v>
       </c>
       <c r="K94" s="8" t="s">
@@ -6535,24 +6619,24 @@
         <v>1</v>
       </c>
       <c r="M94" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>117</v>
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G95" t="s">
         <v>81</v>
@@ -6570,21 +6654,21 @@
         <v>1</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G96" t="s">
         <v>81</v>
@@ -6602,50 +6686,53 @@
         <v>1</v>
       </c>
       <c r="O96" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
+      <c r="J97" s="10">
+        <v>3</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L97" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>520</v>
-      </c>
-      <c r="C97" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" t="s">
-        <v>125</v>
-      </c>
-      <c r="J97" s="8">
-        <v>3</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L97" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M97" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O97" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J98" s="8">
         <v>3</v>
@@ -6665,16 +6752,16 @@
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C99" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J99" s="8">
         <v>3</v>
@@ -6694,16 +6781,16 @@
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J100" s="8">
         <v>3</v>
@@ -6723,16 +6810,16 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J101" s="8">
         <v>3</v>
@@ -6752,16 +6839,16 @@
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J102" s="8">
         <v>3</v>
@@ -6781,16 +6868,16 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C103" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J103" s="8">
         <v>3</v>
@@ -6810,16 +6897,16 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J104" s="8">
         <v>3</v>
@@ -6839,16 +6926,16 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J105" s="8">
         <v>3</v>
@@ -6868,22 +6955,16 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C106" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>144</v>
-      </c>
-      <c r="H106" t="s">
-        <v>142</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="J106" s="8">
         <v>3</v>
@@ -6895,27 +6976,27 @@
         <v>1</v>
       </c>
       <c r="M106" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H107" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -6932,25 +7013,25 @@
       <c r="M107" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O107" s="11" t="s">
-        <v>149</v>
+      <c r="O107" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C108" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H108" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -6967,28 +7048,28 @@
       <c r="M108" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O108" t="s">
-        <v>153</v>
+      <c r="O108" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H109" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J109" s="8">
         <v>3</v>
@@ -7000,27 +7081,27 @@
         <v>1</v>
       </c>
       <c r="M109" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H110" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I110">
         <v>-1</v>
@@ -7043,19 +7124,19 @@
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C111" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H111" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I111">
         <v>-1</v>
@@ -7078,16 +7159,22 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>785</v>
+        <v>534</v>
       </c>
       <c r="C112" t="s">
-        <v>782</v>
+        <v>161</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>786</v>
+        <v>162</v>
+      </c>
+      <c r="H112" t="s">
+        <v>160</v>
+      </c>
+      <c r="I112">
+        <v>-1</v>
       </c>
       <c r="J112" s="8">
         <v>3</v>
@@ -7107,16 +7194,16 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C113" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J113" s="8">
         <v>3</v>
@@ -7136,16 +7223,16 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C114" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J114" s="8">
         <v>3</v>
@@ -7165,22 +7252,19 @@
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>535</v>
+        <v>789</v>
       </c>
       <c r="C115" t="s">
-        <v>164</v>
+        <v>784</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>165</v>
-      </c>
-      <c r="H115" t="s">
-        <v>163</v>
+        <v>790</v>
       </c>
       <c r="J115" s="8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K115" s="8" t="s">
         <v>732</v>
@@ -7189,27 +7273,27 @@
         <v>1</v>
       </c>
       <c r="M115" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H116" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J116" s="8">
         <v>-1</v>
@@ -7229,19 +7313,19 @@
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C117" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H117" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J117" s="8">
         <v>-1</v>
@@ -7259,27 +7343,24 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E118" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I118" s="5">
-        <v>-1</v>
-      </c>
-      <c r="J118" s="12">
-        <v>2</v>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>537</v>
+      </c>
+      <c r="C118" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>172</v>
+      </c>
+      <c r="H118" t="s">
+        <v>170</v>
+      </c>
+      <c r="J118" s="8">
+        <v>-1</v>
       </c>
       <c r="K118" s="8" t="s">
         <v>732</v>
@@ -7287,19 +7368,19 @@
       <c r="L118" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M118" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O118" s="13" t="s">
-        <v>176</v>
+      <c r="M118" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E119" s="5" t="b">
         <v>0</v>
@@ -7308,7 +7389,7 @@
         <v>175</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I119" s="5">
         <v>-1</v>
@@ -7331,10 +7412,10 @@
     </row>
     <row r="120" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E120" s="5" t="b">
         <v>0</v>
@@ -7343,7 +7424,7 @@
         <v>175</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I120" s="5">
         <v>-1</v>
@@ -7364,27 +7445,27 @@
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>541</v>
-      </c>
-      <c r="C121" t="s">
-        <v>182</v>
-      </c>
-      <c r="E121" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" t="s">
-        <v>183</v>
-      </c>
-      <c r="H121" t="s">
-        <v>181</v>
-      </c>
-      <c r="I121">
-        <v>-1</v>
-      </c>
-      <c r="J121" s="8">
-        <v>3</v>
+    <row r="121" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I121" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J121" s="12">
+        <v>2</v>
       </c>
       <c r="K121" s="8" t="s">
         <v>732</v>
@@ -7392,28 +7473,28 @@
       <c r="L121" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M121" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O121" t="s">
-        <v>184</v>
+      <c r="M121" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O121" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C122" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H122" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I122">
         <v>-1</v>
@@ -7431,24 +7512,24 @@
         <v>1</v>
       </c>
       <c r="O122" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H123" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I123">
         <v>-1</v>
@@ -7466,24 +7547,24 @@
         <v>1</v>
       </c>
       <c r="O123" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H124" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I124">
         <v>-1</v>
@@ -7501,24 +7582,24 @@
         <v>1</v>
       </c>
       <c r="O124" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C125" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H125" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I125">
         <v>-1</v>
@@ -7536,24 +7617,24 @@
         <v>1</v>
       </c>
       <c r="O125" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H126" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I126">
         <v>-1</v>
@@ -7571,24 +7652,24 @@
         <v>1</v>
       </c>
       <c r="O126" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C127" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H127" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I127">
         <v>-1</v>
@@ -7606,24 +7687,24 @@
         <v>1</v>
       </c>
       <c r="O127" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C128" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H128" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I128">
         <v>-1</v>
@@ -7641,24 +7722,24 @@
         <v>1</v>
       </c>
       <c r="O128" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C129" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H129" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I129">
         <v>-1</v>
@@ -7676,24 +7757,24 @@
         <v>1</v>
       </c>
       <c r="O129" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C130" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H130" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I130">
         <v>-1</v>
@@ -7711,24 +7792,24 @@
         <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C131" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H131" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I131">
         <v>-1</v>
@@ -7746,24 +7827,24 @@
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C132" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H132" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I132">
         <v>-1</v>
@@ -7781,24 +7862,24 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H133" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I133">
         <v>-1</v>
@@ -7816,24 +7897,24 @@
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C134" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H134" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I134">
         <v>-1</v>
@@ -7851,24 +7932,24 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C135" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H135" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I135">
         <v>-1</v>
@@ -7886,24 +7967,24 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C136" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H136" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I136">
         <v>-1</v>
@@ -7921,24 +8002,24 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C137" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H137" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I137">
         <v>-1</v>
@@ -7956,24 +8037,24 @@
         <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C138" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H138" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I138">
         <v>-1</v>
@@ -7991,24 +8072,24 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C139" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H139" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I139">
         <v>-1</v>
@@ -8026,24 +8107,24 @@
         <v>1</v>
       </c>
       <c r="O139" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C140" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H140" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I140">
         <v>-1</v>
@@ -8061,24 +8142,24 @@
         <v>1</v>
       </c>
       <c r="O140" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C141" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H141" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I141">
         <v>-1</v>
@@ -8096,24 +8177,24 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C142" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H142" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I142">
         <v>-1</v>
@@ -8131,24 +8212,24 @@
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C143" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H143" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I143">
         <v>-1</v>
@@ -8166,82 +8247,82 @@
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
+        <v>563</v>
+      </c>
+      <c r="C144" t="s">
+        <v>270</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>271</v>
+      </c>
+      <c r="H144" t="s">
+        <v>269</v>
+      </c>
+      <c r="I144">
+        <v>-1</v>
+      </c>
+      <c r="J144" s="8">
+        <v>3</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L144" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M144" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
         <v>564</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>274</v>
       </c>
-      <c r="E144" t="b">
-        <v>0</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
         <v>275</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H145" t="s">
         <v>273</v>
       </c>
-      <c r="I144">
-        <v>-1</v>
-      </c>
-      <c r="J144" s="8">
-        <v>3</v>
-      </c>
-      <c r="K144" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L144" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M144" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O144" t="s">
+      <c r="I145">
+        <v>-1</v>
+      </c>
+      <c r="J145" s="8">
+        <v>3</v>
+      </c>
+      <c r="K145" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L145" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M145" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B145" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>747</v>
-      </c>
-      <c r="E145" t="b">
-        <v>0</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="H145" t="s">
-        <v>751</v>
-      </c>
-      <c r="I145">
-        <v>-1</v>
-      </c>
-      <c r="J145" s="8">
-        <v>3</v>
-      </c>
-      <c r="K145" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L145" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M145" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O145" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B146" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C146" s="14" t="s">
         <v>747</v>
@@ -8250,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H146" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I146">
         <v>-1</v>
@@ -8276,7 +8357,7 @@
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B147" s="17" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>747</v>
@@ -8285,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H147" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I147">
         <v>-1</v>
@@ -8311,16 +8392,22 @@
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B148" s="17" t="s">
-        <v>791</v>
+        <v>746</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>797</v>
+        <v>747</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>792</v>
+        <v>750</v>
+      </c>
+      <c r="H148" t="s">
+        <v>753</v>
+      </c>
+      <c r="I148">
+        <v>-1</v>
       </c>
       <c r="J148" s="8">
         <v>3</v>
@@ -8340,7 +8427,7 @@
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B149" s="17" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>797</v>
@@ -8349,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="J149" s="8">
         <v>3</v>
@@ -8369,7 +8456,7 @@
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B150" s="17" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>797</v>
@@ -8378,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J150" s="8">
         <v>3</v>
@@ -8397,61 +8484,55 @@
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
+      <c r="B151" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="J151" s="8">
+        <v>3</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L151" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M151" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>565</v>
-      </c>
-      <c r="C152" t="s">
-        <v>278</v>
-      </c>
-      <c r="E152" t="b">
-        <v>0</v>
-      </c>
-      <c r="F152" t="s">
-        <v>279</v>
-      </c>
-      <c r="H152" t="s">
-        <v>277</v>
-      </c>
-      <c r="I152">
-        <v>-1</v>
-      </c>
-      <c r="J152" s="8">
-        <v>3</v>
-      </c>
-      <c r="K152" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L152" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M152" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O152" t="s">
-        <v>74</v>
-      </c>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C153" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H153" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I153">
         <v>-1</v>
@@ -8474,19 +8555,19 @@
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C154" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H154" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I154">
         <v>-1</v>
@@ -8509,19 +8590,19 @@
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C155" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H155" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I155">
         <v>-1</v>
@@ -8544,19 +8625,19 @@
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C156" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H156" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I156">
         <v>-1</v>
@@ -8579,19 +8660,19 @@
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C157" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H157" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I157">
         <v>-1</v>
@@ -8614,19 +8695,19 @@
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C158" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H158" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I158">
         <v>-1</v>
@@ -8649,19 +8730,19 @@
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C159" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H159" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I159">
         <v>-1</v>
@@ -8684,19 +8765,19 @@
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H160" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I160">
         <v>-1</v>
@@ -8719,19 +8800,19 @@
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H161" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I161">
         <v>-1</v>
@@ -8754,19 +8835,19 @@
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I162">
         <v>-1</v>
@@ -8789,19 +8870,19 @@
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I163">
         <v>-1</v>
@@ -8824,19 +8905,19 @@
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I164">
         <v>-1</v>
@@ -8859,19 +8940,19 @@
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I165">
         <v>-1</v>
@@ -8894,19 +8975,19 @@
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I166">
         <v>-1</v>
@@ -8929,19 +9010,19 @@
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I167">
         <v>-1</v>
@@ -8964,19 +9045,19 @@
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I168">
         <v>-1</v>
@@ -8999,19 +9080,19 @@
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C169" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I169">
         <v>-1</v>
@@ -9034,19 +9115,19 @@
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C170" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I170">
         <v>-1</v>
@@ -9069,19 +9150,19 @@
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C171" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H171" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I171">
         <v>-1</v>
@@ -9104,19 +9185,19 @@
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I172">
         <v>-1</v>
@@ -9139,19 +9220,19 @@
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H173" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I173">
         <v>-1</v>
@@ -9174,19 +9255,19 @@
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I174">
         <v>-1</v>
@@ -9209,19 +9290,19 @@
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C175" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I175">
         <v>-1</v>
@@ -9244,19 +9325,19 @@
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C176" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H176" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I176">
         <v>-1</v>
@@ -9279,19 +9360,19 @@
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C177" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H177" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I177">
         <v>-1</v>
@@ -9314,19 +9395,19 @@
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C178" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H178" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I178">
         <v>-1</v>
@@ -9349,19 +9430,19 @@
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C179" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H179" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I179">
         <v>-1</v>
@@ -9384,19 +9465,19 @@
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C180" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H180" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I180">
         <v>-1</v>
@@ -9419,19 +9500,19 @@
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C181" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H181" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I181">
         <v>-1</v>
@@ -9454,19 +9535,19 @@
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C182" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>596</v>
+        <v>366</v>
       </c>
       <c r="H182" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I182">
         <v>-1</v>
@@ -9484,24 +9565,24 @@
         <v>0</v>
       </c>
       <c r="O182" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C183" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H183" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I183">
         <v>-1</v>
@@ -9524,19 +9605,19 @@
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C184" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H184" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I184">
         <v>-1</v>
@@ -9558,20 +9639,20 @@
       </c>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B185" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="C185" s="14" t="s">
-        <v>757</v>
+      <c r="B185" t="s">
+        <v>599</v>
+      </c>
+      <c r="C185" t="s">
+        <v>372</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
-      <c r="F185" s="14" t="s">
-        <v>760</v>
+      <c r="F185" t="s">
+        <v>600</v>
       </c>
       <c r="H185" t="s">
-        <v>763</v>
+        <v>371</v>
       </c>
       <c r="I185">
         <v>-1</v>
@@ -9594,19 +9675,19 @@
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B186" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H186" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I186">
         <v>-1</v>
@@ -9629,19 +9710,19 @@
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B187" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H187" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I187">
         <v>-1</v>
@@ -9663,61 +9744,61 @@
       </c>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J188" s="8"/>
-      <c r="K188" s="8"/>
-      <c r="L188" s="8"/>
-      <c r="M188" s="8"/>
+      <c r="B188" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="H188" t="s">
+        <v>765</v>
+      </c>
+      <c r="I188">
+        <v>-1</v>
+      </c>
+      <c r="J188" s="8">
+        <v>3</v>
+      </c>
+      <c r="K188" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L188" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M188" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O188" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>601</v>
-      </c>
-      <c r="C189" t="s">
-        <v>374</v>
-      </c>
-      <c r="E189" t="b">
-        <v>0</v>
-      </c>
-      <c r="F189" t="s">
-        <v>602</v>
-      </c>
-      <c r="H189" t="s">
-        <v>373</v>
-      </c>
-      <c r="I189">
-        <v>-1</v>
-      </c>
-      <c r="J189" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K189" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L189" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M189" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O189" s="14" t="s">
-        <v>375</v>
-      </c>
+      <c r="J189" s="8"/>
+      <c r="K189" s="8"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="8"/>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I190">
         <v>-1</v>
@@ -9740,19 +9821,19 @@
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I191">
         <v>-1</v>
@@ -9770,24 +9851,24 @@
         <v>1</v>
       </c>
       <c r="O191" s="14" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I192">
         <v>-1</v>
@@ -9804,25 +9885,25 @@
       <c r="M192" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O192" t="s">
-        <v>176</v>
+      <c r="O192" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I193">
         <v>-1</v>
@@ -9845,19 +9926,19 @@
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I194">
         <v>-1</v>
@@ -9880,19 +9961,19 @@
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I195">
         <v>-1</v>
@@ -9910,24 +9991,24 @@
         <v>1</v>
       </c>
       <c r="O195" t="s">
-        <v>388</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C196" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H196" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I196">
         <v>-1</v>
@@ -9945,24 +10026,24 @@
         <v>1</v>
       </c>
       <c r="O196" t="s">
-        <v>188</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I197">
         <v>-1</v>
@@ -9980,24 +10061,24 @@
         <v>1</v>
       </c>
       <c r="O197" t="s">
-        <v>393</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C198" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H198" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I198">
         <v>-1</v>
@@ -10015,24 +10096,24 @@
         <v>1</v>
       </c>
       <c r="O198" t="s">
-        <v>176</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C199" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H199" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I199">
         <v>-1</v>
@@ -10055,19 +10136,19 @@
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H200" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I200">
         <v>-1</v>
@@ -10090,19 +10171,19 @@
     </row>
     <row r="201" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C201" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H201" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I201">
         <v>-1</v>
@@ -10125,19 +10206,19 @@
     </row>
     <row r="202" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C202" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E202" t="b">
         <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H202" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I202">
         <v>-1</v>
@@ -10160,19 +10241,19 @@
     </row>
     <row r="203" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C203" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E203" t="b">
         <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I203">
         <v>-1</v>
@@ -10195,19 +10276,19 @@
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>631</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>407</v>
+        <v>629</v>
+      </c>
+      <c r="C204" t="s">
+        <v>405</v>
       </c>
       <c r="E204" t="b">
         <v>0</v>
       </c>
       <c r="F204" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H204" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I204">
         <v>-1</v>
@@ -10230,19 +10311,19 @@
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E205" t="b">
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H205" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I205">
         <v>-1</v>
@@ -10265,19 +10346,19 @@
     </row>
     <row r="206" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E206" t="b">
         <v>0</v>
       </c>
       <c r="F206" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I206">
         <v>-1</v>
@@ -10300,19 +10381,19 @@
     </row>
     <row r="207" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>637</v>
-      </c>
-      <c r="C207" t="s">
-        <v>413</v>
+        <v>635</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>411</v>
       </c>
       <c r="E207" t="b">
         <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I207">
         <v>-1</v>
@@ -10335,19 +10416,19 @@
     </row>
     <row r="208" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C208" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E208" t="b">
         <v>0</v>
       </c>
       <c r="F208" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H208" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I208">
         <v>-1</v>
@@ -10370,19 +10451,19 @@
     </row>
     <row r="209" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C209" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E209" t="b">
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I209">
         <v>-1</v>
@@ -10405,19 +10486,19 @@
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C210" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E210" t="b">
         <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H210" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I210">
         <v>-1</v>
@@ -10440,19 +10521,19 @@
     </row>
     <row r="211" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C211" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E211" t="b">
         <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I211">
         <v>-1</v>
@@ -10475,19 +10556,19 @@
     </row>
     <row r="212" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C212" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E212" t="b">
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I212">
         <v>-1</v>
@@ -10510,19 +10591,19 @@
     </row>
     <row r="213" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C213" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E213" t="b">
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H213" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I213">
         <v>-1</v>
@@ -10539,25 +10620,25 @@
       <c r="M213" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O213" s="14" t="s">
-        <v>426</v>
+      <c r="O213" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="214" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C214" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E214" t="b">
         <v>0</v>
       </c>
       <c r="F214" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H214" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I214">
         <v>-1</v>
@@ -10580,19 +10661,19 @@
     </row>
     <row r="215" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C215" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E215" t="b">
         <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H215" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I215">
         <v>-1</v>
@@ -10615,19 +10696,19 @@
     </row>
     <row r="216" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>655</v>
-      </c>
-      <c r="C216" s="14" t="s">
-        <v>460</v>
+        <v>653</v>
+      </c>
+      <c r="C216" t="s">
+        <v>430</v>
       </c>
       <c r="E216" t="b">
         <v>0</v>
       </c>
       <c r="F216" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H216" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I216">
         <v>-1</v>
@@ -10650,7 +10731,7 @@
     </row>
     <row r="217" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>460</v>
@@ -10659,10 +10740,10 @@
         <v>0</v>
       </c>
       <c r="F217" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H217" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I217">
         <v>-1</v>
@@ -10685,7 +10766,7 @@
     </row>
     <row r="218" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C218" s="14" t="s">
         <v>460</v>
@@ -10694,10 +10775,10 @@
         <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H218" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I218">
         <v>-1</v>
@@ -10719,20 +10800,20 @@
       </c>
     </row>
     <row r="219" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B219" s="14" t="s">
-        <v>766</v>
+      <c r="B219" t="s">
+        <v>659</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>767</v>
+        <v>460</v>
       </c>
       <c r="E219" t="b">
         <v>0</v>
       </c>
-      <c r="F219" s="14" t="s">
-        <v>768</v>
+      <c r="F219" t="s">
+        <v>660</v>
       </c>
       <c r="H219" t="s">
-        <v>769</v>
+        <v>433</v>
       </c>
       <c r="I219">
         <v>-1</v>
@@ -10753,44 +10834,47 @@
         <v>426</v>
       </c>
     </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B221" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="C221" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="E221" t="b">
-        <v>0</v>
-      </c>
-      <c r="F221" t="s">
-        <v>724</v>
-      </c>
-      <c r="I221">
-        <v>-1</v>
-      </c>
-      <c r="J221" s="8">
-        <v>1</v>
-      </c>
-      <c r="K221" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="L221" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M221" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O221" t="s">
-        <v>176</v>
+    <row r="220" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B220" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="E220" t="b">
+        <v>0</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="H220" t="s">
+        <v>769</v>
+      </c>
+      <c r="I220">
+        <v>-1</v>
+      </c>
+      <c r="J220" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K220" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L220" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M220" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O220" s="14" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="222" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B222" s="14" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E222" t="b">
         <v>0</v>
@@ -10798,7 +10882,6 @@
       <c r="F222" t="s">
         <v>724</v>
       </c>
-      <c r="H222" s="8"/>
       <c r="I222">
         <v>-1</v>
       </c>
@@ -10806,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="K222" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L222" s="8" t="b">
         <v>0</v>
@@ -10820,17 +10903,18 @@
     </row>
     <row r="223" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B223" s="14" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E223" t="b">
         <v>0</v>
       </c>
-      <c r="F223" s="14" t="s">
-        <v>728</v>
-      </c>
+      <c r="F223" t="s">
+        <v>724</v>
+      </c>
+      <c r="H223" s="8"/>
       <c r="I223">
         <v>-1</v>
       </c>
@@ -10838,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L223" s="8" t="b">
         <v>0</v>
@@ -10852,10 +10936,10 @@
     </row>
     <row r="224" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B224" s="14" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E224" t="b">
         <v>0</v>
@@ -10870,7 +10954,7 @@
         <v>1</v>
       </c>
       <c r="K224" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L224" s="8" t="b">
         <v>0</v>
@@ -10882,79 +10966,79 @@
         <v>176</v>
       </c>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B226" s="14" t="s">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B225" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="I225">
+        <v>-1</v>
+      </c>
+      <c r="J225" s="8">
+        <v>1</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="L225" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M225" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O225" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="227" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B227" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="C226" s="14" t="s">
+      <c r="C227" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="E226" t="b">
-        <v>0</v>
-      </c>
-      <c r="F226" s="14" t="s">
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
+      <c r="F227" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="I226">
-        <v>-1</v>
-      </c>
-      <c r="J226" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K226" s="8" t="s">
+      <c r="I227">
+        <v>-1</v>
+      </c>
+      <c r="J227" s="8">
+        <v>-1</v>
+      </c>
+      <c r="K227" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="L226" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M226" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O226" t="s">
+      <c r="L227" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M227" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O227" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="H227" s="8"/>
-    </row>
     <row r="228" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B228" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>801</v>
-      </c>
-      <c r="D228" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="E228" t="b">
-        <v>0</v>
-      </c>
-      <c r="F228" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="J228" s="8">
-        <v>3</v>
-      </c>
-      <c r="K228" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L228" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M228" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O228" t="s">
-        <v>176</v>
-      </c>
+      <c r="H228" s="8"/>
     </row>
     <row r="229" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B229" s="16" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D229" s="17" t="s">
         <v>802</v>
@@ -10963,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="F229" s="16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J229" s="8">
         <v>3</v>
@@ -10983,10 +11067,10 @@
     </row>
     <row r="230" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B230" s="16" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D230" s="17" t="s">
         <v>802</v>
@@ -10995,21 +11079,213 @@
         <v>0</v>
       </c>
       <c r="F230" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="J230" s="8">
+        <v>3</v>
+      </c>
+      <c r="K230" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L230" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M230" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O230" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="231" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B231" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="E231" t="b">
+        <v>0</v>
+      </c>
+      <c r="F231" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="J230" s="8">
-        <v>3</v>
-      </c>
-      <c r="K230" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="L230" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M230" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O230" t="s">
+      <c r="J231" s="8">
+        <v>3</v>
+      </c>
+      <c r="K231" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L231" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M231" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O231" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="233" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B233" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="C233" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="D233" t="s">
+        <v>822</v>
+      </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
+      <c r="F233" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="J233" s="8">
+        <v>3</v>
+      </c>
+      <c r="K233" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L233" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M233" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O233" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="234" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B234" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="C234" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="D234" t="s">
+        <v>822</v>
+      </c>
+      <c r="E234" t="b">
+        <v>0</v>
+      </c>
+      <c r="F234" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="J234" s="8">
+        <v>3</v>
+      </c>
+      <c r="K234" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L234" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M234" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O234" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="235" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B235" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="C235" s="25" t="s">
+        <v>819</v>
+      </c>
+      <c r="D235" t="s">
+        <v>822</v>
+      </c>
+      <c r="E235" t="b">
+        <v>0</v>
+      </c>
+      <c r="F235" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="J235" s="8">
+        <v>3</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L235" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M235" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O235" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="236" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B236" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C236" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="D236" t="s">
+        <v>823</v>
+      </c>
+      <c r="E236" t="b">
+        <v>0</v>
+      </c>
+      <c r="F236" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="J236" s="8">
+        <v>3</v>
+      </c>
+      <c r="K236" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L236" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M236" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O236" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="237" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B237" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="C237" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="D237" t="s">
+        <v>823</v>
+      </c>
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
+      <c r="F237" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="J237" s="8">
+        <v>3</v>
+      </c>
+      <c r="K237" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="L237" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M237" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O237" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11037,37 +11313,37 @@
   <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B59 B61:B72">
+  <conditionalFormatting sqref="B62:B73 B54:B60">
     <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B229:B231">
+    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:F56">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="F54:F57">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F59 F61:F72">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="F59:F60 F62:F73">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B228:B230">
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F228:F230">
+  <conditionalFormatting sqref="F229:F231">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
